--- a/MACROGenerator/config/Signals.xlsx
+++ b/MACROGenerator/config/Signals.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CC42C1E-E846-40E5-9C34-A8528FF760EE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BCF9B2B-1B74-4BC8-B73C-30CDAC7EB3C5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -919,77 +919,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="226">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC8C8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC8C8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC8C8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC8C8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC8C8"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="216">
     <dxf>
       <fill>
         <patternFill>
@@ -2781,7 +2711,7 @@
   <dimension ref="A1:S116"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2791,7 +2721,7 @@
     <col min="6" max="6" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="48.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="48.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -4691,792 +4621,792 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="K3:S3">
-    <cfRule type="cellIs" dxfId="221" priority="222" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="215" priority="222" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K3:S3">
-    <cfRule type="cellIs" dxfId="220" priority="221" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="214" priority="221" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4:S4">
-    <cfRule type="cellIs" dxfId="219" priority="220" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="213" priority="220" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4:S4">
-    <cfRule type="cellIs" dxfId="218" priority="219" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="212" priority="219" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5:S5">
-    <cfRule type="cellIs" dxfId="217" priority="218" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="211" priority="218" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5:S5">
-    <cfRule type="cellIs" dxfId="216" priority="217" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="210" priority="217" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6:S6">
-    <cfRule type="cellIs" dxfId="215" priority="216" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="209" priority="216" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6:S6">
-    <cfRule type="cellIs" dxfId="214" priority="215" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="208" priority="215" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K7:S7">
-    <cfRule type="cellIs" dxfId="213" priority="214" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="207" priority="214" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K7:S7">
-    <cfRule type="cellIs" dxfId="212" priority="213" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="206" priority="213" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K7:S7">
-    <cfRule type="cellIs" dxfId="211" priority="212" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="205" priority="212" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K7:S7">
-    <cfRule type="cellIs" dxfId="210" priority="211" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="204" priority="211" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K8:S15">
-    <cfRule type="cellIs" dxfId="209" priority="210" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="203" priority="210" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K8:S15">
-    <cfRule type="cellIs" dxfId="208" priority="209" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="202" priority="209" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K16:S16">
-    <cfRule type="cellIs" dxfId="207" priority="208" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="201" priority="208" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K16:S16">
-    <cfRule type="cellIs" dxfId="206" priority="207" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="200" priority="207" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K17:S17">
-    <cfRule type="cellIs" dxfId="205" priority="206" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="199" priority="206" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K17:S17">
-    <cfRule type="cellIs" dxfId="204" priority="205" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="198" priority="205" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
-    <cfRule type="cellIs" dxfId="203" priority="204" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="197" priority="204" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
-    <cfRule type="cellIs" dxfId="202" priority="203" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="196" priority="203" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="cellIs" dxfId="201" priority="202" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="195" priority="202" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="cellIs" dxfId="200" priority="201" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="194" priority="201" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="cellIs" dxfId="199" priority="200" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="193" priority="200" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="cellIs" dxfId="198" priority="199" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="192" priority="199" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="cellIs" dxfId="197" priority="198" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="191" priority="198" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="cellIs" dxfId="196" priority="197" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="190" priority="197" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7">
-    <cfRule type="cellIs" dxfId="195" priority="196" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="189" priority="196" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7">
-    <cfRule type="cellIs" dxfId="194" priority="195" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="188" priority="195" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="cellIs" dxfId="193" priority="194" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="187" priority="194" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="cellIs" dxfId="192" priority="193" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="186" priority="193" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9">
-    <cfRule type="cellIs" dxfId="191" priority="192" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="185" priority="192" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9">
-    <cfRule type="cellIs" dxfId="190" priority="191" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="184" priority="191" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10">
-    <cfRule type="cellIs" dxfId="189" priority="190" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="183" priority="190" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10">
-    <cfRule type="cellIs" dxfId="188" priority="189" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="182" priority="189" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11">
-    <cfRule type="cellIs" dxfId="187" priority="188" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="181" priority="188" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11">
-    <cfRule type="cellIs" dxfId="186" priority="187" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="180" priority="187" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12">
-    <cfRule type="cellIs" dxfId="185" priority="186" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="179" priority="186" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12">
-    <cfRule type="cellIs" dxfId="184" priority="185" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="178" priority="185" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13">
-    <cfRule type="cellIs" dxfId="183" priority="184" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="177" priority="184" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13">
-    <cfRule type="cellIs" dxfId="182" priority="183" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="176" priority="183" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14">
-    <cfRule type="cellIs" dxfId="181" priority="182" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="175" priority="182" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14">
-    <cfRule type="cellIs" dxfId="180" priority="181" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="174" priority="181" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15">
-    <cfRule type="cellIs" dxfId="179" priority="180" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="173" priority="180" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15">
-    <cfRule type="cellIs" dxfId="178" priority="179" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="172" priority="179" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16">
-    <cfRule type="cellIs" dxfId="177" priority="178" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="171" priority="178" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16">
-    <cfRule type="cellIs" dxfId="176" priority="177" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="170" priority="177" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17">
-    <cfRule type="cellIs" dxfId="175" priority="176" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="169" priority="176" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17">
-    <cfRule type="cellIs" dxfId="174" priority="175" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="168" priority="175" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19">
-    <cfRule type="cellIs" dxfId="173" priority="174" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="167" priority="174" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19">
-    <cfRule type="cellIs" dxfId="172" priority="173" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="166" priority="173" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20">
-    <cfRule type="cellIs" dxfId="171" priority="172" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="165" priority="172" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20">
-    <cfRule type="cellIs" dxfId="170" priority="171" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="164" priority="171" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21">
-    <cfRule type="cellIs" dxfId="169" priority="170" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="163" priority="170" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21">
-    <cfRule type="cellIs" dxfId="168" priority="169" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="162" priority="169" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22">
-    <cfRule type="cellIs" dxfId="167" priority="168" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="161" priority="168" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22">
-    <cfRule type="cellIs" dxfId="166" priority="167" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="160" priority="167" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23">
-    <cfRule type="cellIs" dxfId="165" priority="166" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="159" priority="166" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23">
-    <cfRule type="cellIs" dxfId="164" priority="165" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="158" priority="165" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A24">
-    <cfRule type="cellIs" dxfId="163" priority="164" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="157" priority="164" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A24">
-    <cfRule type="cellIs" dxfId="162" priority="163" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="156" priority="163" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A25">
-    <cfRule type="cellIs" dxfId="161" priority="162" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="155" priority="162" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A25">
-    <cfRule type="cellIs" dxfId="160" priority="161" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="154" priority="161" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26">
-    <cfRule type="cellIs" dxfId="159" priority="160" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="153" priority="160" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26">
-    <cfRule type="cellIs" dxfId="158" priority="159" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="152" priority="159" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27">
-    <cfRule type="cellIs" dxfId="157" priority="158" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="151" priority="158" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27">
-    <cfRule type="cellIs" dxfId="156" priority="157" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="150" priority="157" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28">
-    <cfRule type="cellIs" dxfId="155" priority="156" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="149" priority="156" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28">
-    <cfRule type="cellIs" dxfId="154" priority="155" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="148" priority="155" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29">
-    <cfRule type="cellIs" dxfId="153" priority="154" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="147" priority="154" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29">
-    <cfRule type="cellIs" dxfId="152" priority="153" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="146" priority="153" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30">
-    <cfRule type="cellIs" dxfId="151" priority="152" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="145" priority="152" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30">
-    <cfRule type="cellIs" dxfId="150" priority="151" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="144" priority="151" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31">
-    <cfRule type="cellIs" dxfId="149" priority="150" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="143" priority="150" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31">
-    <cfRule type="cellIs" dxfId="148" priority="149" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="142" priority="149" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A32">
-    <cfRule type="cellIs" dxfId="147" priority="148" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="141" priority="148" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A32">
-    <cfRule type="cellIs" dxfId="146" priority="147" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="140" priority="147" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A33">
-    <cfRule type="cellIs" dxfId="145" priority="146" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="139" priority="146" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A33">
-    <cfRule type="cellIs" dxfId="144" priority="145" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="138" priority="145" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A34">
-    <cfRule type="cellIs" dxfId="143" priority="144" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="137" priority="144" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A34">
-    <cfRule type="cellIs" dxfId="142" priority="143" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="136" priority="143" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A35">
-    <cfRule type="cellIs" dxfId="141" priority="142" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="135" priority="142" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A35">
-    <cfRule type="cellIs" dxfId="140" priority="141" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="134" priority="141" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37">
-    <cfRule type="cellIs" dxfId="139" priority="140" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="133" priority="140" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37">
-    <cfRule type="cellIs" dxfId="138" priority="139" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="132" priority="139" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A38">
-    <cfRule type="cellIs" dxfId="137" priority="138" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="131" priority="138" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A38">
-    <cfRule type="cellIs" dxfId="136" priority="137" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="130" priority="137" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A39">
-    <cfRule type="cellIs" dxfId="135" priority="136" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="129" priority="136" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A39">
-    <cfRule type="cellIs" dxfId="134" priority="135" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="128" priority="135" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A76">
-    <cfRule type="cellIs" dxfId="133" priority="64" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="127" priority="64" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A76">
-    <cfRule type="cellIs" dxfId="132" priority="63" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="126" priority="63" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A77">
-    <cfRule type="cellIs" dxfId="131" priority="60" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="125" priority="60" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A77">
-    <cfRule type="cellIs" dxfId="130" priority="59" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="124" priority="59" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A75">
-    <cfRule type="cellIs" dxfId="129" priority="62" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="123" priority="62" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A75">
-    <cfRule type="cellIs" dxfId="128" priority="61" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="122" priority="61" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A41">
-    <cfRule type="cellIs" dxfId="127" priority="128" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="121" priority="128" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A41">
-    <cfRule type="cellIs" dxfId="126" priority="127" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="120" priority="127" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A40">
-    <cfRule type="cellIs" dxfId="125" priority="126" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="119" priority="126" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A40">
-    <cfRule type="cellIs" dxfId="124" priority="125" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="118" priority="125" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A42">
-    <cfRule type="cellIs" dxfId="123" priority="124" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="117" priority="124" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A42">
-    <cfRule type="cellIs" dxfId="122" priority="123" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="116" priority="123" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A43">
-    <cfRule type="cellIs" dxfId="121" priority="122" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="115" priority="122" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A43">
-    <cfRule type="cellIs" dxfId="120" priority="121" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="114" priority="121" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A44">
-    <cfRule type="cellIs" dxfId="119" priority="120" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="113" priority="120" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A44">
-    <cfRule type="cellIs" dxfId="118" priority="119" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="112" priority="119" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A45">
-    <cfRule type="cellIs" dxfId="117" priority="118" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="111" priority="118" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A45">
-    <cfRule type="cellIs" dxfId="116" priority="117" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="110" priority="117" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A46">
-    <cfRule type="cellIs" dxfId="115" priority="116" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="116" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A46">
-    <cfRule type="cellIs" dxfId="114" priority="115" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="108" priority="115" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A47">
-    <cfRule type="cellIs" dxfId="113" priority="114" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="107" priority="114" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A47">
-    <cfRule type="cellIs" dxfId="112" priority="113" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="106" priority="113" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A48">
-    <cfRule type="cellIs" dxfId="111" priority="112" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="112" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A48">
-    <cfRule type="cellIs" dxfId="110" priority="111" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="104" priority="111" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A49">
-    <cfRule type="cellIs" dxfId="109" priority="110" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="103" priority="110" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A49">
-    <cfRule type="cellIs" dxfId="108" priority="109" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="102" priority="109" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A50">
-    <cfRule type="cellIs" dxfId="107" priority="108" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="101" priority="108" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A50">
-    <cfRule type="cellIs" dxfId="106" priority="107" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="107" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A51">
-    <cfRule type="cellIs" dxfId="105" priority="106" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="99" priority="106" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A51">
-    <cfRule type="cellIs" dxfId="104" priority="105" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="98" priority="105" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A52">
-    <cfRule type="cellIs" dxfId="103" priority="104" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="104" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A52">
-    <cfRule type="cellIs" dxfId="102" priority="103" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="103" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A53">
-    <cfRule type="cellIs" dxfId="101" priority="102" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="102" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A53">
-    <cfRule type="cellIs" dxfId="100" priority="101" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="101" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A54">
-    <cfRule type="cellIs" dxfId="99" priority="100" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="100" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A54">
-    <cfRule type="cellIs" dxfId="98" priority="99" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="99" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A55">
-    <cfRule type="cellIs" dxfId="97" priority="98" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="98" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A55">
-    <cfRule type="cellIs" dxfId="96" priority="97" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="97" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A56">
-    <cfRule type="cellIs" dxfId="95" priority="96" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="96" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A56">
-    <cfRule type="cellIs" dxfId="94" priority="95" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="95" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A57">
-    <cfRule type="cellIs" dxfId="93" priority="94" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="94" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A57">
-    <cfRule type="cellIs" dxfId="92" priority="93" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="93" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A58">
-    <cfRule type="cellIs" dxfId="91" priority="92" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="92" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A58">
-    <cfRule type="cellIs" dxfId="90" priority="91" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="91" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A59">
-    <cfRule type="cellIs" dxfId="89" priority="90" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="90" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A59">
-    <cfRule type="cellIs" dxfId="88" priority="89" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="89" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A60">
-    <cfRule type="cellIs" dxfId="87" priority="88" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="88" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A60">
-    <cfRule type="cellIs" dxfId="86" priority="87" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="87" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A61">
-    <cfRule type="cellIs" dxfId="85" priority="86" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="86" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A61">
-    <cfRule type="cellIs" dxfId="84" priority="85" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="85" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A62">
-    <cfRule type="cellIs" dxfId="83" priority="84" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="84" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A62">
-    <cfRule type="cellIs" dxfId="82" priority="83" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="83" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A63">
-    <cfRule type="cellIs" dxfId="81" priority="82" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="82" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A63">
-    <cfRule type="cellIs" dxfId="80" priority="81" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="81" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A64">
-    <cfRule type="cellIs" dxfId="79" priority="80" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="80" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A64">
-    <cfRule type="cellIs" dxfId="78" priority="79" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="79" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A65">
-    <cfRule type="cellIs" dxfId="77" priority="78" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="78" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A65">
-    <cfRule type="cellIs" dxfId="76" priority="77" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="77" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A66">
-    <cfRule type="cellIs" dxfId="75" priority="76" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="76" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A66">
-    <cfRule type="cellIs" dxfId="74" priority="75" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="75" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A67:A68">
-    <cfRule type="cellIs" dxfId="73" priority="74" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="74" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A67:A68">
-    <cfRule type="cellIs" dxfId="72" priority="73" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="73" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A69:A70">
-    <cfRule type="cellIs" dxfId="71" priority="72" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="72" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A69:A70">
-    <cfRule type="cellIs" dxfId="70" priority="71" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="71" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A71">
-    <cfRule type="cellIs" dxfId="69" priority="70" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="70" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A71">
-    <cfRule type="cellIs" dxfId="68" priority="69" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="69" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A72">
-    <cfRule type="cellIs" dxfId="67" priority="68" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="68" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A72">
-    <cfRule type="cellIs" dxfId="66" priority="67" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="67" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A74">
-    <cfRule type="cellIs" dxfId="65" priority="66" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="66" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A74">
-    <cfRule type="cellIs" dxfId="64" priority="65" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="65" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/MACROGenerator/config/Signals.xlsx
+++ b/MACROGenerator/config/Signals.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BCF9B2B-1B74-4BC8-B73C-30CDAC7EB3C5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CC42C1E-E846-40E5-9C34-A8528FF760EE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -919,7 +919,77 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="216">
+  <dxfs count="226">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC8C8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC8C8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC8C8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC8C8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC8C8"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2711,7 +2781,7 @@
   <dimension ref="A1:S116"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2721,7 +2791,7 @@
     <col min="6" max="6" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="48.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="48.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -4621,792 +4691,792 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="K3:S3">
-    <cfRule type="cellIs" dxfId="215" priority="222" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="221" priority="222" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K3:S3">
-    <cfRule type="cellIs" dxfId="214" priority="221" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="220" priority="221" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4:S4">
-    <cfRule type="cellIs" dxfId="213" priority="220" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="219" priority="220" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4:S4">
-    <cfRule type="cellIs" dxfId="212" priority="219" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="218" priority="219" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5:S5">
-    <cfRule type="cellIs" dxfId="211" priority="218" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="217" priority="218" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5:S5">
-    <cfRule type="cellIs" dxfId="210" priority="217" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="216" priority="217" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6:S6">
-    <cfRule type="cellIs" dxfId="209" priority="216" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="215" priority="216" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6:S6">
-    <cfRule type="cellIs" dxfId="208" priority="215" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="214" priority="215" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K7:S7">
-    <cfRule type="cellIs" dxfId="207" priority="214" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="213" priority="214" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K7:S7">
-    <cfRule type="cellIs" dxfId="206" priority="213" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="212" priority="213" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K7:S7">
-    <cfRule type="cellIs" dxfId="205" priority="212" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="211" priority="212" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K7:S7">
-    <cfRule type="cellIs" dxfId="204" priority="211" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="210" priority="211" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K8:S15">
-    <cfRule type="cellIs" dxfId="203" priority="210" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="209" priority="210" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K8:S15">
-    <cfRule type="cellIs" dxfId="202" priority="209" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="208" priority="209" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K16:S16">
-    <cfRule type="cellIs" dxfId="201" priority="208" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="207" priority="208" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K16:S16">
-    <cfRule type="cellIs" dxfId="200" priority="207" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="206" priority="207" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K17:S17">
-    <cfRule type="cellIs" dxfId="199" priority="206" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="205" priority="206" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K17:S17">
-    <cfRule type="cellIs" dxfId="198" priority="205" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="204" priority="205" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
-    <cfRule type="cellIs" dxfId="197" priority="204" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="203" priority="204" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
-    <cfRule type="cellIs" dxfId="196" priority="203" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="202" priority="203" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="cellIs" dxfId="195" priority="202" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="201" priority="202" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="cellIs" dxfId="194" priority="201" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="200" priority="201" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="cellIs" dxfId="193" priority="200" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="199" priority="200" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="cellIs" dxfId="192" priority="199" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="198" priority="199" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="cellIs" dxfId="191" priority="198" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="197" priority="198" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="cellIs" dxfId="190" priority="197" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="196" priority="197" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7">
-    <cfRule type="cellIs" dxfId="189" priority="196" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="195" priority="196" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7">
-    <cfRule type="cellIs" dxfId="188" priority="195" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="194" priority="195" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="cellIs" dxfId="187" priority="194" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="193" priority="194" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="cellIs" dxfId="186" priority="193" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="192" priority="193" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9">
-    <cfRule type="cellIs" dxfId="185" priority="192" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="191" priority="192" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9">
-    <cfRule type="cellIs" dxfId="184" priority="191" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="190" priority="191" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10">
-    <cfRule type="cellIs" dxfId="183" priority="190" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="189" priority="190" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10">
-    <cfRule type="cellIs" dxfId="182" priority="189" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="188" priority="189" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11">
-    <cfRule type="cellIs" dxfId="181" priority="188" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="187" priority="188" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11">
-    <cfRule type="cellIs" dxfId="180" priority="187" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="186" priority="187" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12">
-    <cfRule type="cellIs" dxfId="179" priority="186" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="185" priority="186" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12">
-    <cfRule type="cellIs" dxfId="178" priority="185" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="184" priority="185" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13">
-    <cfRule type="cellIs" dxfId="177" priority="184" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="183" priority="184" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13">
-    <cfRule type="cellIs" dxfId="176" priority="183" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="182" priority="183" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14">
-    <cfRule type="cellIs" dxfId="175" priority="182" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="181" priority="182" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14">
-    <cfRule type="cellIs" dxfId="174" priority="181" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="180" priority="181" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15">
-    <cfRule type="cellIs" dxfId="173" priority="180" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="179" priority="180" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15">
-    <cfRule type="cellIs" dxfId="172" priority="179" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="178" priority="179" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16">
-    <cfRule type="cellIs" dxfId="171" priority="178" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="177" priority="178" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16">
-    <cfRule type="cellIs" dxfId="170" priority="177" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="176" priority="177" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17">
-    <cfRule type="cellIs" dxfId="169" priority="176" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="175" priority="176" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17">
-    <cfRule type="cellIs" dxfId="168" priority="175" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="174" priority="175" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19">
-    <cfRule type="cellIs" dxfId="167" priority="174" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="173" priority="174" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19">
-    <cfRule type="cellIs" dxfId="166" priority="173" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="172" priority="173" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20">
-    <cfRule type="cellIs" dxfId="165" priority="172" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="171" priority="172" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20">
-    <cfRule type="cellIs" dxfId="164" priority="171" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="170" priority="171" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21">
-    <cfRule type="cellIs" dxfId="163" priority="170" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="169" priority="170" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21">
-    <cfRule type="cellIs" dxfId="162" priority="169" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="168" priority="169" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22">
-    <cfRule type="cellIs" dxfId="161" priority="168" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="167" priority="168" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22">
-    <cfRule type="cellIs" dxfId="160" priority="167" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="166" priority="167" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23">
-    <cfRule type="cellIs" dxfId="159" priority="166" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="165" priority="166" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23">
-    <cfRule type="cellIs" dxfId="158" priority="165" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="164" priority="165" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A24">
-    <cfRule type="cellIs" dxfId="157" priority="164" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="163" priority="164" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A24">
-    <cfRule type="cellIs" dxfId="156" priority="163" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="162" priority="163" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A25">
-    <cfRule type="cellIs" dxfId="155" priority="162" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="161" priority="162" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A25">
-    <cfRule type="cellIs" dxfId="154" priority="161" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="160" priority="161" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26">
-    <cfRule type="cellIs" dxfId="153" priority="160" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="159" priority="160" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26">
-    <cfRule type="cellIs" dxfId="152" priority="159" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="158" priority="159" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27">
-    <cfRule type="cellIs" dxfId="151" priority="158" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="157" priority="158" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27">
-    <cfRule type="cellIs" dxfId="150" priority="157" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="156" priority="157" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28">
-    <cfRule type="cellIs" dxfId="149" priority="156" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="155" priority="156" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28">
-    <cfRule type="cellIs" dxfId="148" priority="155" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="154" priority="155" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29">
-    <cfRule type="cellIs" dxfId="147" priority="154" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="153" priority="154" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29">
-    <cfRule type="cellIs" dxfId="146" priority="153" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="152" priority="153" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30">
-    <cfRule type="cellIs" dxfId="145" priority="152" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="151" priority="152" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30">
-    <cfRule type="cellIs" dxfId="144" priority="151" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="150" priority="151" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31">
-    <cfRule type="cellIs" dxfId="143" priority="150" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="149" priority="150" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31">
-    <cfRule type="cellIs" dxfId="142" priority="149" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="148" priority="149" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A32">
-    <cfRule type="cellIs" dxfId="141" priority="148" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="147" priority="148" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A32">
-    <cfRule type="cellIs" dxfId="140" priority="147" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="146" priority="147" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A33">
-    <cfRule type="cellIs" dxfId="139" priority="146" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="145" priority="146" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A33">
-    <cfRule type="cellIs" dxfId="138" priority="145" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="144" priority="145" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A34">
-    <cfRule type="cellIs" dxfId="137" priority="144" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="143" priority="144" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A34">
-    <cfRule type="cellIs" dxfId="136" priority="143" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="142" priority="143" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A35">
-    <cfRule type="cellIs" dxfId="135" priority="142" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="141" priority="142" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A35">
-    <cfRule type="cellIs" dxfId="134" priority="141" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="140" priority="141" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37">
-    <cfRule type="cellIs" dxfId="133" priority="140" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="139" priority="140" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37">
-    <cfRule type="cellIs" dxfId="132" priority="139" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="138" priority="139" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A38">
-    <cfRule type="cellIs" dxfId="131" priority="138" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="137" priority="138" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A38">
-    <cfRule type="cellIs" dxfId="130" priority="137" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="136" priority="137" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A39">
-    <cfRule type="cellIs" dxfId="129" priority="136" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="135" priority="136" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A39">
-    <cfRule type="cellIs" dxfId="128" priority="135" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="134" priority="135" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A76">
-    <cfRule type="cellIs" dxfId="127" priority="64" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="133" priority="64" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A76">
-    <cfRule type="cellIs" dxfId="126" priority="63" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="132" priority="63" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A77">
-    <cfRule type="cellIs" dxfId="125" priority="60" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="131" priority="60" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A77">
-    <cfRule type="cellIs" dxfId="124" priority="59" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="130" priority="59" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A75">
-    <cfRule type="cellIs" dxfId="123" priority="62" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="129" priority="62" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A75">
-    <cfRule type="cellIs" dxfId="122" priority="61" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="128" priority="61" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A41">
-    <cfRule type="cellIs" dxfId="121" priority="128" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="127" priority="128" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A41">
-    <cfRule type="cellIs" dxfId="120" priority="127" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="126" priority="127" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A40">
-    <cfRule type="cellIs" dxfId="119" priority="126" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="125" priority="126" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A40">
-    <cfRule type="cellIs" dxfId="118" priority="125" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="124" priority="125" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A42">
-    <cfRule type="cellIs" dxfId="117" priority="124" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="123" priority="124" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A42">
-    <cfRule type="cellIs" dxfId="116" priority="123" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="122" priority="123" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A43">
-    <cfRule type="cellIs" dxfId="115" priority="122" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="121" priority="122" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A43">
-    <cfRule type="cellIs" dxfId="114" priority="121" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="120" priority="121" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A44">
-    <cfRule type="cellIs" dxfId="113" priority="120" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="119" priority="120" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A44">
-    <cfRule type="cellIs" dxfId="112" priority="119" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="118" priority="119" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A45">
-    <cfRule type="cellIs" dxfId="111" priority="118" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="117" priority="118" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A45">
-    <cfRule type="cellIs" dxfId="110" priority="117" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="116" priority="117" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A46">
-    <cfRule type="cellIs" dxfId="109" priority="116" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="115" priority="116" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A46">
-    <cfRule type="cellIs" dxfId="108" priority="115" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="114" priority="115" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A47">
-    <cfRule type="cellIs" dxfId="107" priority="114" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="113" priority="114" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A47">
-    <cfRule type="cellIs" dxfId="106" priority="113" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="112" priority="113" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A48">
-    <cfRule type="cellIs" dxfId="105" priority="112" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="111" priority="112" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A48">
-    <cfRule type="cellIs" dxfId="104" priority="111" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="110" priority="111" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A49">
-    <cfRule type="cellIs" dxfId="103" priority="110" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="110" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A49">
-    <cfRule type="cellIs" dxfId="102" priority="109" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="108" priority="109" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A50">
-    <cfRule type="cellIs" dxfId="101" priority="108" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="107" priority="108" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A50">
-    <cfRule type="cellIs" dxfId="100" priority="107" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="106" priority="107" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A51">
-    <cfRule type="cellIs" dxfId="99" priority="106" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="106" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A51">
-    <cfRule type="cellIs" dxfId="98" priority="105" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="104" priority="105" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A52">
-    <cfRule type="cellIs" dxfId="97" priority="104" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="103" priority="104" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A52">
-    <cfRule type="cellIs" dxfId="96" priority="103" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="102" priority="103" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A53">
-    <cfRule type="cellIs" dxfId="95" priority="102" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="101" priority="102" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A53">
-    <cfRule type="cellIs" dxfId="94" priority="101" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="101" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A54">
-    <cfRule type="cellIs" dxfId="93" priority="100" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="99" priority="100" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A54">
-    <cfRule type="cellIs" dxfId="92" priority="99" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="98" priority="99" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A55">
-    <cfRule type="cellIs" dxfId="91" priority="98" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="98" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A55">
-    <cfRule type="cellIs" dxfId="90" priority="97" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="97" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A56">
-    <cfRule type="cellIs" dxfId="89" priority="96" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="96" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A56">
-    <cfRule type="cellIs" dxfId="88" priority="95" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="95" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A57">
-    <cfRule type="cellIs" dxfId="87" priority="94" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="94" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A57">
-    <cfRule type="cellIs" dxfId="86" priority="93" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="93" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A58">
-    <cfRule type="cellIs" dxfId="85" priority="92" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="92" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A58">
-    <cfRule type="cellIs" dxfId="84" priority="91" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="91" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A59">
-    <cfRule type="cellIs" dxfId="83" priority="90" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="90" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A59">
-    <cfRule type="cellIs" dxfId="82" priority="89" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="89" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A60">
-    <cfRule type="cellIs" dxfId="81" priority="88" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="88" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A60">
-    <cfRule type="cellIs" dxfId="80" priority="87" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="87" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A61">
-    <cfRule type="cellIs" dxfId="79" priority="86" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="86" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A61">
-    <cfRule type="cellIs" dxfId="78" priority="85" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="85" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A62">
-    <cfRule type="cellIs" dxfId="77" priority="84" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="84" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A62">
-    <cfRule type="cellIs" dxfId="76" priority="83" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="83" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A63">
-    <cfRule type="cellIs" dxfId="75" priority="82" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="82" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A63">
-    <cfRule type="cellIs" dxfId="74" priority="81" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="81" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A64">
-    <cfRule type="cellIs" dxfId="73" priority="80" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="80" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A64">
-    <cfRule type="cellIs" dxfId="72" priority="79" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="79" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A65">
-    <cfRule type="cellIs" dxfId="71" priority="78" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="78" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A65">
-    <cfRule type="cellIs" dxfId="70" priority="77" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="77" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A66">
-    <cfRule type="cellIs" dxfId="69" priority="76" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="76" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A66">
-    <cfRule type="cellIs" dxfId="68" priority="75" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="75" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A67:A68">
-    <cfRule type="cellIs" dxfId="67" priority="74" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="74" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A67:A68">
-    <cfRule type="cellIs" dxfId="66" priority="73" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="73" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A69:A70">
-    <cfRule type="cellIs" dxfId="65" priority="72" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="72" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A69:A70">
-    <cfRule type="cellIs" dxfId="64" priority="71" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="71" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A71">
-    <cfRule type="cellIs" dxfId="63" priority="70" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="70" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A71">
-    <cfRule type="cellIs" dxfId="62" priority="69" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="69" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A72">
-    <cfRule type="cellIs" dxfId="61" priority="68" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="68" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A72">
-    <cfRule type="cellIs" dxfId="60" priority="67" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="67" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A74">
-    <cfRule type="cellIs" dxfId="59" priority="66" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="66" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A74">
-    <cfRule type="cellIs" dxfId="58" priority="65" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="65" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/MACROGenerator/config/Signals.xlsx
+++ b/MACROGenerator/config/Signals.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CC42C1E-E846-40E5-9C34-A8528FF760EE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08115284-591E-47CB-812E-C0EBBF372E61}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1234" uniqueCount="284">
   <si>
     <t>Signal name</t>
   </si>
@@ -807,6 +807,111 @@
   </si>
   <si>
     <t>0x2302 0x0000A45A</t>
+  </si>
+  <si>
+    <t>Other*1000Pa*2000Pa*3000Pa*5000Pa</t>
+  </si>
+  <si>
+    <t>Off*On</t>
+  </si>
+  <si>
+    <t>Disable*Reg*Reg+St1*Reg+St2*Reg+St3*St1*St2*St3</t>
+  </si>
+  <si>
+    <t>Disable*Reg*Reg+St1*Reg+St2*Reg+St3*St1*St2*St4</t>
+  </si>
+  <si>
+    <t>Disable*Reg*Reg+St1*Reg+St2*Reg+St3*St1*St2*St5</t>
+  </si>
+  <si>
+    <t>Disable*Reg*Reg+St1*Reg+St2*Reg+St3*St1*St2*St6</t>
+  </si>
+  <si>
+    <t>Disable*Reg*Reg+St1*Reg+St2*Reg+St3*St1*St2*St7</t>
+  </si>
+  <si>
+    <t>Disable*Reg*Reg+St1*Reg+St2*Reg+St3*St1*St2*St8</t>
+  </si>
+  <si>
+    <t>Disable*Reg*Reg+St1*Reg+St2*Reg+St3*St1*St2*St9</t>
+  </si>
+  <si>
+    <t>Disable*Reg*Reg+St1*Reg+St2*Reg+St3*St1*St2*St10</t>
+  </si>
+  <si>
+    <t>Fan*MixDmp*Fan+MixDmp</t>
+  </si>
+  <si>
+    <t>&lt; 2</t>
+  </si>
+  <si>
+    <t>Avg*Min*Max</t>
+  </si>
+  <si>
+    <t>Norm*Rev</t>
+  </si>
+  <si>
+    <t>Htg+Dz*Htg/Clg*HtgCurve</t>
+  </si>
+  <si>
+    <t>0*1*2*3*4*5*6*7*8*9</t>
+  </si>
+  <si>
+    <t>0*1*2*3*4</t>
+  </si>
+  <si>
+    <t>None*Yes</t>
+  </si>
+  <si>
+    <t>ppmVol*ppmPress*Volume*Pressure*FixedSpeed*Direct</t>
+  </si>
+  <si>
+    <t>0*1*2</t>
+  </si>
+  <si>
+    <t>No*SFStt*EFStt*SFStt+EFStt</t>
+  </si>
+  <si>
+    <t>No*Out*Exh*Out+Exh</t>
+  </si>
+  <si>
+    <t>Disable*Default*Fix Speed*Direct</t>
+  </si>
+  <si>
+    <t>Disable*Fix Speed*Direct</t>
+  </si>
+  <si>
+    <t>NO*ChovrTstat*ChovrSens*CoilSens</t>
+  </si>
+  <si>
+    <t>NoHREC*PlateHREC*Rothoterm*Polyblock*GlycolHREC</t>
+  </si>
+  <si>
+    <t>NoVRF*Mitsubishi1*Mitsubishi2*Mitsubishi3*Daikin*SamsungAlfa*RTD10_FDP3</t>
+  </si>
+  <si>
+    <t>NoVRF*Mitsubishi1*Mitsubishi2*Mitsubishi3*Daikin*SamsungAlfa*RTD10_FDP4</t>
+  </si>
+  <si>
+    <t>NoVRF*Mitsubishi1*Mitsubishi2*Mitsubishi3*Daikin*SamsungAlfa*RTD10_FDP5</t>
+  </si>
+  <si>
+    <t>NoVRF*Mitsubishi1*Mitsubishi2*Mitsubishi3*Daikin*SamsungAlfa*RTD10_FDP6</t>
+  </si>
+  <si>
+    <t>NoVRF*Mitsubishi1*Mitsubishi2*Mitsubishi3*Daikin*SamsungAlfa*RTD10_FDP7</t>
+  </si>
+  <si>
+    <t>NoVRF*Mitsubishi1*Mitsubishi2*Mitsubishi3*Daikin*SamsungAlfa*RTD10_FDP8</t>
+  </si>
+  <si>
+    <t>NoVRF*Mitsubishi1*Mitsubishi2*Mitsubishi3*Daikin*SamsungAlfa*RTD10_FDP9</t>
+  </si>
+  <si>
+    <t>NoVRF*Mitsubishi1*Mitsubishi2*Mitsubishi3*Daikin*SamsungAlfa*RTD10_FDP10</t>
+  </si>
+  <si>
+    <t>NoVRF*Mitsubishi1*Mitsubishi2*Mitsubishi3*Daikin*SamsungAlfa*RTD10_FDP11</t>
   </si>
 </sst>
 </file>
@@ -849,7 +954,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -886,6 +991,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7CB953"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -899,7 +1010,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -915,11 +1026,768 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="226">
+  <dxfs count="334">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC8C8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC8C8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC8C8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC8C8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC8C8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC8C8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC8C8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC8C8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC8C8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC8C8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC8C8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC8C8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC8C8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC8C8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC8C8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC8C8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC8C8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC8C8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC8C8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC8C8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC8C8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC8C8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC8C8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC8C8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC8C8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC8C8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC8C8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC8C8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC8C8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC8C8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC8C8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC8C8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC8C8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC8C8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC8C8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC8C8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC8C8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC8C8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC8C8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC8C8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC8C8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC8C8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC8C8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC8C8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC8C8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC8C8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC8C8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC8C8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC8C8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC8C8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC8C8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC8C8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC8C8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC8C8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC8C8"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2504,6 +3372,11 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF7CB953"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2781,17 +3654,19 @@
   <dimension ref="A1:S116"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D116" sqref="D116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="48.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.5703125" customWidth="1"/>
     <col min="2" max="2" width="27.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="48.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="49.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2825,31 +3700,31 @@
       <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="15" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3647,6 +4522,45 @@
       <c r="C19" s="10">
         <v>1</v>
       </c>
+      <c r="F19" s="10">
+        <v>2</v>
+      </c>
+      <c r="H19" s="10">
+        <v>14</v>
+      </c>
+      <c r="I19" s="10">
+        <v>4</v>
+      </c>
+      <c r="J19" s="10">
+        <v>162</v>
+      </c>
+      <c r="K19" s="13" t="s">
+        <v>249</v>
+      </c>
+      <c r="L19" s="13" t="s">
+        <v>249</v>
+      </c>
+      <c r="M19" s="13" t="s">
+        <v>249</v>
+      </c>
+      <c r="N19" s="13" t="s">
+        <v>249</v>
+      </c>
+      <c r="O19" s="13" t="s">
+        <v>249</v>
+      </c>
+      <c r="P19" s="13" t="s">
+        <v>249</v>
+      </c>
+      <c r="Q19" s="13" t="s">
+        <v>249</v>
+      </c>
+      <c r="R19" s="13" t="s">
+        <v>249</v>
+      </c>
+      <c r="S19" s="13" t="s">
+        <v>249</v>
+      </c>
     </row>
     <row r="20" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="s">
@@ -3658,6 +4572,45 @@
       <c r="C20" s="10">
         <v>2</v>
       </c>
+      <c r="F20" s="10">
+        <v>2</v>
+      </c>
+      <c r="H20" s="10">
+        <v>15</v>
+      </c>
+      <c r="I20" s="10">
+        <v>4</v>
+      </c>
+      <c r="J20" s="10">
+        <v>163</v>
+      </c>
+      <c r="K20" s="13" t="s">
+        <v>249</v>
+      </c>
+      <c r="L20" s="13" t="s">
+        <v>249</v>
+      </c>
+      <c r="M20" s="13" t="s">
+        <v>249</v>
+      </c>
+      <c r="N20" s="13" t="s">
+        <v>249</v>
+      </c>
+      <c r="O20" s="13" t="s">
+        <v>249</v>
+      </c>
+      <c r="P20" s="13" t="s">
+        <v>249</v>
+      </c>
+      <c r="Q20" s="13" t="s">
+        <v>249</v>
+      </c>
+      <c r="R20" s="13" t="s">
+        <v>249</v>
+      </c>
+      <c r="S20" s="13" t="s">
+        <v>249</v>
+      </c>
     </row>
     <row r="21" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
@@ -3669,6 +4622,45 @@
       <c r="C21" s="10">
         <v>3</v>
       </c>
+      <c r="F21" s="10">
+        <v>0</v>
+      </c>
+      <c r="H21" s="10">
+        <v>5</v>
+      </c>
+      <c r="I21" s="10">
+        <v>0</v>
+      </c>
+      <c r="J21" s="10">
+        <v>36</v>
+      </c>
+      <c r="K21" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="L21" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="M21" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="N21" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="O21" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="P21" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="Q21" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="R21" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="S21" s="13" t="s">
+        <v>250</v>
+      </c>
     </row>
     <row r="22" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="13" t="s">
@@ -3680,6 +4672,45 @@
       <c r="C22" s="10">
         <v>4</v>
       </c>
+      <c r="F22" s="10">
+        <v>0</v>
+      </c>
+      <c r="H22" s="10">
+        <v>1</v>
+      </c>
+      <c r="I22" s="10">
+        <v>0</v>
+      </c>
+      <c r="J22" s="10">
+        <v>31</v>
+      </c>
+      <c r="K22" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="L22" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="M22" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="N22" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="O22" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="P22" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="Q22" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="R22" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="S22" s="13" t="s">
+        <v>250</v>
+      </c>
     </row>
     <row r="23" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="13" t="s">
@@ -3691,6 +4722,45 @@
       <c r="C23" s="10">
         <v>5</v>
       </c>
+      <c r="F23" s="10">
+        <v>0</v>
+      </c>
+      <c r="H23" s="10">
+        <v>3</v>
+      </c>
+      <c r="I23" s="10">
+        <v>0</v>
+      </c>
+      <c r="J23" s="10">
+        <v>34</v>
+      </c>
+      <c r="K23" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="L23" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="M23" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="N23" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="O23" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="P23" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q23" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="R23" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="S23" s="13" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="24" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="s">
@@ -3702,6 +4772,45 @@
       <c r="C24" s="10">
         <v>6</v>
       </c>
+      <c r="D24" s="10">
+        <v>0</v>
+      </c>
+      <c r="E24" s="10">
+        <v>843</v>
+      </c>
+      <c r="I24" s="10">
+        <v>4</v>
+      </c>
+      <c r="J24" s="10">
+        <v>23</v>
+      </c>
+      <c r="K24" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="L24" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="M24" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="N24" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="O24" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="P24" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="Q24" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="R24" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="S24" s="13" t="s">
+        <v>250</v>
+      </c>
     </row>
     <row r="25" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="13" t="s">
@@ -3713,6 +4822,39 @@
       <c r="C25" s="10">
         <v>7</v>
       </c>
+      <c r="I25" s="10">
+        <v>4</v>
+      </c>
+      <c r="J25" s="10">
+        <v>822</v>
+      </c>
+      <c r="K25" s="13" t="s">
+        <v>251</v>
+      </c>
+      <c r="L25" s="13" t="s">
+        <v>251</v>
+      </c>
+      <c r="M25" s="13" t="s">
+        <v>252</v>
+      </c>
+      <c r="N25" s="13" t="s">
+        <v>253</v>
+      </c>
+      <c r="O25" s="13" t="s">
+        <v>254</v>
+      </c>
+      <c r="P25" s="13" t="s">
+        <v>255</v>
+      </c>
+      <c r="Q25" s="13" t="s">
+        <v>256</v>
+      </c>
+      <c r="R25" s="13" t="s">
+        <v>257</v>
+      </c>
+      <c r="S25" s="13" t="s">
+        <v>258</v>
+      </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="13" t="s">
@@ -3724,6 +4866,48 @@
       <c r="C26" s="10">
         <v>8</v>
       </c>
+      <c r="D26">
+        <v>4</v>
+      </c>
+      <c r="E26">
+        <v>805</v>
+      </c>
+      <c r="G26" t="s">
+        <v>260</v>
+      </c>
+      <c r="I26" s="10">
+        <v>4</v>
+      </c>
+      <c r="J26" s="10">
+        <v>27</v>
+      </c>
+      <c r="K26" s="13" t="s">
+        <v>259</v>
+      </c>
+      <c r="L26" s="13" t="s">
+        <v>259</v>
+      </c>
+      <c r="M26" s="13" t="s">
+        <v>259</v>
+      </c>
+      <c r="N26" s="13" t="s">
+        <v>259</v>
+      </c>
+      <c r="O26" s="13" t="s">
+        <v>259</v>
+      </c>
+      <c r="P26" s="13" t="s">
+        <v>259</v>
+      </c>
+      <c r="Q26" s="13" t="s">
+        <v>259</v>
+      </c>
+      <c r="R26" s="13" t="s">
+        <v>259</v>
+      </c>
+      <c r="S26" s="13" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="13" t="s">
@@ -3735,6 +4919,48 @@
       <c r="C27" s="10">
         <v>9</v>
       </c>
+      <c r="D27">
+        <v>4</v>
+      </c>
+      <c r="E27">
+        <v>804</v>
+      </c>
+      <c r="G27" t="s">
+        <v>134</v>
+      </c>
+      <c r="I27" s="10">
+        <v>4</v>
+      </c>
+      <c r="J27" s="10">
+        <v>28</v>
+      </c>
+      <c r="K27" s="13" t="s">
+        <v>261</v>
+      </c>
+      <c r="L27" s="13" t="s">
+        <v>261</v>
+      </c>
+      <c r="M27" s="13" t="s">
+        <v>261</v>
+      </c>
+      <c r="N27" s="13" t="s">
+        <v>261</v>
+      </c>
+      <c r="O27" s="13" t="s">
+        <v>261</v>
+      </c>
+      <c r="P27" s="13" t="s">
+        <v>261</v>
+      </c>
+      <c r="Q27" s="13" t="s">
+        <v>261</v>
+      </c>
+      <c r="R27" s="13" t="s">
+        <v>261</v>
+      </c>
+      <c r="S27" s="13" t="s">
+        <v>261</v>
+      </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="13" t="s">
@@ -3746,6 +4972,45 @@
       <c r="C28" s="10">
         <v>10</v>
       </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>802</v>
+      </c>
+      <c r="I28" s="10">
+        <v>0</v>
+      </c>
+      <c r="J28" s="10">
+        <v>21</v>
+      </c>
+      <c r="K28" s="13" t="s">
+        <v>262</v>
+      </c>
+      <c r="L28" s="13" t="s">
+        <v>262</v>
+      </c>
+      <c r="M28" s="13" t="s">
+        <v>262</v>
+      </c>
+      <c r="N28" s="13" t="s">
+        <v>262</v>
+      </c>
+      <c r="O28" s="13" t="s">
+        <v>262</v>
+      </c>
+      <c r="P28" s="13" t="s">
+        <v>262</v>
+      </c>
+      <c r="Q28" s="13" t="s">
+        <v>262</v>
+      </c>
+      <c r="R28" s="13" t="s">
+        <v>262</v>
+      </c>
+      <c r="S28" s="13" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="13" t="s">
@@ -3757,6 +5022,39 @@
       <c r="C29" s="10">
         <v>11</v>
       </c>
+      <c r="I29" s="10">
+        <v>0</v>
+      </c>
+      <c r="J29" s="10">
+        <v>801</v>
+      </c>
+      <c r="K29" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="L29" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="M29" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="N29" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="O29" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="P29" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q29" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="R29" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="S29" s="13" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="13" t="s">
@@ -3768,6 +5066,39 @@
       <c r="C30" s="10">
         <v>12</v>
       </c>
+      <c r="I30" s="10">
+        <v>0</v>
+      </c>
+      <c r="J30" s="10">
+        <v>805</v>
+      </c>
+      <c r="K30" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="L30" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="M30" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="N30" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="O30" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="P30" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="Q30" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="R30" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="S30" s="13" t="s">
+        <v>250</v>
+      </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="13" t="s">
@@ -3779,6 +5110,39 @@
       <c r="C31" s="10">
         <v>13</v>
       </c>
+      <c r="I31" s="10">
+        <v>0</v>
+      </c>
+      <c r="J31" s="10">
+        <v>873</v>
+      </c>
+      <c r="K31" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="L31" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="M31" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="N31" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="O31" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="P31" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q31" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="R31" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="S31" s="13" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="13" t="s">
@@ -3790,8 +5154,41 @@
       <c r="C32" s="10">
         <v>14</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="I32" s="10">
+        <v>4</v>
+      </c>
+      <c r="J32" s="10">
+        <v>819</v>
+      </c>
+      <c r="K32" s="13" t="s">
+        <v>263</v>
+      </c>
+      <c r="L32" s="13" t="s">
+        <v>263</v>
+      </c>
+      <c r="M32" s="13" t="s">
+        <v>263</v>
+      </c>
+      <c r="N32" s="13" t="s">
+        <v>263</v>
+      </c>
+      <c r="O32" s="13" t="s">
+        <v>263</v>
+      </c>
+      <c r="P32" s="13" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q32" s="13" t="s">
+        <v>263</v>
+      </c>
+      <c r="R32" s="13" t="s">
+        <v>263</v>
+      </c>
+      <c r="S32" s="13" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="13" t="s">
         <v>172</v>
       </c>
@@ -3801,8 +5198,41 @@
       <c r="C33" s="10">
         <v>15</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="I33" s="10">
+        <v>0</v>
+      </c>
+      <c r="J33" s="10">
+        <v>912</v>
+      </c>
+      <c r="K33" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="L33" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="M33" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="N33" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="O33" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="P33" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q33" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="R33" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="S33" s="13" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" s="13" t="s">
         <v>173</v>
       </c>
@@ -3812,8 +5242,41 @@
       <c r="C34" s="10">
         <v>16</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="I34" s="10">
+        <v>0</v>
+      </c>
+      <c r="J34" s="10">
+        <v>913</v>
+      </c>
+      <c r="K34" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="L34" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="M34" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="N34" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="O34" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="P34" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q34" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="R34" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="S34" s="13" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" s="13" t="s">
         <v>174</v>
       </c>
@@ -3823,13 +5286,46 @@
       <c r="C35" s="10">
         <v>17</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="I35" s="10">
+        <v>0</v>
+      </c>
+      <c r="J35" s="10">
+        <v>802</v>
+      </c>
+      <c r="K35" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="L35" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="M35" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="N35" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="O35" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="P35" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q35" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="R35" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="S35" s="13" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" s="8" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" s="13" t="s">
         <v>175</v>
       </c>
@@ -3839,8 +5335,41 @@
       <c r="C37">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="I37" s="10">
+        <v>0</v>
+      </c>
+      <c r="J37" s="10">
+        <v>822</v>
+      </c>
+      <c r="K37" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="L37" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="M37" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="N37" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="O37" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="P37" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q37" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="R37" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="S37" s="13" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" s="13" t="s">
         <v>176</v>
       </c>
@@ -3850,8 +5379,41 @@
       <c r="C38">
         <v>2</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="I38" s="10">
+        <v>0</v>
+      </c>
+      <c r="J38" s="10">
+        <v>823</v>
+      </c>
+      <c r="K38" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="L38" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="M38" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="N38" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="O38" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="P38" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q38" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="R38" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="S38" s="13" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" s="13" t="s">
         <v>177</v>
       </c>
@@ -3861,8 +5423,41 @@
       <c r="C39">
         <v>3</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="I39" s="10">
+        <v>0</v>
+      </c>
+      <c r="J39" s="10">
+        <v>831</v>
+      </c>
+      <c r="K39" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="L39" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="M39" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="N39" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="O39" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="P39" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q39" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="R39" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="S39" s="13" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" s="13" t="s">
         <v>179</v>
       </c>
@@ -3872,8 +5467,41 @@
       <c r="C40">
         <v>4</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="I40" s="10">
+        <v>0</v>
+      </c>
+      <c r="J40" s="10">
+        <v>830</v>
+      </c>
+      <c r="K40" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="L40" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="M40" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="N40" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="O40" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="P40" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q40" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="R40" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="S40" s="13" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41" s="13" t="s">
         <v>178</v>
       </c>
@@ -3883,8 +5511,41 @@
       <c r="C41">
         <v>5</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="I41" s="10">
+        <v>0</v>
+      </c>
+      <c r="J41" s="10">
+        <v>821</v>
+      </c>
+      <c r="K41" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="L41" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="M41" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="N41" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="O41" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="P41" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q41" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="R41" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="S41" s="13" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42" s="13" t="s">
         <v>180</v>
       </c>
@@ -3894,8 +5555,41 @@
       <c r="C42">
         <v>6</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="I42" s="10">
+        <v>4</v>
+      </c>
+      <c r="J42" s="10">
+        <v>801</v>
+      </c>
+      <c r="K42" s="13" t="s">
+        <v>264</v>
+      </c>
+      <c r="L42" s="13" t="s">
+        <v>264</v>
+      </c>
+      <c r="M42" s="13" t="s">
+        <v>264</v>
+      </c>
+      <c r="N42" s="13" t="s">
+        <v>264</v>
+      </c>
+      <c r="O42" s="13" t="s">
+        <v>264</v>
+      </c>
+      <c r="P42" s="13" t="s">
+        <v>264</v>
+      </c>
+      <c r="Q42" s="13" t="s">
+        <v>264</v>
+      </c>
+      <c r="R42" s="13" t="s">
+        <v>264</v>
+      </c>
+      <c r="S42" s="13" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43" s="13" t="s">
         <v>181</v>
       </c>
@@ -3905,8 +5599,41 @@
       <c r="C43">
         <v>7</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="I43" s="10">
+        <v>0</v>
+      </c>
+      <c r="J43" s="10">
+        <v>825</v>
+      </c>
+      <c r="K43" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="L43" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="M43" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="N43" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="O43" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="P43" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q43" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="R43" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="S43" s="13" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44" s="13" t="s">
         <v>182</v>
       </c>
@@ -3916,8 +5643,41 @@
       <c r="C44">
         <v>8</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="I44" s="10">
+        <v>0</v>
+      </c>
+      <c r="J44" s="10">
+        <v>804</v>
+      </c>
+      <c r="K44" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="L44" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="M44" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="N44" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="O44" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="P44" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q44" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="R44" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="S44" s="13" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45" s="13" t="s">
         <v>183</v>
       </c>
@@ -3927,8 +5687,41 @@
       <c r="C45">
         <v>9</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="I45" s="10">
+        <v>0</v>
+      </c>
+      <c r="J45" s="10">
+        <v>811</v>
+      </c>
+      <c r="K45" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="L45" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="M45" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="N45" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="O45" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="P45" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q45" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="R45" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="S45" s="13" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46" s="13" t="s">
         <v>184</v>
       </c>
@@ -3938,8 +5731,41 @@
       <c r="C46">
         <v>10</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="I46" s="10">
+        <v>0</v>
+      </c>
+      <c r="J46" s="10">
+        <v>812</v>
+      </c>
+      <c r="K46" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="L46" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="M46" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="N46" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="O46" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="P46" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q46" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="R46" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="S46" s="13" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47" s="13" t="s">
         <v>185</v>
       </c>
@@ -3949,8 +5775,41 @@
       <c r="C47">
         <v>11</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="I47" s="10">
+        <v>0</v>
+      </c>
+      <c r="J47" s="10">
+        <v>813</v>
+      </c>
+      <c r="K47" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="L47" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="M47" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="N47" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="O47" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="P47" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q47" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="R47" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="S47" s="13" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48" s="13" t="s">
         <v>186</v>
       </c>
@@ -3960,8 +5819,41 @@
       <c r="C48">
         <v>12</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="I48" s="10">
+        <v>0</v>
+      </c>
+      <c r="J48" s="10">
+        <v>814</v>
+      </c>
+      <c r="K48" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="L48" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="M48" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="N48" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="O48" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="P48" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q48" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="R48" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="S48" s="13" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A49" s="13" t="s">
         <v>187</v>
       </c>
@@ -3971,8 +5863,41 @@
       <c r="C49">
         <v>13</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="I49" s="10">
+        <v>0</v>
+      </c>
+      <c r="J49" s="10">
+        <v>815</v>
+      </c>
+      <c r="K49" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="L49" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="M49" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="N49" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="O49" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="P49" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q49" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="R49" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="S49" s="13" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A50" s="13" t="s">
         <v>188</v>
       </c>
@@ -3982,8 +5907,41 @@
       <c r="C50">
         <v>14</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="I50" s="10">
+        <v>0</v>
+      </c>
+      <c r="J50" s="10">
+        <v>816</v>
+      </c>
+      <c r="K50" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="L50" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="M50" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="N50" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="O50" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="P50" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q50" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="R50" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="S50" s="13" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A51" s="13" t="s">
         <v>189</v>
       </c>
@@ -3993,8 +5951,41 @@
       <c r="C51">
         <v>15</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="I51" s="10">
+        <v>0</v>
+      </c>
+      <c r="J51" s="10">
+        <v>817</v>
+      </c>
+      <c r="K51" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="L51" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="M51" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="N51" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="O51" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="P51" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q51" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="R51" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="S51" s="13" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A52" s="13" t="s">
         <v>190</v>
       </c>
@@ -4004,8 +5995,41 @@
       <c r="C52">
         <v>16</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="I52" s="10">
+        <v>0</v>
+      </c>
+      <c r="J52" s="10">
+        <v>818</v>
+      </c>
+      <c r="K52" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="L52" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="M52" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="N52" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="O52" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="P52" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q52" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="R52" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="S52" s="13" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A53" s="13" t="s">
         <v>191</v>
       </c>
@@ -4015,8 +6039,41 @@
       <c r="C53">
         <v>17</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="I53" s="10">
+        <v>0</v>
+      </c>
+      <c r="J53" s="10">
+        <v>803</v>
+      </c>
+      <c r="K53" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="L53" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="M53" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="N53" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="O53" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="P53" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q53" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="R53" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="S53" s="13" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A54" s="13" t="s">
         <v>192</v>
       </c>
@@ -4026,8 +6083,41 @@
       <c r="C54">
         <v>18</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="I54" s="10">
+        <v>4</v>
+      </c>
+      <c r="J54" s="10">
+        <v>804</v>
+      </c>
+      <c r="K54" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="L54" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="M54" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="N54" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="O54" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="P54" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q54" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="R54" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="S54" s="13" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A55" s="13" t="s">
         <v>193</v>
       </c>
@@ -4037,8 +6127,41 @@
       <c r="C55">
         <v>19</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="I55" s="10">
+        <v>0</v>
+      </c>
+      <c r="J55" s="10">
+        <v>847</v>
+      </c>
+      <c r="K55" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="L55" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="M55" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="N55" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="O55" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="P55" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q55" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="R55" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="S55" s="13" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A56" s="13" t="s">
         <v>194</v>
       </c>
@@ -4048,8 +6171,41 @@
       <c r="C56">
         <v>20</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="I56" s="10">
+        <v>0</v>
+      </c>
+      <c r="J56" s="10">
+        <v>841</v>
+      </c>
+      <c r="K56" s="13" t="s">
+        <v>266</v>
+      </c>
+      <c r="L56" s="13" t="s">
+        <v>266</v>
+      </c>
+      <c r="M56" s="13" t="s">
+        <v>266</v>
+      </c>
+      <c r="N56" s="13" t="s">
+        <v>266</v>
+      </c>
+      <c r="O56" s="13" t="s">
+        <v>266</v>
+      </c>
+      <c r="P56" s="13" t="s">
+        <v>266</v>
+      </c>
+      <c r="Q56" s="13" t="s">
+        <v>266</v>
+      </c>
+      <c r="R56" s="13" t="s">
+        <v>266</v>
+      </c>
+      <c r="S56" s="13" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A57" s="13" t="s">
         <v>195</v>
       </c>
@@ -4059,8 +6215,41 @@
       <c r="C57">
         <v>21</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="I57" s="10">
+        <v>0</v>
+      </c>
+      <c r="J57" s="10">
+        <v>843</v>
+      </c>
+      <c r="K57" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="L57" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="M57" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="N57" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="O57" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="P57" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q57" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="R57" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="S57" s="13" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A58" s="13" t="s">
         <v>196</v>
       </c>
@@ -4070,8 +6259,41 @@
       <c r="C58">
         <v>22</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="I58" s="10">
+        <v>0</v>
+      </c>
+      <c r="J58" s="10">
+        <v>842</v>
+      </c>
+      <c r="K58" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="L58" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="M58" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="N58" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="O58" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="P58" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q58" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="R58" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="S58" s="13" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A59" s="13" t="s">
         <v>197</v>
       </c>
@@ -4081,8 +6303,41 @@
       <c r="C59">
         <v>23</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="I59" s="10">
+        <v>0</v>
+      </c>
+      <c r="J59" s="10">
+        <v>846</v>
+      </c>
+      <c r="K59" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="L59" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="M59" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="N59" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="O59" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="P59" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q59" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="R59" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="S59" s="13" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A60" s="13" t="s">
         <v>198</v>
       </c>
@@ -4092,8 +6347,41 @@
       <c r="C60">
         <v>24</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="I60" s="10">
+        <v>0</v>
+      </c>
+      <c r="J60" s="10">
+        <v>844</v>
+      </c>
+      <c r="K60" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="L60" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="M60" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="N60" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="O60" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="P60" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q60" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="R60" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="S60" s="13" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A61" s="13" t="s">
         <v>199</v>
       </c>
@@ -4103,8 +6391,41 @@
       <c r="C61">
         <v>25</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="I61" s="10">
+        <v>0</v>
+      </c>
+      <c r="J61" s="10">
+        <v>845</v>
+      </c>
+      <c r="K61" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="L61" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="M61" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="N61" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="O61" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="P61" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q61" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="R61" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="S61" s="13" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A62" s="13" t="s">
         <v>200</v>
       </c>
@@ -4114,8 +6435,41 @@
       <c r="C62">
         <v>26</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="I62" s="10">
+        <v>0</v>
+      </c>
+      <c r="J62" s="10">
+        <v>848</v>
+      </c>
+      <c r="K62" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="L62" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="M62" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="N62" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="O62" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="P62" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q62" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="R62" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="S62" s="13" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A63" s="13" t="s">
         <v>201</v>
       </c>
@@ -4125,8 +6479,41 @@
       <c r="C63">
         <v>27</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="I63" s="10">
+        <v>0</v>
+      </c>
+      <c r="J63" s="10">
+        <v>849</v>
+      </c>
+      <c r="K63" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="L63" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="M63" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="N63" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="O63" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="P63" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q63" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="R63" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="S63" s="13" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A64" s="13" t="s">
         <v>202</v>
       </c>
@@ -4136,8 +6523,41 @@
       <c r="C64">
         <v>28</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="I64" s="10">
+        <v>4</v>
+      </c>
+      <c r="J64" s="10">
+        <v>803</v>
+      </c>
+      <c r="K64" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="L64" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="M64" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="N64" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="O64" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="P64" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q64" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="R64" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="S64" s="13" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A65" s="13" t="s">
         <v>203</v>
       </c>
@@ -4147,8 +6567,41 @@
       <c r="C65">
         <v>29</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="I65" s="10">
+        <v>0</v>
+      </c>
+      <c r="J65" s="10">
+        <v>911</v>
+      </c>
+      <c r="K65" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="L65" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="M65" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="N65" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="O65" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="P65" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q65" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="R65" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="S65" s="13" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A66" s="13" t="s">
         <v>204</v>
       </c>
@@ -4158,8 +6611,41 @@
       <c r="C66">
         <v>30</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="I66" s="10">
+        <v>0</v>
+      </c>
+      <c r="J66" s="10">
+        <v>861</v>
+      </c>
+      <c r="K66" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="L66" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="M66" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="N66" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="O66" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="P66" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q66" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="R66" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="S66" s="13" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A67" s="13" t="s">
         <v>205</v>
       </c>
@@ -4169,8 +6655,41 @@
       <c r="C67">
         <v>31</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="I67" s="10">
+        <v>0</v>
+      </c>
+      <c r="J67" s="10">
+        <v>862</v>
+      </c>
+      <c r="K67" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="L67" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="M67" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="N67" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="O67" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="P67" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q67" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="R67" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="S67" s="13" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A68" s="13" t="s">
         <v>206</v>
       </c>
@@ -4180,8 +6699,41 @@
       <c r="C68">
         <v>32</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="I68" s="10">
+        <v>0</v>
+      </c>
+      <c r="J68" s="10">
+        <v>863</v>
+      </c>
+      <c r="K68" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="L68" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="M68" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="N68" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="O68" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="P68" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q68" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="R68" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="S68" s="13" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A69" s="13" t="s">
         <v>207</v>
       </c>
@@ -4191,8 +6743,41 @@
       <c r="C69">
         <v>33</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="I69" s="10">
+        <v>0</v>
+      </c>
+      <c r="J69" s="10">
+        <v>893</v>
+      </c>
+      <c r="K69" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="L69" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="M69" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="N69" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="O69" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="P69" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q69" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="R69" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="S69" s="13" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A70" s="13" t="s">
         <v>208</v>
       </c>
@@ -4202,8 +6787,41 @@
       <c r="C70">
         <v>34</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="I70" s="10">
+        <v>0</v>
+      </c>
+      <c r="J70" s="10">
+        <v>894</v>
+      </c>
+      <c r="K70" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="L70" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="M70" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="N70" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="O70" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="P70" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q70" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="R70" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="S70" s="13" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A71" s="13" t="s">
         <v>209</v>
       </c>
@@ -4213,8 +6831,41 @@
       <c r="C71">
         <v>35</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="I71" s="10">
+        <v>0</v>
+      </c>
+      <c r="J71" s="10">
+        <v>824</v>
+      </c>
+      <c r="K71" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="L71" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="M71" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="N71" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="O71" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="P71" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q71" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="R71" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="S71" s="13" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A72" s="13" t="s">
         <v>210</v>
       </c>
@@ -4224,13 +6875,46 @@
       <c r="C72">
         <v>36</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="I72" s="10">
+        <v>0</v>
+      </c>
+      <c r="J72" s="10">
+        <v>885</v>
+      </c>
+      <c r="K72" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="L72" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="M72" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="N72" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="O72" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="P72" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q72" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="R72" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="S72" s="13" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A73" s="11" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A74" s="13" t="s">
         <v>211</v>
       </c>
@@ -4240,8 +6924,41 @@
       <c r="C74">
         <v>1</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="I74">
+        <v>4</v>
+      </c>
+      <c r="J74">
+        <v>805</v>
+      </c>
+      <c r="K74" s="13" t="s">
+        <v>267</v>
+      </c>
+      <c r="L74" s="13" t="s">
+        <v>267</v>
+      </c>
+      <c r="M74" s="13" t="s">
+        <v>267</v>
+      </c>
+      <c r="N74" s="13" t="s">
+        <v>267</v>
+      </c>
+      <c r="O74" s="13" t="s">
+        <v>267</v>
+      </c>
+      <c r="P74" s="13" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q74" s="13" t="s">
+        <v>267</v>
+      </c>
+      <c r="R74" s="13" t="s">
+        <v>267</v>
+      </c>
+      <c r="S74" s="13" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A75" s="13" t="s">
         <v>170</v>
       </c>
@@ -4251,8 +6968,41 @@
       <c r="C75">
         <v>2</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>873</v>
+      </c>
+      <c r="K75" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="L75" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="M75" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="N75" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="O75" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="P75" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q75" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="R75" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="S75" s="13" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A76" s="13" t="s">
         <v>212</v>
       </c>
@@ -4262,8 +7012,41 @@
       <c r="C76">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>874</v>
+      </c>
+      <c r="K76" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="L76" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="M76" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="N76" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="O76" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="P76" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q76" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="R76" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="S76" s="13" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A77" s="13" t="s">
         <v>213</v>
       </c>
@@ -4273,8 +7056,41 @@
       <c r="C77">
         <v>4</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>871</v>
+      </c>
+      <c r="K77" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="L77" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="M77" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="N77" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="O77" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="P77" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q77" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="R77" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="S77" s="13" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A78" s="13" t="s">
         <v>215</v>
       </c>
@@ -4284,8 +7100,41 @@
       <c r="C78">
         <v>5</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="I78">
+        <v>4</v>
+      </c>
+      <c r="J78">
+        <v>806</v>
+      </c>
+      <c r="K78" s="13" t="s">
+        <v>268</v>
+      </c>
+      <c r="L78" s="13" t="s">
+        <v>268</v>
+      </c>
+      <c r="M78" s="13" t="s">
+        <v>268</v>
+      </c>
+      <c r="N78" s="13" t="s">
+        <v>268</v>
+      </c>
+      <c r="O78" s="13" t="s">
+        <v>268</v>
+      </c>
+      <c r="P78" s="13" t="s">
+        <v>268</v>
+      </c>
+      <c r="Q78" s="13" t="s">
+        <v>268</v>
+      </c>
+      <c r="R78" s="13" t="s">
+        <v>268</v>
+      </c>
+      <c r="S78" s="13" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A79" s="13" t="s">
         <v>214</v>
       </c>
@@ -4295,8 +7144,41 @@
       <c r="C79">
         <v>6</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="I79">
+        <v>4</v>
+      </c>
+      <c r="J79">
+        <v>807</v>
+      </c>
+      <c r="K79" s="13" t="s">
+        <v>269</v>
+      </c>
+      <c r="L79" s="13" t="s">
+        <v>269</v>
+      </c>
+      <c r="M79" s="13" t="s">
+        <v>269</v>
+      </c>
+      <c r="N79" s="13" t="s">
+        <v>269</v>
+      </c>
+      <c r="O79" s="13" t="s">
+        <v>269</v>
+      </c>
+      <c r="P79" s="13" t="s">
+        <v>269</v>
+      </c>
+      <c r="Q79" s="13" t="s">
+        <v>269</v>
+      </c>
+      <c r="R79" s="13" t="s">
+        <v>269</v>
+      </c>
+      <c r="S79" s="13" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A80" s="13" t="s">
         <v>216</v>
       </c>
@@ -4306,8 +7188,41 @@
       <c r="C80">
         <v>7</v>
       </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <v>872</v>
+      </c>
+      <c r="K80" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="L80" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="M80" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="N80" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="O80" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="P80" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q80" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="R80" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="S80" s="13" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A81" s="13" t="s">
         <v>217</v>
       </c>
@@ -4317,8 +7232,41 @@
       <c r="C81">
         <v>8</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="I81">
+        <v>4</v>
+      </c>
+      <c r="J81">
+        <v>808</v>
+      </c>
+      <c r="K81" s="13" t="s">
+        <v>270</v>
+      </c>
+      <c r="L81" s="13" t="s">
+        <v>270</v>
+      </c>
+      <c r="M81" s="13" t="s">
+        <v>270</v>
+      </c>
+      <c r="N81" s="13" t="s">
+        <v>270</v>
+      </c>
+      <c r="O81" s="13" t="s">
+        <v>270</v>
+      </c>
+      <c r="P81" s="13" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q81" s="13" t="s">
+        <v>270</v>
+      </c>
+      <c r="R81" s="13" t="s">
+        <v>270</v>
+      </c>
+      <c r="S81" s="13" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A82" s="13" t="s">
         <v>218</v>
       </c>
@@ -4328,8 +7276,41 @@
       <c r="C82">
         <v>9</v>
       </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="I82">
+        <v>4</v>
+      </c>
+      <c r="J82">
+        <v>809</v>
+      </c>
+      <c r="K82" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="L82" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="M82" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="N82" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="O82" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="P82" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q82" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="R82" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="S82" s="13" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A83" s="13" t="s">
         <v>219</v>
       </c>
@@ -4339,8 +7320,41 @@
       <c r="C83">
         <v>10</v>
       </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="I83">
+        <v>4</v>
+      </c>
+      <c r="J83">
+        <v>810</v>
+      </c>
+      <c r="K83" s="13" t="s">
+        <v>271</v>
+      </c>
+      <c r="L83" s="13" t="s">
+        <v>271</v>
+      </c>
+      <c r="M83" s="13" t="s">
+        <v>271</v>
+      </c>
+      <c r="N83" s="13" t="s">
+        <v>271</v>
+      </c>
+      <c r="O83" s="13" t="s">
+        <v>271</v>
+      </c>
+      <c r="P83" s="13" t="s">
+        <v>271</v>
+      </c>
+      <c r="Q83" s="13" t="s">
+        <v>271</v>
+      </c>
+      <c r="R83" s="13" t="s">
+        <v>271</v>
+      </c>
+      <c r="S83" s="13" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A84" s="13" t="s">
         <v>220</v>
       </c>
@@ -4350,8 +7364,41 @@
       <c r="C84">
         <v>11</v>
       </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="I84">
+        <v>4</v>
+      </c>
+      <c r="J84">
+        <v>811</v>
+      </c>
+      <c r="K84" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="L84" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="M84" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="N84" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="O84" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="P84" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="Q84" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="R84" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="S84" s="13" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="85" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A85" s="13" t="s">
         <v>221</v>
       </c>
@@ -4361,8 +7408,41 @@
       <c r="C85">
         <v>12</v>
       </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="I85">
+        <v>4</v>
+      </c>
+      <c r="J85">
+        <v>812</v>
+      </c>
+      <c r="K85" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="L85" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="M85" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="N85" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="O85" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="P85" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="Q85" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="R85" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="S85" s="13" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="86" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A86" s="13" t="s">
         <v>222</v>
       </c>
@@ -4372,8 +7452,41 @@
       <c r="C86">
         <v>13</v>
       </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="I86">
+        <v>4</v>
+      </c>
+      <c r="J86">
+        <v>813</v>
+      </c>
+      <c r="K86" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="L86" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="M86" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="N86" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="O86" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="P86" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="Q86" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="R86" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="S86" s="13" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="87" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A87" s="13" t="s">
         <v>223</v>
       </c>
@@ -4383,8 +7496,41 @@
       <c r="C87">
         <v>14</v>
       </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="I87">
+        <v>4</v>
+      </c>
+      <c r="J87">
+        <v>814</v>
+      </c>
+      <c r="K87" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="L87" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="M87" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="N87" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="O87" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="P87" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="Q87" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="R87" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="S87" s="13" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="88" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A88" s="13" t="s">
         <v>224</v>
       </c>
@@ -4394,8 +7540,41 @@
       <c r="C88">
         <v>15</v>
       </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="I88">
+        <v>4</v>
+      </c>
+      <c r="J88">
+        <v>815</v>
+      </c>
+      <c r="K88" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="L88" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="M88" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="N88" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="O88" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="P88" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="Q88" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="R88" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="S88" s="13" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="89" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A89" s="13" t="s">
         <v>225</v>
       </c>
@@ -4405,8 +7584,41 @@
       <c r="C89">
         <v>16</v>
       </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="I89">
+        <v>4</v>
+      </c>
+      <c r="J89">
+        <v>816</v>
+      </c>
+      <c r="K89" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="L89" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="M89" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="N89" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="O89" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="P89" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="Q89" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="R89" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="S89" s="13" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="90" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A90" s="13" t="s">
         <v>226</v>
       </c>
@@ -4416,8 +7628,41 @@
       <c r="C90">
         <v>17</v>
       </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="I90">
+        <v>4</v>
+      </c>
+      <c r="J90">
+        <v>817</v>
+      </c>
+      <c r="K90" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="L90" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="M90" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="N90" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="O90" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="P90" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="Q90" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="R90" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="S90" s="13" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="91" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A91" s="13" t="s">
         <v>227</v>
       </c>
@@ -4427,8 +7672,41 @@
       <c r="C91">
         <v>18</v>
       </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="I91">
+        <v>4</v>
+      </c>
+      <c r="J91">
+        <v>818</v>
+      </c>
+      <c r="K91" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="L91" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="M91" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="N91" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="O91" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="P91" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="Q91" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="R91" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="S91" s="13" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="92" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A92" s="13" t="s">
         <v>228</v>
       </c>
@@ -4438,8 +7716,41 @@
       <c r="C92">
         <v>19</v>
       </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="I92">
+        <v>0</v>
+      </c>
+      <c r="J92">
+        <v>875</v>
+      </c>
+      <c r="K92" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="L92" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="M92" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="N92" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="O92" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="P92" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q92" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="R92" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="S92" s="13" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="93" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A93" s="13" t="s">
         <v>209</v>
       </c>
@@ -4449,13 +7760,46 @@
       <c r="C93">
         <v>20</v>
       </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="I93">
+        <v>0</v>
+      </c>
+      <c r="J93">
+        <v>824</v>
+      </c>
+      <c r="K93" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="L93" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="M93" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="N93" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="O93" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="P93" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q93" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="R93" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="S93" s="13" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="94" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A94" s="9" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A95" s="13" t="s">
         <v>171</v>
       </c>
@@ -4465,8 +7809,41 @@
       <c r="C95">
         <v>1</v>
       </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="I95">
+        <v>4</v>
+      </c>
+      <c r="J95">
+        <v>819</v>
+      </c>
+      <c r="K95" s="13" t="s">
+        <v>263</v>
+      </c>
+      <c r="L95" s="13" t="s">
+        <v>263</v>
+      </c>
+      <c r="M95" s="13" t="s">
+        <v>263</v>
+      </c>
+      <c r="N95" s="13" t="s">
+        <v>263</v>
+      </c>
+      <c r="O95" s="13" t="s">
+        <v>263</v>
+      </c>
+      <c r="P95" s="13" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q95" s="13" t="s">
+        <v>263</v>
+      </c>
+      <c r="R95" s="13" t="s">
+        <v>263</v>
+      </c>
+      <c r="S95" s="13" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="96" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A96" s="13" t="s">
         <v>229</v>
       </c>
@@ -4476,8 +7853,41 @@
       <c r="C96">
         <v>2</v>
       </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="I96">
+        <v>4</v>
+      </c>
+      <c r="J96">
+        <v>823</v>
+      </c>
+      <c r="K96" s="13" t="s">
+        <v>273</v>
+      </c>
+      <c r="L96" s="13" t="s">
+        <v>273</v>
+      </c>
+      <c r="M96" s="13" t="s">
+        <v>273</v>
+      </c>
+      <c r="N96" s="13" t="s">
+        <v>273</v>
+      </c>
+      <c r="O96" s="13" t="s">
+        <v>273</v>
+      </c>
+      <c r="P96" s="13" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q96" s="13" t="s">
+        <v>273</v>
+      </c>
+      <c r="R96" s="13" t="s">
+        <v>273</v>
+      </c>
+      <c r="S96" s="13" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="97" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A97" s="13" t="s">
         <v>230</v>
       </c>
@@ -4487,8 +7897,41 @@
       <c r="C97">
         <v>3</v>
       </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>886</v>
+      </c>
+      <c r="K97" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="L97" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="M97" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="N97" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="O97" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="P97" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q97" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="R97" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="S97" s="13" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="98" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A98" s="13" t="s">
         <v>231</v>
       </c>
@@ -4498,8 +7941,41 @@
       <c r="C98">
         <v>4</v>
       </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="I98">
+        <v>0</v>
+      </c>
+      <c r="J98">
+        <v>882</v>
+      </c>
+      <c r="K98" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="L98" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="M98" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="N98" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="O98" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="P98" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q98" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="R98" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="S98" s="13" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="99" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A99" s="13" t="s">
         <v>232</v>
       </c>
@@ -4509,8 +7985,41 @@
       <c r="C99">
         <v>5</v>
       </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>884</v>
+      </c>
+      <c r="K99" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="L99" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="M99" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="N99" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="O99" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="P99" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q99" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="R99" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="S99" s="13" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="100" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A100" s="13" t="s">
         <v>233</v>
       </c>
@@ -4520,8 +8029,41 @@
       <c r="C100">
         <v>6</v>
       </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>887</v>
+      </c>
+      <c r="K100" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="L100" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="M100" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="N100" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="O100" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="P100" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q100" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="R100" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="S100" s="13" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="101" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A101" s="13" t="s">
         <v>234</v>
       </c>
@@ -4531,8 +8073,41 @@
       <c r="C101">
         <v>7</v>
       </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="I101">
+        <v>4</v>
+      </c>
+      <c r="J101">
+        <v>820</v>
+      </c>
+      <c r="K101" s="13" t="s">
+        <v>274</v>
+      </c>
+      <c r="L101" s="13" t="s">
+        <v>274</v>
+      </c>
+      <c r="M101" s="13" t="s">
+        <v>274</v>
+      </c>
+      <c r="N101" s="13" t="s">
+        <v>274</v>
+      </c>
+      <c r="O101" s="13" t="s">
+        <v>274</v>
+      </c>
+      <c r="P101" s="13" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q101" s="13" t="s">
+        <v>274</v>
+      </c>
+      <c r="R101" s="13" t="s">
+        <v>274</v>
+      </c>
+      <c r="S101" s="13" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="102" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A102" s="13" t="s">
         <v>235</v>
       </c>
@@ -4542,8 +8117,41 @@
       <c r="C102">
         <v>8</v>
       </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102">
+        <v>888</v>
+      </c>
+      <c r="K102" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="L102" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="M102" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="N102" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="O102" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="P102" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q102" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="R102" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="S102" s="13" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="103" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A103" s="13" t="s">
         <v>236</v>
       </c>
@@ -4553,8 +8161,41 @@
       <c r="C103">
         <v>9</v>
       </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>892</v>
+      </c>
+      <c r="K103" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="L103" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="M103" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="N103" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="O103" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="P103" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q103" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="R103" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="S103" s="13" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="104" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A104" s="13" t="s">
         <v>237</v>
       </c>
@@ -4564,8 +8205,50 @@
       <c r="C104">
         <v>10</v>
       </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D104">
+        <v>4</v>
+      </c>
+      <c r="E104">
+        <v>822</v>
+      </c>
+      <c r="G104" t="s">
+        <v>132</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>32</v>
+      </c>
+      <c r="K104" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="L104" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="M104" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="N104" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="O104" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="P104" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q104" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="R104" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="S104" s="13" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="105" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A105" s="13" t="s">
         <v>238</v>
       </c>
@@ -4575,8 +8258,41 @@
       <c r="C105">
         <v>11</v>
       </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="I105">
+        <v>0</v>
+      </c>
+      <c r="J105">
+        <v>889</v>
+      </c>
+      <c r="K105" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="L105" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="M105" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="N105" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="O105" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="P105" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q105" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="R105" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="S105" s="13" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="106" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A106" s="13" t="s">
         <v>239</v>
       </c>
@@ -4586,8 +8302,41 @@
       <c r="C106">
         <v>12</v>
       </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="I106">
+        <v>0</v>
+      </c>
+      <c r="J106">
+        <v>890</v>
+      </c>
+      <c r="K106" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="L106" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="M106" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="N106" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="O106" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="P106" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q106" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="R106" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="S106" s="13" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="107" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A107" s="13" t="s">
         <v>240</v>
       </c>
@@ -4597,8 +8346,41 @@
       <c r="C107">
         <v>13</v>
       </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="I107">
+        <v>0</v>
+      </c>
+      <c r="J107">
+        <v>891</v>
+      </c>
+      <c r="K107" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="L107" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="M107" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="N107" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="O107" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="P107" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q107" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="R107" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="S107" s="13" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="108" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A108" s="13" t="s">
         <v>241</v>
       </c>
@@ -4608,8 +8390,41 @@
       <c r="C108">
         <v>14</v>
       </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="I108">
+        <v>4</v>
+      </c>
+      <c r="J108">
+        <v>821</v>
+      </c>
+      <c r="K108" s="13" t="s">
+        <v>275</v>
+      </c>
+      <c r="L108" s="13" t="s">
+        <v>276</v>
+      </c>
+      <c r="M108" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="N108" s="13" t="s">
+        <v>278</v>
+      </c>
+      <c r="O108" s="13" t="s">
+        <v>279</v>
+      </c>
+      <c r="P108" s="13" t="s">
+        <v>280</v>
+      </c>
+      <c r="Q108" s="13" t="s">
+        <v>281</v>
+      </c>
+      <c r="R108" s="13" t="s">
+        <v>282</v>
+      </c>
+      <c r="S108" s="13" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="109" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A109" s="13" t="s">
         <v>242</v>
       </c>
@@ -4619,8 +8434,41 @@
       <c r="C109">
         <v>15</v>
       </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="I109">
+        <v>0</v>
+      </c>
+      <c r="J109">
+        <v>899</v>
+      </c>
+      <c r="K109" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="L109" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="M109" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="N109" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="O109" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="P109" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q109" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="R109" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="S109" s="13" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="110" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A110" s="13" t="s">
         <v>243</v>
       </c>
@@ -4630,8 +8478,41 @@
       <c r="C110">
         <v>16</v>
       </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="I110">
+        <v>0</v>
+      </c>
+      <c r="J110">
+        <v>898</v>
+      </c>
+      <c r="K110" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="L110" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="M110" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="N110" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="O110" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="P110" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q110" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="R110" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="S110" s="13" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="111" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A111" s="13" t="s">
         <v>244</v>
       </c>
@@ -4641,8 +8522,41 @@
       <c r="C111">
         <v>17</v>
       </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="I111">
+        <v>0</v>
+      </c>
+      <c r="J111">
+        <v>897</v>
+      </c>
+      <c r="K111" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="L111" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="M111" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="N111" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="O111" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="P111" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q111" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="R111" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="S111" s="13" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="112" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A112" s="13" t="s">
         <v>245</v>
       </c>
@@ -4652,8 +8566,41 @@
       <c r="C112">
         <v>18</v>
       </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="I112">
+        <v>0</v>
+      </c>
+      <c r="J112">
+        <v>896</v>
+      </c>
+      <c r="K112" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="L112" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="M112" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="N112" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="O112" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="P112" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q112" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="R112" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="S112" s="13" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="113" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A113" s="13" t="s">
         <v>246</v>
       </c>
@@ -4663,8 +8610,41 @@
       <c r="C113">
         <v>19</v>
       </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="I113">
+        <v>0</v>
+      </c>
+      <c r="J113">
+        <v>895</v>
+      </c>
+      <c r="K113" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="L113" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="M113" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="N113" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="O113" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="P113" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q113" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="R113" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="S113" s="13" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="114" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A114" s="13" t="s">
         <v>247</v>
       </c>
@@ -4674,8 +8654,41 @@
       <c r="C114">
         <v>20</v>
       </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="I114">
+        <v>0</v>
+      </c>
+      <c r="J114">
+        <v>881</v>
+      </c>
+      <c r="K114" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="L114" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="M114" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="N114" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="O114" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="P114" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q114" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="R114" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="S114" s="13" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="115" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A115" s="13" t="s">
         <v>248</v>
       </c>
@@ -4685,1087 +8698,1710 @@
       <c r="C115">
         <v>21</v>
       </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="I115">
+        <v>0</v>
+      </c>
+      <c r="J115">
+        <v>883</v>
+      </c>
+      <c r="K115" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="L115" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="M115" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="N115" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="O115" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="P115" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q115" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="R115" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="S115" s="13" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="116" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B116" s="10"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="K3:S3">
-    <cfRule type="cellIs" dxfId="221" priority="222" stopIfTrue="1" operator="equal">
-      <formula>"To translate"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K3:S3">
-    <cfRule type="cellIs" dxfId="220" priority="221" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="K3:S3 K35:S35 K37:S41">
+    <cfRule type="cellIs" dxfId="333" priority="346" stopIfTrue="1" operator="equal">
+      <formula>"To translate"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K3:S3 K35:S35 K37:S41">
+    <cfRule type="cellIs" dxfId="332" priority="345" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4:S4">
-    <cfRule type="cellIs" dxfId="219" priority="220" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="331" priority="344" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4:S4">
-    <cfRule type="cellIs" dxfId="218" priority="219" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="330" priority="343" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5:S5">
-    <cfRule type="cellIs" dxfId="217" priority="218" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="329" priority="342" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5:S5">
-    <cfRule type="cellIs" dxfId="216" priority="217" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="328" priority="341" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6:S6">
-    <cfRule type="cellIs" dxfId="215" priority="216" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="327" priority="340" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6:S6">
-    <cfRule type="cellIs" dxfId="214" priority="215" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="326" priority="339" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K7:S7">
-    <cfRule type="cellIs" dxfId="213" priority="214" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="325" priority="338" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K7:S7">
-    <cfRule type="cellIs" dxfId="212" priority="213" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="324" priority="337" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K7:S7">
-    <cfRule type="cellIs" dxfId="211" priority="212" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="323" priority="336" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K7:S7">
-    <cfRule type="cellIs" dxfId="210" priority="211" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="322" priority="335" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K8:S15">
-    <cfRule type="cellIs" dxfId="209" priority="210" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="321" priority="334" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K8:S15">
-    <cfRule type="cellIs" dxfId="208" priority="209" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="320" priority="333" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K16:S16">
-    <cfRule type="cellIs" dxfId="207" priority="208" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="319" priority="332" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K16:S16">
-    <cfRule type="cellIs" dxfId="206" priority="207" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="318" priority="331" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K17:S17">
-    <cfRule type="cellIs" dxfId="205" priority="206" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="317" priority="330" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K17:S17">
-    <cfRule type="cellIs" dxfId="204" priority="205" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="316" priority="329" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
-    <cfRule type="cellIs" dxfId="203" priority="204" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="315" priority="328" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
-    <cfRule type="cellIs" dxfId="202" priority="203" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="314" priority="327" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="cellIs" dxfId="201" priority="202" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="313" priority="326" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="cellIs" dxfId="200" priority="201" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="312" priority="325" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="cellIs" dxfId="199" priority="200" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="311" priority="324" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="cellIs" dxfId="198" priority="199" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="310" priority="323" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="cellIs" dxfId="197" priority="198" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="309" priority="322" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="cellIs" dxfId="196" priority="197" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="308" priority="321" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7">
-    <cfRule type="cellIs" dxfId="195" priority="196" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="307" priority="320" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7">
-    <cfRule type="cellIs" dxfId="194" priority="195" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="306" priority="319" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="cellIs" dxfId="193" priority="194" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="305" priority="318" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="cellIs" dxfId="192" priority="193" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="304" priority="317" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9">
-    <cfRule type="cellIs" dxfId="191" priority="192" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="303" priority="316" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9">
-    <cfRule type="cellIs" dxfId="190" priority="191" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="302" priority="315" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10">
-    <cfRule type="cellIs" dxfId="189" priority="190" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="301" priority="314" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10">
-    <cfRule type="cellIs" dxfId="188" priority="189" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="300" priority="313" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11">
-    <cfRule type="cellIs" dxfId="187" priority="188" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="299" priority="312" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11">
-    <cfRule type="cellIs" dxfId="186" priority="187" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="298" priority="311" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12">
-    <cfRule type="cellIs" dxfId="185" priority="186" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="297" priority="310" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12">
-    <cfRule type="cellIs" dxfId="184" priority="185" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="296" priority="309" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13">
-    <cfRule type="cellIs" dxfId="183" priority="184" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="295" priority="308" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13">
-    <cfRule type="cellIs" dxfId="182" priority="183" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="294" priority="307" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14">
-    <cfRule type="cellIs" dxfId="181" priority="182" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="293" priority="306" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14">
-    <cfRule type="cellIs" dxfId="180" priority="181" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="292" priority="305" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15">
-    <cfRule type="cellIs" dxfId="179" priority="180" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="291" priority="304" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15">
-    <cfRule type="cellIs" dxfId="178" priority="179" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="290" priority="303" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16">
-    <cfRule type="cellIs" dxfId="177" priority="178" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="289" priority="302" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16">
-    <cfRule type="cellIs" dxfId="176" priority="177" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="288" priority="301" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17">
-    <cfRule type="cellIs" dxfId="175" priority="176" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="287" priority="300" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17">
-    <cfRule type="cellIs" dxfId="174" priority="175" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="286" priority="299" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19">
-    <cfRule type="cellIs" dxfId="173" priority="174" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="285" priority="298" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19">
-    <cfRule type="cellIs" dxfId="172" priority="173" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="284" priority="297" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20">
-    <cfRule type="cellIs" dxfId="171" priority="172" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="283" priority="296" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20">
-    <cfRule type="cellIs" dxfId="170" priority="171" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="282" priority="295" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21">
-    <cfRule type="cellIs" dxfId="169" priority="170" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="281" priority="294" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21">
-    <cfRule type="cellIs" dxfId="168" priority="169" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="280" priority="293" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22">
-    <cfRule type="cellIs" dxfId="167" priority="168" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="279" priority="292" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22">
-    <cfRule type="cellIs" dxfId="166" priority="167" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="278" priority="291" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23">
-    <cfRule type="cellIs" dxfId="165" priority="166" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="277" priority="290" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23">
-    <cfRule type="cellIs" dxfId="164" priority="165" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="276" priority="289" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A24">
-    <cfRule type="cellIs" dxfId="163" priority="164" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="275" priority="288" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A24">
-    <cfRule type="cellIs" dxfId="162" priority="163" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="274" priority="287" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A25">
-    <cfRule type="cellIs" dxfId="161" priority="162" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="273" priority="286" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A25">
-    <cfRule type="cellIs" dxfId="160" priority="161" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="272" priority="285" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26">
-    <cfRule type="cellIs" dxfId="159" priority="160" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="271" priority="284" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26">
-    <cfRule type="cellIs" dxfId="158" priority="159" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="270" priority="283" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27">
-    <cfRule type="cellIs" dxfId="157" priority="158" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="269" priority="282" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27">
-    <cfRule type="cellIs" dxfId="156" priority="157" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="268" priority="281" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28">
-    <cfRule type="cellIs" dxfId="155" priority="156" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="267" priority="280" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28">
-    <cfRule type="cellIs" dxfId="154" priority="155" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="266" priority="279" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29">
-    <cfRule type="cellIs" dxfId="153" priority="154" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="265" priority="278" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29">
-    <cfRule type="cellIs" dxfId="152" priority="153" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="264" priority="277" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30">
-    <cfRule type="cellIs" dxfId="151" priority="152" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="263" priority="276" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30">
-    <cfRule type="cellIs" dxfId="150" priority="151" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="262" priority="275" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31">
-    <cfRule type="cellIs" dxfId="149" priority="150" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="261" priority="274" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31">
-    <cfRule type="cellIs" dxfId="148" priority="149" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="260" priority="273" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A32">
-    <cfRule type="cellIs" dxfId="147" priority="148" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="259" priority="272" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A32">
-    <cfRule type="cellIs" dxfId="146" priority="147" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="258" priority="271" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A33">
-    <cfRule type="cellIs" dxfId="145" priority="146" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="257" priority="270" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A33">
-    <cfRule type="cellIs" dxfId="144" priority="145" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="256" priority="269" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A34">
-    <cfRule type="cellIs" dxfId="143" priority="144" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="255" priority="268" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A34">
-    <cfRule type="cellIs" dxfId="142" priority="143" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="254" priority="267" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A35">
-    <cfRule type="cellIs" dxfId="141" priority="142" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="253" priority="266" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A35">
-    <cfRule type="cellIs" dxfId="140" priority="141" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="252" priority="265" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37">
-    <cfRule type="cellIs" dxfId="139" priority="140" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="251" priority="264" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37">
-    <cfRule type="cellIs" dxfId="138" priority="139" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="250" priority="263" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A38">
-    <cfRule type="cellIs" dxfId="137" priority="138" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="249" priority="262" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A38">
-    <cfRule type="cellIs" dxfId="136" priority="137" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="248" priority="261" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A39">
-    <cfRule type="cellIs" dxfId="135" priority="136" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="247" priority="260" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A39">
-    <cfRule type="cellIs" dxfId="134" priority="135" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="246" priority="259" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A76">
-    <cfRule type="cellIs" dxfId="133" priority="64" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="245" priority="188" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A76">
-    <cfRule type="cellIs" dxfId="132" priority="63" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="244" priority="187" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A77">
-    <cfRule type="cellIs" dxfId="131" priority="60" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="243" priority="184" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A77">
-    <cfRule type="cellIs" dxfId="130" priority="59" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="242" priority="183" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A75">
-    <cfRule type="cellIs" dxfId="129" priority="62" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="241" priority="186" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A75">
-    <cfRule type="cellIs" dxfId="128" priority="61" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="240" priority="185" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A41">
-    <cfRule type="cellIs" dxfId="127" priority="128" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="239" priority="252" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A41">
-    <cfRule type="cellIs" dxfId="126" priority="127" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="238" priority="251" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A40">
-    <cfRule type="cellIs" dxfId="125" priority="126" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="237" priority="250" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A40">
-    <cfRule type="cellIs" dxfId="124" priority="125" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="236" priority="249" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A42">
-    <cfRule type="cellIs" dxfId="123" priority="124" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="235" priority="248" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A42">
-    <cfRule type="cellIs" dxfId="122" priority="123" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="234" priority="247" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A43">
-    <cfRule type="cellIs" dxfId="121" priority="122" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="233" priority="246" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A43">
-    <cfRule type="cellIs" dxfId="120" priority="121" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="232" priority="245" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A44">
-    <cfRule type="cellIs" dxfId="119" priority="120" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="231" priority="244" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A44">
-    <cfRule type="cellIs" dxfId="118" priority="119" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="230" priority="243" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A45">
-    <cfRule type="cellIs" dxfId="117" priority="118" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="229" priority="242" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A45">
-    <cfRule type="cellIs" dxfId="116" priority="117" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="228" priority="241" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A46">
-    <cfRule type="cellIs" dxfId="115" priority="116" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="227" priority="240" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A46">
-    <cfRule type="cellIs" dxfId="114" priority="115" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="226" priority="239" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A47">
-    <cfRule type="cellIs" dxfId="113" priority="114" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="225" priority="238" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A47">
-    <cfRule type="cellIs" dxfId="112" priority="113" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="224" priority="237" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A48">
-    <cfRule type="cellIs" dxfId="111" priority="112" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="223" priority="236" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A48">
-    <cfRule type="cellIs" dxfId="110" priority="111" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="222" priority="235" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A49">
-    <cfRule type="cellIs" dxfId="109" priority="110" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="221" priority="234" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A49">
-    <cfRule type="cellIs" dxfId="108" priority="109" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="220" priority="233" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A50">
-    <cfRule type="cellIs" dxfId="107" priority="108" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="219" priority="232" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A50">
-    <cfRule type="cellIs" dxfId="106" priority="107" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="218" priority="231" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A51">
-    <cfRule type="cellIs" dxfId="105" priority="106" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="217" priority="230" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A51">
-    <cfRule type="cellIs" dxfId="104" priority="105" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="216" priority="229" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A52">
-    <cfRule type="cellIs" dxfId="103" priority="104" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="215" priority="228" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A52">
-    <cfRule type="cellIs" dxfId="102" priority="103" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="214" priority="227" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A53">
-    <cfRule type="cellIs" dxfId="101" priority="102" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="213" priority="226" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A53">
-    <cfRule type="cellIs" dxfId="100" priority="101" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="212" priority="225" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A54">
-    <cfRule type="cellIs" dxfId="99" priority="100" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="211" priority="224" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A54">
-    <cfRule type="cellIs" dxfId="98" priority="99" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="210" priority="223" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A55">
-    <cfRule type="cellIs" dxfId="97" priority="98" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="209" priority="222" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A55">
-    <cfRule type="cellIs" dxfId="96" priority="97" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="208" priority="221" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A56">
-    <cfRule type="cellIs" dxfId="95" priority="96" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="207" priority="220" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A56">
-    <cfRule type="cellIs" dxfId="94" priority="95" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="206" priority="219" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A57">
-    <cfRule type="cellIs" dxfId="93" priority="94" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="205" priority="218" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A57">
-    <cfRule type="cellIs" dxfId="92" priority="93" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="204" priority="217" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A58">
-    <cfRule type="cellIs" dxfId="91" priority="92" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="203" priority="216" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A58">
-    <cfRule type="cellIs" dxfId="90" priority="91" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="202" priority="215" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A59">
-    <cfRule type="cellIs" dxfId="89" priority="90" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="201" priority="214" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A59">
-    <cfRule type="cellIs" dxfId="88" priority="89" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="200" priority="213" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A60">
-    <cfRule type="cellIs" dxfId="87" priority="88" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="199" priority="212" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A60">
-    <cfRule type="cellIs" dxfId="86" priority="87" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="198" priority="211" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A61">
-    <cfRule type="cellIs" dxfId="85" priority="86" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="197" priority="210" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A61">
-    <cfRule type="cellIs" dxfId="84" priority="85" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="196" priority="209" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A62">
+    <cfRule type="cellIs" dxfId="195" priority="208" stopIfTrue="1" operator="equal">
+      <formula>"To translate"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A62">
+    <cfRule type="cellIs" dxfId="194" priority="207" stopIfTrue="1" operator="equal">
+      <formula>"To translate"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A63">
+    <cfRule type="cellIs" dxfId="193" priority="206" stopIfTrue="1" operator="equal">
+      <formula>"To translate"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A63">
+    <cfRule type="cellIs" dxfId="192" priority="205" stopIfTrue="1" operator="equal">
+      <formula>"To translate"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A64">
+    <cfRule type="cellIs" dxfId="191" priority="204" stopIfTrue="1" operator="equal">
+      <formula>"To translate"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A64">
+    <cfRule type="cellIs" dxfId="190" priority="203" stopIfTrue="1" operator="equal">
+      <formula>"To translate"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A65">
+    <cfRule type="cellIs" dxfId="189" priority="202" stopIfTrue="1" operator="equal">
+      <formula>"To translate"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A65">
+    <cfRule type="cellIs" dxfId="188" priority="201" stopIfTrue="1" operator="equal">
+      <formula>"To translate"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A66">
+    <cfRule type="cellIs" dxfId="187" priority="200" stopIfTrue="1" operator="equal">
+      <formula>"To translate"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A66">
+    <cfRule type="cellIs" dxfId="186" priority="199" stopIfTrue="1" operator="equal">
+      <formula>"To translate"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A67:A68">
+    <cfRule type="cellIs" dxfId="185" priority="198" stopIfTrue="1" operator="equal">
+      <formula>"To translate"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A67:A68">
+    <cfRule type="cellIs" dxfId="184" priority="197" stopIfTrue="1" operator="equal">
+      <formula>"To translate"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A69:A70">
+    <cfRule type="cellIs" dxfId="183" priority="196" stopIfTrue="1" operator="equal">
+      <formula>"To translate"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A69:A70">
+    <cfRule type="cellIs" dxfId="182" priority="195" stopIfTrue="1" operator="equal">
+      <formula>"To translate"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A71">
+    <cfRule type="cellIs" dxfId="181" priority="194" stopIfTrue="1" operator="equal">
+      <formula>"To translate"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A71">
+    <cfRule type="cellIs" dxfId="180" priority="193" stopIfTrue="1" operator="equal">
+      <formula>"To translate"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A72">
+    <cfRule type="cellIs" dxfId="179" priority="192" stopIfTrue="1" operator="equal">
+      <formula>"To translate"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A72">
+    <cfRule type="cellIs" dxfId="178" priority="191" stopIfTrue="1" operator="equal">
+      <formula>"To translate"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A74">
+    <cfRule type="cellIs" dxfId="177" priority="190" stopIfTrue="1" operator="equal">
+      <formula>"To translate"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A74">
+    <cfRule type="cellIs" dxfId="176" priority="189" stopIfTrue="1" operator="equal">
+      <formula>"To translate"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A79">
+    <cfRule type="cellIs" dxfId="175" priority="182" stopIfTrue="1" operator="equal">
+      <formula>"To translate"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A79">
+    <cfRule type="cellIs" dxfId="174" priority="181" stopIfTrue="1" operator="equal">
+      <formula>"To translate"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A78">
+    <cfRule type="cellIs" dxfId="173" priority="180" stopIfTrue="1" operator="equal">
+      <formula>"To translate"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A78">
+    <cfRule type="cellIs" dxfId="172" priority="179" stopIfTrue="1" operator="equal">
+      <formula>"To translate"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A80">
+    <cfRule type="cellIs" dxfId="171" priority="178" stopIfTrue="1" operator="equal">
+      <formula>"To translate"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A80">
+    <cfRule type="cellIs" dxfId="170" priority="177" stopIfTrue="1" operator="equal">
+      <formula>"To translate"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A81">
+    <cfRule type="cellIs" dxfId="169" priority="176" stopIfTrue="1" operator="equal">
+      <formula>"To translate"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A81">
+    <cfRule type="cellIs" dxfId="168" priority="175" stopIfTrue="1" operator="equal">
+      <formula>"To translate"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A82">
+    <cfRule type="cellIs" dxfId="167" priority="174" stopIfTrue="1" operator="equal">
+      <formula>"To translate"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A82">
+    <cfRule type="cellIs" dxfId="166" priority="173" stopIfTrue="1" operator="equal">
+      <formula>"To translate"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A83:A91">
+    <cfRule type="cellIs" dxfId="165" priority="172" stopIfTrue="1" operator="equal">
+      <formula>"To translate"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A83:A91">
+    <cfRule type="cellIs" dxfId="164" priority="171" stopIfTrue="1" operator="equal">
+      <formula>"To translate"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A92">
+    <cfRule type="cellIs" dxfId="163" priority="170" stopIfTrue="1" operator="equal">
+      <formula>"To translate"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A92">
+    <cfRule type="cellIs" dxfId="162" priority="169" stopIfTrue="1" operator="equal">
+      <formula>"To translate"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A93">
+    <cfRule type="cellIs" dxfId="161" priority="168" stopIfTrue="1" operator="equal">
+      <formula>"To translate"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A93">
+    <cfRule type="cellIs" dxfId="160" priority="167" stopIfTrue="1" operator="equal">
+      <formula>"To translate"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A95">
+    <cfRule type="cellIs" dxfId="159" priority="166" stopIfTrue="1" operator="equal">
+      <formula>"To translate"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A95">
+    <cfRule type="cellIs" dxfId="158" priority="165" stopIfTrue="1" operator="equal">
+      <formula>"To translate"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A96">
+    <cfRule type="cellIs" dxfId="157" priority="164" stopIfTrue="1" operator="equal">
+      <formula>"To translate"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A96">
+    <cfRule type="cellIs" dxfId="156" priority="163" stopIfTrue="1" operator="equal">
+      <formula>"To translate"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A97">
+    <cfRule type="cellIs" dxfId="155" priority="162" stopIfTrue="1" operator="equal">
+      <formula>"To translate"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A97">
+    <cfRule type="cellIs" dxfId="154" priority="161" stopIfTrue="1" operator="equal">
+      <formula>"To translate"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A98">
+    <cfRule type="cellIs" dxfId="153" priority="160" stopIfTrue="1" operator="equal">
+      <formula>"To translate"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A98">
+    <cfRule type="cellIs" dxfId="152" priority="159" stopIfTrue="1" operator="equal">
+      <formula>"To translate"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A99">
+    <cfRule type="cellIs" dxfId="151" priority="158" stopIfTrue="1" operator="equal">
+      <formula>"To translate"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A99">
+    <cfRule type="cellIs" dxfId="150" priority="157" stopIfTrue="1" operator="equal">
+      <formula>"To translate"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A100">
+    <cfRule type="cellIs" dxfId="149" priority="156" stopIfTrue="1" operator="equal">
+      <formula>"To translate"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A100">
+    <cfRule type="cellIs" dxfId="148" priority="155" stopIfTrue="1" operator="equal">
+      <formula>"To translate"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A101">
+    <cfRule type="cellIs" dxfId="147" priority="154" stopIfTrue="1" operator="equal">
+      <formula>"To translate"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A101">
+    <cfRule type="cellIs" dxfId="146" priority="153" stopIfTrue="1" operator="equal">
+      <formula>"To translate"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A102">
+    <cfRule type="cellIs" dxfId="145" priority="152" stopIfTrue="1" operator="equal">
+      <formula>"To translate"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A102">
+    <cfRule type="cellIs" dxfId="144" priority="151" stopIfTrue="1" operator="equal">
+      <formula>"To translate"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A103">
+    <cfRule type="cellIs" dxfId="143" priority="150" stopIfTrue="1" operator="equal">
+      <formula>"To translate"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A103">
+    <cfRule type="cellIs" dxfId="142" priority="149" stopIfTrue="1" operator="equal">
+      <formula>"To translate"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A104">
+    <cfRule type="cellIs" dxfId="141" priority="148" stopIfTrue="1" operator="equal">
+      <formula>"To translate"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A104">
+    <cfRule type="cellIs" dxfId="140" priority="147" stopIfTrue="1" operator="equal">
+      <formula>"To translate"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A105">
+    <cfRule type="cellIs" dxfId="139" priority="146" stopIfTrue="1" operator="equal">
+      <formula>"To translate"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A105">
+    <cfRule type="cellIs" dxfId="138" priority="145" stopIfTrue="1" operator="equal">
+      <formula>"To translate"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A106">
+    <cfRule type="cellIs" dxfId="137" priority="144" stopIfTrue="1" operator="equal">
+      <formula>"To translate"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A106">
+    <cfRule type="cellIs" dxfId="136" priority="143" stopIfTrue="1" operator="equal">
+      <formula>"To translate"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A107">
+    <cfRule type="cellIs" dxfId="135" priority="142" stopIfTrue="1" operator="equal">
+      <formula>"To translate"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A107">
+    <cfRule type="cellIs" dxfId="134" priority="141" stopIfTrue="1" operator="equal">
+      <formula>"To translate"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A108">
+    <cfRule type="cellIs" dxfId="133" priority="140" stopIfTrue="1" operator="equal">
+      <formula>"To translate"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A108">
+    <cfRule type="cellIs" dxfId="132" priority="139" stopIfTrue="1" operator="equal">
+      <formula>"To translate"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A109">
+    <cfRule type="cellIs" dxfId="131" priority="138" stopIfTrue="1" operator="equal">
+      <formula>"To translate"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A109">
+    <cfRule type="cellIs" dxfId="130" priority="137" stopIfTrue="1" operator="equal">
+      <formula>"To translate"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A110">
+    <cfRule type="cellIs" dxfId="129" priority="136" stopIfTrue="1" operator="equal">
+      <formula>"To translate"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A110">
+    <cfRule type="cellIs" dxfId="128" priority="135" stopIfTrue="1" operator="equal">
+      <formula>"To translate"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A111">
+    <cfRule type="cellIs" dxfId="127" priority="134" stopIfTrue="1" operator="equal">
+      <formula>"To translate"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A111">
+    <cfRule type="cellIs" dxfId="126" priority="133" stopIfTrue="1" operator="equal">
+      <formula>"To translate"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A112">
+    <cfRule type="cellIs" dxfId="125" priority="132" stopIfTrue="1" operator="equal">
+      <formula>"To translate"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A112">
+    <cfRule type="cellIs" dxfId="124" priority="131" stopIfTrue="1" operator="equal">
+      <formula>"To translate"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A113">
+    <cfRule type="cellIs" dxfId="123" priority="130" stopIfTrue="1" operator="equal">
+      <formula>"To translate"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A113">
+    <cfRule type="cellIs" dxfId="122" priority="129" stopIfTrue="1" operator="equal">
+      <formula>"To translate"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A114">
+    <cfRule type="cellIs" dxfId="121" priority="128" stopIfTrue="1" operator="equal">
+      <formula>"To translate"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A114">
+    <cfRule type="cellIs" dxfId="120" priority="127" stopIfTrue="1" operator="equal">
+      <formula>"To translate"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A115">
+    <cfRule type="cellIs" dxfId="119" priority="126" stopIfTrue="1" operator="equal">
+      <formula>"To translate"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A115">
+    <cfRule type="cellIs" dxfId="118" priority="125" stopIfTrue="1" operator="equal">
+      <formula>"To translate"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K19:S20">
+    <cfRule type="cellIs" dxfId="117" priority="124" stopIfTrue="1" operator="equal">
+      <formula>"To translate"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K19:S20">
+    <cfRule type="cellIs" dxfId="116" priority="123" stopIfTrue="1" operator="equal">
+      <formula>"To translate"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K21:S22">
+    <cfRule type="cellIs" dxfId="115" priority="122" stopIfTrue="1" operator="equal">
+      <formula>"To translate"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K21:S22">
+    <cfRule type="cellIs" dxfId="114" priority="121" stopIfTrue="1" operator="equal">
+      <formula>"To translate"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K23:S23">
+    <cfRule type="cellIs" dxfId="113" priority="120" stopIfTrue="1" operator="equal">
+      <formula>"To translate"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K23:S23">
+    <cfRule type="cellIs" dxfId="112" priority="119" stopIfTrue="1" operator="equal">
+      <formula>"To translate"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K24:S24">
+    <cfRule type="cellIs" dxfId="111" priority="116" stopIfTrue="1" operator="equal">
+      <formula>"To translate"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K24:S24">
+    <cfRule type="cellIs" dxfId="110" priority="115" stopIfTrue="1" operator="equal">
+      <formula>"To translate"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L25:S25">
+    <cfRule type="cellIs" dxfId="109" priority="114" stopIfTrue="1" operator="equal">
+      <formula>"To translate"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L25:S25">
+    <cfRule type="cellIs" dxfId="108" priority="113" stopIfTrue="1" operator="equal">
+      <formula>"To translate"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L25:S25">
+    <cfRule type="cellIs" dxfId="107" priority="112" stopIfTrue="1" operator="equal">
+      <formula>"To translate"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L25:S25">
+    <cfRule type="cellIs" dxfId="106" priority="111" stopIfTrue="1" operator="equal">
+      <formula>"To translate"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K25">
+    <cfRule type="cellIs" dxfId="105" priority="110" stopIfTrue="1" operator="equal">
+      <formula>"To translate"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K25">
+    <cfRule type="cellIs" dxfId="104" priority="109" stopIfTrue="1" operator="equal">
+      <formula>"To translate"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K25">
+    <cfRule type="cellIs" dxfId="103" priority="108" stopIfTrue="1" operator="equal">
+      <formula>"To translate"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K25">
+    <cfRule type="cellIs" dxfId="102" priority="107" stopIfTrue="1" operator="equal">
+      <formula>"To translate"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K26:S26">
+    <cfRule type="cellIs" dxfId="101" priority="106" stopIfTrue="1" operator="equal">
+      <formula>"To translate"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K26:S26">
+    <cfRule type="cellIs" dxfId="100" priority="105" stopIfTrue="1" operator="equal">
+      <formula>"To translate"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K27:S27">
+    <cfRule type="cellIs" dxfId="99" priority="104" stopIfTrue="1" operator="equal">
+      <formula>"To translate"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K27:S27">
+    <cfRule type="cellIs" dxfId="98" priority="103" stopIfTrue="1" operator="equal">
+      <formula>"To translate"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K28:S28">
+    <cfRule type="cellIs" dxfId="97" priority="102" stopIfTrue="1" operator="equal">
+      <formula>"To translate"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K28:S28">
+    <cfRule type="cellIs" dxfId="96" priority="101" stopIfTrue="1" operator="equal">
+      <formula>"To translate"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K29:S29">
+    <cfRule type="cellIs" dxfId="95" priority="98" stopIfTrue="1" operator="equal">
+      <formula>"To translate"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K29:S29">
+    <cfRule type="cellIs" dxfId="94" priority="97" stopIfTrue="1" operator="equal">
+      <formula>"To translate"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K30:S30">
+    <cfRule type="cellIs" dxfId="93" priority="96" stopIfTrue="1" operator="equal">
+      <formula>"To translate"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K30:S30">
+    <cfRule type="cellIs" dxfId="92" priority="95" stopIfTrue="1" operator="equal">
+      <formula>"To translate"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K31:S31">
+    <cfRule type="cellIs" dxfId="91" priority="94" stopIfTrue="1" operator="equal">
+      <formula>"To translate"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K31:S31">
+    <cfRule type="cellIs" dxfId="90" priority="93" stopIfTrue="1" operator="equal">
+      <formula>"To translate"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K32:S32">
+    <cfRule type="cellIs" dxfId="89" priority="92" stopIfTrue="1" operator="equal">
+      <formula>"To translate"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K32:S32">
+    <cfRule type="cellIs" dxfId="88" priority="91" stopIfTrue="1" operator="equal">
+      <formula>"To translate"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K32:S32">
+    <cfRule type="cellIs" dxfId="87" priority="90" stopIfTrue="1" operator="equal">
+      <formula>"To translate"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K32:S32">
+    <cfRule type="cellIs" dxfId="86" priority="89" stopIfTrue="1" operator="equal">
+      <formula>"To translate"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K33:S34">
+    <cfRule type="cellIs" dxfId="85" priority="88" stopIfTrue="1" operator="equal">
+      <formula>"To translate"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K33:S34">
+    <cfRule type="cellIs" dxfId="84" priority="87" stopIfTrue="1" operator="equal">
+      <formula>"To translate"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K42:S42">
     <cfRule type="cellIs" dxfId="83" priority="84" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A62">
+  <conditionalFormatting sqref="K42:S42">
     <cfRule type="cellIs" dxfId="82" priority="83" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A63">
+  <conditionalFormatting sqref="K43:S53">
     <cfRule type="cellIs" dxfId="81" priority="82" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A63">
+  <conditionalFormatting sqref="K43:S53">
     <cfRule type="cellIs" dxfId="80" priority="81" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A64">
+  <conditionalFormatting sqref="K54:S54">
     <cfRule type="cellIs" dxfId="79" priority="80" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A64">
+  <conditionalFormatting sqref="K54:S54">
     <cfRule type="cellIs" dxfId="78" priority="79" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A65">
+  <conditionalFormatting sqref="K55:S55">
     <cfRule type="cellIs" dxfId="77" priority="78" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A65">
+  <conditionalFormatting sqref="K55:S55">
     <cfRule type="cellIs" dxfId="76" priority="77" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A66">
+  <conditionalFormatting sqref="L56:S56">
     <cfRule type="cellIs" dxfId="75" priority="76" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A66">
+  <conditionalFormatting sqref="L56:S56">
     <cfRule type="cellIs" dxfId="74" priority="75" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A67:A68">
+  <conditionalFormatting sqref="L56:S56">
     <cfRule type="cellIs" dxfId="73" priority="74" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A67:A68">
+  <conditionalFormatting sqref="K56">
     <cfRule type="cellIs" dxfId="72" priority="73" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A69:A70">
+  <conditionalFormatting sqref="K56">
     <cfRule type="cellIs" dxfId="71" priority="72" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A69:A70">
+  <conditionalFormatting sqref="K56">
     <cfRule type="cellIs" dxfId="70" priority="71" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A71">
+  <conditionalFormatting sqref="K57:S57">
     <cfRule type="cellIs" dxfId="69" priority="70" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A71">
+  <conditionalFormatting sqref="K57:S57">
     <cfRule type="cellIs" dxfId="68" priority="69" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A72">
+  <conditionalFormatting sqref="K58:S63">
     <cfRule type="cellIs" dxfId="67" priority="68" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A72">
+  <conditionalFormatting sqref="K58:S63">
     <cfRule type="cellIs" dxfId="66" priority="67" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A74">
+  <conditionalFormatting sqref="K64:S64">
     <cfRule type="cellIs" dxfId="65" priority="66" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A74">
+  <conditionalFormatting sqref="K64:S64">
     <cfRule type="cellIs" dxfId="64" priority="65" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A79">
+  <conditionalFormatting sqref="K65:S71 L72:S72 K74:S74">
+    <cfRule type="cellIs" dxfId="63" priority="64" stopIfTrue="1" operator="equal">
+      <formula>"To translate"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K65:S71 L72:S72 K74:S74">
+    <cfRule type="cellIs" dxfId="62" priority="63" stopIfTrue="1" operator="equal">
+      <formula>"To translate"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K72">
+    <cfRule type="cellIs" dxfId="61" priority="62" stopIfTrue="1" operator="equal">
+      <formula>"To translate"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K72">
+    <cfRule type="cellIs" dxfId="60" priority="61" stopIfTrue="1" operator="equal">
+      <formula>"To translate"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L75:S77">
+    <cfRule type="cellIs" dxfId="59" priority="60" stopIfTrue="1" operator="equal">
+      <formula>"To translate"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L75:S77">
+    <cfRule type="cellIs" dxfId="58" priority="59" stopIfTrue="1" operator="equal">
+      <formula>"To translate"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K75">
     <cfRule type="cellIs" dxfId="57" priority="58" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A79">
+  <conditionalFormatting sqref="K75">
     <cfRule type="cellIs" dxfId="56" priority="57" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A78">
+  <conditionalFormatting sqref="K76:K77">
     <cfRule type="cellIs" dxfId="55" priority="56" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A78">
+  <conditionalFormatting sqref="K76:K77">
     <cfRule type="cellIs" dxfId="54" priority="55" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A80">
+  <conditionalFormatting sqref="K78:S78">
     <cfRule type="cellIs" dxfId="53" priority="54" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A80">
+  <conditionalFormatting sqref="K78:S78">
     <cfRule type="cellIs" dxfId="52" priority="53" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A81">
+  <conditionalFormatting sqref="K79:S79">
     <cfRule type="cellIs" dxfId="51" priority="52" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A81">
+  <conditionalFormatting sqref="K79:S79">
     <cfRule type="cellIs" dxfId="50" priority="51" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A82">
+  <conditionalFormatting sqref="L80:S80">
     <cfRule type="cellIs" dxfId="49" priority="50" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A82">
+  <conditionalFormatting sqref="L80:S80">
     <cfRule type="cellIs" dxfId="48" priority="49" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A83:A91">
+  <conditionalFormatting sqref="K80">
     <cfRule type="cellIs" dxfId="47" priority="48" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A83:A91">
+  <conditionalFormatting sqref="K80">
     <cfRule type="cellIs" dxfId="46" priority="47" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A92">
+  <conditionalFormatting sqref="K81:S81">
     <cfRule type="cellIs" dxfId="45" priority="46" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A92">
+  <conditionalFormatting sqref="K81:S81">
     <cfRule type="cellIs" dxfId="44" priority="45" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A93">
+  <conditionalFormatting sqref="K81:S81">
     <cfRule type="cellIs" dxfId="43" priority="44" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A93">
+  <conditionalFormatting sqref="K81:S81">
     <cfRule type="cellIs" dxfId="42" priority="43" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A95">
+  <conditionalFormatting sqref="L82:S82">
     <cfRule type="cellIs" dxfId="41" priority="42" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A95">
+  <conditionalFormatting sqref="L82:S82">
     <cfRule type="cellIs" dxfId="40" priority="41" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A96">
+  <conditionalFormatting sqref="K82">
     <cfRule type="cellIs" dxfId="39" priority="40" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A96">
+  <conditionalFormatting sqref="K82">
     <cfRule type="cellIs" dxfId="38" priority="39" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A97">
+  <conditionalFormatting sqref="K83:S83">
     <cfRule type="cellIs" dxfId="37" priority="38" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A97">
+  <conditionalFormatting sqref="K83:S83">
     <cfRule type="cellIs" dxfId="36" priority="37" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A98">
+  <conditionalFormatting sqref="K83:S83">
     <cfRule type="cellIs" dxfId="35" priority="36" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A98">
+  <conditionalFormatting sqref="K83:S83">
     <cfRule type="cellIs" dxfId="34" priority="35" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A99">
+  <conditionalFormatting sqref="K84:S91">
     <cfRule type="cellIs" dxfId="33" priority="34" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A99">
+  <conditionalFormatting sqref="K84:S91">
     <cfRule type="cellIs" dxfId="32" priority="33" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A100">
+  <conditionalFormatting sqref="K84:S91">
     <cfRule type="cellIs" dxfId="31" priority="32" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A100">
+  <conditionalFormatting sqref="K84:S91">
     <cfRule type="cellIs" dxfId="30" priority="31" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A101">
+  <conditionalFormatting sqref="K84:S91">
     <cfRule type="cellIs" dxfId="29" priority="30" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A101">
+  <conditionalFormatting sqref="K84:S91">
     <cfRule type="cellIs" dxfId="28" priority="29" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A102">
+  <conditionalFormatting sqref="K84:S91">
     <cfRule type="cellIs" dxfId="27" priority="28" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A102">
+  <conditionalFormatting sqref="K84:S91">
     <cfRule type="cellIs" dxfId="26" priority="27" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A103">
+  <conditionalFormatting sqref="L92:S93">
     <cfRule type="cellIs" dxfId="25" priority="26" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A103">
+  <conditionalFormatting sqref="L92:S93">
     <cfRule type="cellIs" dxfId="24" priority="25" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A104">
+  <conditionalFormatting sqref="K92:K93">
     <cfRule type="cellIs" dxfId="23" priority="24" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A104">
+  <conditionalFormatting sqref="K92:K93">
     <cfRule type="cellIs" dxfId="22" priority="23" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A105">
+  <conditionalFormatting sqref="K95:S95">
     <cfRule type="cellIs" dxfId="21" priority="22" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A105">
+  <conditionalFormatting sqref="K95:S95">
     <cfRule type="cellIs" dxfId="20" priority="21" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A106">
+  <conditionalFormatting sqref="K95:S95">
     <cfRule type="cellIs" dxfId="19" priority="20" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A106">
+  <conditionalFormatting sqref="K95:S95">
     <cfRule type="cellIs" dxfId="18" priority="19" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A107">
+  <conditionalFormatting sqref="K96:S96">
     <cfRule type="cellIs" dxfId="17" priority="18" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A107">
+  <conditionalFormatting sqref="K96:S96">
     <cfRule type="cellIs" dxfId="16" priority="17" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A108">
+  <conditionalFormatting sqref="L97:S100">
     <cfRule type="cellIs" dxfId="15" priority="16" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A108">
+  <conditionalFormatting sqref="L97:S100">
     <cfRule type="cellIs" dxfId="14" priority="15" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A109">
+  <conditionalFormatting sqref="K97:K100">
     <cfRule type="cellIs" dxfId="13" priority="14" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A109">
+  <conditionalFormatting sqref="K97:K100">
     <cfRule type="cellIs" dxfId="12" priority="13" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A110">
+  <conditionalFormatting sqref="K101:S101">
     <cfRule type="cellIs" dxfId="11" priority="12" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A110">
+  <conditionalFormatting sqref="K101:S101">
     <cfRule type="cellIs" dxfId="10" priority="11" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A111">
+  <conditionalFormatting sqref="L102:S107">
     <cfRule type="cellIs" dxfId="9" priority="10" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A111">
+  <conditionalFormatting sqref="L102:S107">
     <cfRule type="cellIs" dxfId="8" priority="9" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A112">
+  <conditionalFormatting sqref="K102:K107">
     <cfRule type="cellIs" dxfId="7" priority="8" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A112">
+  <conditionalFormatting sqref="K102:K107">
     <cfRule type="cellIs" dxfId="6" priority="7" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A113">
+  <conditionalFormatting sqref="K108:S108">
     <cfRule type="cellIs" dxfId="5" priority="6" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A113">
+  <conditionalFormatting sqref="K108:S108">
     <cfRule type="cellIs" dxfId="4" priority="5" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A114">
+  <conditionalFormatting sqref="L109:S115">
     <cfRule type="cellIs" dxfId="3" priority="4" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A114">
+  <conditionalFormatting sqref="L109:S115">
     <cfRule type="cellIs" dxfId="2" priority="3" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A115">
+  <conditionalFormatting sqref="K109:K115">
     <cfRule type="cellIs" dxfId="1" priority="2" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A115">
+  <conditionalFormatting sqref="K109:K115">
     <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>

--- a/MACROGenerator/config/Signals.xlsx
+++ b/MACROGenerator/config/Signals.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08115284-591E-47CB-812E-C0EBBF372E61}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C569B3B0-5AB9-4E9D-9E18-6D65C65D32B6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1234" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1714" uniqueCount="286">
   <si>
     <t>Signal name</t>
   </si>
@@ -912,6 +912,12 @@
   </si>
   <si>
     <t>NoVRF*Mitsubishi1*Mitsubishi2*Mitsubishi3*Daikin*SamsungAlfa*RTD10_FDP11</t>
+  </si>
+  <si>
+    <t>disabled</t>
+  </si>
+  <si>
+    <t>x</t>
   </si>
 </sst>
 </file>
@@ -3651,11 +3657,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S116"/>
+  <dimension ref="A1:T116"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D116" sqref="D116"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3665,11 +3671,11 @@
     <col min="6" max="6" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="49.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.7109375" customWidth="1"/>
+    <col min="12" max="12" width="74.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>143</v>
       </c>
@@ -3700,40 +3706,43 @@
       <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="15" t="s">
+      <c r="K1" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="L1" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="15" t="s">
+      <c r="M1" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="15" t="s">
+      <c r="N1" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="15" t="s">
+      <c r="O1" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="15" t="s">
+      <c r="P1" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="15" t="s">
+      <c r="Q1" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="15" t="s">
+      <c r="R1" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="15" t="s">
+      <c r="S1" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="15" t="s">
+      <c r="T1" s="15" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>144</v>
       </c>
@@ -3749,14 +3758,23 @@
       <c r="E3" s="10">
         <v>701</v>
       </c>
+      <c r="F3" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>285</v>
+      </c>
       <c r="I3" s="10">
         <v>4</v>
       </c>
       <c r="J3" s="10">
         <v>21</v>
       </c>
-      <c r="K3" s="13" t="s">
-        <v>128</v>
+      <c r="K3" s="10" t="b">
+        <v>0</v>
       </c>
       <c r="L3" s="13" t="s">
         <v>128</v>
@@ -3782,8 +3800,11 @@
       <c r="S3" s="13" t="s">
         <v>128</v>
       </c>
+      <c r="T3" s="13" t="s">
+        <v>128</v>
+      </c>
     </row>
-    <row r="4" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>144</v>
       </c>
@@ -3799,14 +3820,23 @@
       <c r="E4" s="10">
         <v>701</v>
       </c>
+      <c r="F4" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>285</v>
+      </c>
       <c r="I4" s="10">
         <v>3</v>
       </c>
       <c r="J4" s="10">
         <v>121</v>
       </c>
-      <c r="K4" s="13" t="s">
-        <v>128</v>
+      <c r="K4" s="10" t="b">
+        <v>1</v>
       </c>
       <c r="L4" s="13" t="s">
         <v>128</v>
@@ -3832,8 +3862,11 @@
       <c r="S4" s="13" t="s">
         <v>128</v>
       </c>
+      <c r="T4" s="13" t="s">
+        <v>128</v>
+      </c>
     </row>
-    <row r="5" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
         <v>145</v>
       </c>
@@ -3849,14 +3882,23 @@
       <c r="E5" s="10">
         <v>843</v>
       </c>
+      <c r="F5" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>285</v>
+      </c>
       <c r="I5" s="10">
         <v>4</v>
       </c>
       <c r="J5" s="10">
         <v>22</v>
       </c>
-      <c r="K5" s="13" t="s">
-        <v>129</v>
+      <c r="K5" s="10" t="b">
+        <v>0</v>
       </c>
       <c r="L5" s="13" t="s">
         <v>129</v>
@@ -3882,8 +3924,11 @@
       <c r="S5" s="13" t="s">
         <v>129</v>
       </c>
+      <c r="T5" s="13" t="s">
+        <v>129</v>
+      </c>
     </row>
-    <row r="6" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>146</v>
       </c>
@@ -3899,14 +3944,23 @@
       <c r="E6" s="10">
         <v>850</v>
       </c>
+      <c r="F6" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>285</v>
+      </c>
       <c r="I6" s="10">
         <v>4</v>
       </c>
       <c r="J6" s="10">
         <v>24</v>
       </c>
-      <c r="K6" s="13" t="s">
-        <v>130</v>
+      <c r="K6" s="10" t="b">
+        <v>0</v>
       </c>
       <c r="L6" s="13" t="s">
         <v>130</v>
@@ -3932,8 +3986,11 @@
       <c r="S6" s="13" t="s">
         <v>130</v>
       </c>
+      <c r="T6" s="13" t="s">
+        <v>130</v>
+      </c>
     </row>
-    <row r="7" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>147</v>
       </c>
@@ -3949,14 +4006,23 @@
       <c r="E7" s="10">
         <v>850</v>
       </c>
+      <c r="F7" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>285</v>
+      </c>
       <c r="I7" s="10">
         <v>4</v>
       </c>
       <c r="J7" s="10">
         <v>25</v>
       </c>
-      <c r="K7" s="13" t="s">
-        <v>131</v>
+      <c r="K7" s="10" t="b">
+        <v>1</v>
       </c>
       <c r="L7" s="13" t="s">
         <v>131</v>
@@ -3982,8 +4048,11 @@
       <c r="S7" s="13" t="s">
         <v>131</v>
       </c>
+      <c r="T7" s="13" t="s">
+        <v>131</v>
+      </c>
     </row>
-    <row r="8" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>148</v>
       </c>
@@ -3999,17 +4068,23 @@
       <c r="E8" s="10">
         <v>811</v>
       </c>
+      <c r="F8" s="10" t="s">
+        <v>285</v>
+      </c>
       <c r="G8" s="10" t="s">
         <v>132</v>
       </c>
+      <c r="H8" s="10" t="s">
+        <v>285</v>
+      </c>
       <c r="I8" s="10">
         <v>4</v>
       </c>
       <c r="J8" s="10">
         <v>29</v>
       </c>
-      <c r="K8" s="13" t="s">
-        <v>133</v>
+      <c r="K8" s="10" t="b">
+        <v>0</v>
       </c>
       <c r="L8" s="13" t="s">
         <v>133</v>
@@ -4035,8 +4110,11 @@
       <c r="S8" s="13" t="s">
         <v>133</v>
       </c>
+      <c r="T8" s="13" t="s">
+        <v>133</v>
+      </c>
     </row>
-    <row r="9" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>149</v>
       </c>
@@ -4052,17 +4130,23 @@
       <c r="E9" s="10">
         <v>812</v>
       </c>
+      <c r="F9" s="10" t="s">
+        <v>285</v>
+      </c>
       <c r="G9" s="10" t="s">
         <v>134</v>
       </c>
+      <c r="H9" s="10" t="s">
+        <v>285</v>
+      </c>
       <c r="I9" s="10">
         <v>4</v>
       </c>
       <c r="J9" s="10">
         <v>30</v>
       </c>
-      <c r="K9" s="13" t="s">
-        <v>133</v>
+      <c r="K9" s="10" t="b">
+        <v>0</v>
       </c>
       <c r="L9" s="13" t="s">
         <v>133</v>
@@ -4088,8 +4172,11 @@
       <c r="S9" s="13" t="s">
         <v>133</v>
       </c>
+      <c r="T9" s="13" t="s">
+        <v>133</v>
+      </c>
     </row>
-    <row r="10" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>150</v>
       </c>
@@ -4105,17 +4192,23 @@
       <c r="E10" s="10">
         <v>813</v>
       </c>
+      <c r="F10" s="10" t="s">
+        <v>285</v>
+      </c>
       <c r="G10" s="10" t="s">
         <v>135</v>
       </c>
+      <c r="H10" s="10" t="s">
+        <v>285</v>
+      </c>
       <c r="I10" s="10">
         <v>4</v>
       </c>
       <c r="J10" s="10">
         <v>31</v>
       </c>
-      <c r="K10" s="13" t="s">
-        <v>133</v>
+      <c r="K10" s="10" t="b">
+        <v>0</v>
       </c>
       <c r="L10" s="13" t="s">
         <v>133</v>
@@ -4141,8 +4234,11 @@
       <c r="S10" s="13" t="s">
         <v>133</v>
       </c>
+      <c r="T10" s="13" t="s">
+        <v>133</v>
+      </c>
     </row>
-    <row r="11" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
         <v>151</v>
       </c>
@@ -4158,17 +4254,23 @@
       <c r="E11" s="10">
         <v>814</v>
       </c>
+      <c r="F11" s="10" t="s">
+        <v>285</v>
+      </c>
       <c r="G11" s="10" t="s">
         <v>136</v>
       </c>
+      <c r="H11" s="10" t="s">
+        <v>285</v>
+      </c>
       <c r="I11" s="10">
         <v>4</v>
       </c>
       <c r="J11" s="10">
         <v>32</v>
       </c>
-      <c r="K11" s="13" t="s">
-        <v>133</v>
+      <c r="K11" s="10" t="b">
+        <v>0</v>
       </c>
       <c r="L11" s="13" t="s">
         <v>133</v>
@@ -4194,8 +4296,11 @@
       <c r="S11" s="13" t="s">
         <v>133</v>
       </c>
+      <c r="T11" s="13" t="s">
+        <v>133</v>
+      </c>
     </row>
-    <row r="12" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
         <v>152</v>
       </c>
@@ -4211,17 +4316,23 @@
       <c r="E12" s="10">
         <v>815</v>
       </c>
+      <c r="F12" s="10" t="s">
+        <v>285</v>
+      </c>
       <c r="G12" s="10" t="s">
         <v>137</v>
       </c>
+      <c r="H12" s="10" t="s">
+        <v>285</v>
+      </c>
       <c r="I12" s="10">
         <v>4</v>
       </c>
       <c r="J12" s="10">
         <v>33</v>
       </c>
-      <c r="K12" s="13" t="s">
-        <v>133</v>
+      <c r="K12" s="10" t="b">
+        <v>0</v>
       </c>
       <c r="L12" s="13" t="s">
         <v>133</v>
@@ -4247,8 +4358,11 @@
       <c r="S12" s="13" t="s">
         <v>133</v>
       </c>
+      <c r="T12" s="13" t="s">
+        <v>133</v>
+      </c>
     </row>
-    <row r="13" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
         <v>153</v>
       </c>
@@ -4264,17 +4378,23 @@
       <c r="E13" s="10">
         <v>816</v>
       </c>
+      <c r="F13" s="10" t="s">
+        <v>285</v>
+      </c>
       <c r="G13" s="10" t="s">
         <v>138</v>
       </c>
+      <c r="H13" s="10" t="s">
+        <v>285</v>
+      </c>
       <c r="I13" s="10">
         <v>4</v>
       </c>
       <c r="J13" s="10">
         <v>34</v>
       </c>
-      <c r="K13" s="13" t="s">
-        <v>133</v>
+      <c r="K13" s="10" t="b">
+        <v>0</v>
       </c>
       <c r="L13" s="13" t="s">
         <v>133</v>
@@ -4300,8 +4420,11 @@
       <c r="S13" s="13" t="s">
         <v>133</v>
       </c>
+      <c r="T13" s="13" t="s">
+        <v>133</v>
+      </c>
     </row>
-    <row r="14" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
         <v>154</v>
       </c>
@@ -4317,17 +4440,23 @@
       <c r="E14" s="10">
         <v>817</v>
       </c>
+      <c r="F14" s="10" t="s">
+        <v>285</v>
+      </c>
       <c r="G14" s="10" t="s">
         <v>139</v>
       </c>
+      <c r="H14" s="10" t="s">
+        <v>285</v>
+      </c>
       <c r="I14" s="10">
         <v>4</v>
       </c>
       <c r="J14" s="10">
         <v>35</v>
       </c>
-      <c r="K14" s="13" t="s">
-        <v>133</v>
+      <c r="K14" s="10" t="b">
+        <v>0</v>
       </c>
       <c r="L14" s="13" t="s">
         <v>133</v>
@@ -4353,8 +4482,11 @@
       <c r="S14" s="13" t="s">
         <v>133</v>
       </c>
+      <c r="T14" s="13" t="s">
+        <v>133</v>
+      </c>
     </row>
-    <row r="15" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
         <v>155</v>
       </c>
@@ -4370,17 +4502,23 @@
       <c r="E15" s="10">
         <v>818</v>
       </c>
+      <c r="F15" s="10" t="s">
+        <v>285</v>
+      </c>
       <c r="G15" s="10" t="s">
         <v>140</v>
       </c>
+      <c r="H15" s="10" t="s">
+        <v>285</v>
+      </c>
       <c r="I15" s="10">
         <v>4</v>
       </c>
       <c r="J15" s="10">
         <v>36</v>
       </c>
-      <c r="K15" s="13" t="s">
-        <v>133</v>
+      <c r="K15" s="10" t="b">
+        <v>0</v>
       </c>
       <c r="L15" s="13" t="s">
         <v>133</v>
@@ -4406,8 +4544,11 @@
       <c r="S15" s="13" t="s">
         <v>133</v>
       </c>
+      <c r="T15" s="13" t="s">
+        <v>133</v>
+      </c>
     </row>
-    <row r="16" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
         <v>156</v>
       </c>
@@ -4417,6 +4558,12 @@
       <c r="C16" s="10">
         <v>14</v>
       </c>
+      <c r="D16" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>285</v>
+      </c>
       <c r="F16" s="10">
         <v>0</v>
       </c>
@@ -4429,8 +4576,8 @@
       <c r="J16" s="10">
         <v>35</v>
       </c>
-      <c r="K16" s="13" t="s">
-        <v>141</v>
+      <c r="K16" s="10" t="b">
+        <v>0</v>
       </c>
       <c r="L16" s="13" t="s">
         <v>141</v>
@@ -4456,8 +4603,11 @@
       <c r="S16" s="13" t="s">
         <v>141</v>
       </c>
+      <c r="T16" s="13" t="s">
+        <v>141</v>
+      </c>
     </row>
-    <row r="17" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
         <v>157</v>
       </c>
@@ -4467,6 +4617,12 @@
       <c r="C17" s="10">
         <v>15</v>
       </c>
+      <c r="D17" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>285</v>
+      </c>
       <c r="F17" s="10">
         <v>0</v>
       </c>
@@ -4479,8 +4635,8 @@
       <c r="J17" s="10">
         <v>26</v>
       </c>
-      <c r="K17" s="13" t="s">
-        <v>142</v>
+      <c r="K17" s="10" t="b">
+        <v>0</v>
       </c>
       <c r="L17" s="13" t="s">
         <v>142</v>
@@ -4506,13 +4662,16 @@
       <c r="S17" s="13" t="s">
         <v>142</v>
       </c>
+      <c r="T17" s="13" t="s">
+        <v>142</v>
+      </c>
     </row>
-    <row r="18" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
         <v>158</v>
       </c>
@@ -4522,9 +4681,18 @@
       <c r="C19" s="10">
         <v>1</v>
       </c>
+      <c r="D19" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>285</v>
+      </c>
       <c r="F19" s="10">
         <v>2</v>
       </c>
+      <c r="G19" s="10" t="s">
+        <v>285</v>
+      </c>
       <c r="H19" s="10">
         <v>14</v>
       </c>
@@ -4534,8 +4702,8 @@
       <c r="J19" s="10">
         <v>162</v>
       </c>
-      <c r="K19" s="13" t="s">
-        <v>249</v>
+      <c r="K19" s="10" t="b">
+        <v>0</v>
       </c>
       <c r="L19" s="13" t="s">
         <v>249</v>
@@ -4561,8 +4729,11 @@
       <c r="S19" s="13" t="s">
         <v>249</v>
       </c>
+      <c r="T19" s="13" t="s">
+        <v>249</v>
+      </c>
     </row>
-    <row r="20" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="s">
         <v>159</v>
       </c>
@@ -4572,9 +4743,18 @@
       <c r="C20" s="10">
         <v>2</v>
       </c>
+      <c r="D20" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>285</v>
+      </c>
       <c r="F20" s="10">
         <v>2</v>
       </c>
+      <c r="G20" s="10" t="s">
+        <v>285</v>
+      </c>
       <c r="H20" s="10">
         <v>15</v>
       </c>
@@ -4584,8 +4764,8 @@
       <c r="J20" s="10">
         <v>163</v>
       </c>
-      <c r="K20" s="13" t="s">
-        <v>249</v>
+      <c r="K20" s="10" t="b">
+        <v>0</v>
       </c>
       <c r="L20" s="13" t="s">
         <v>249</v>
@@ -4611,8 +4791,11 @@
       <c r="S20" s="13" t="s">
         <v>249</v>
       </c>
+      <c r="T20" s="13" t="s">
+        <v>249</v>
+      </c>
     </row>
-    <row r="21" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
         <v>160</v>
       </c>
@@ -4622,8 +4805,17 @@
       <c r="C21" s="10">
         <v>3</v>
       </c>
+      <c r="D21" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>285</v>
+      </c>
       <c r="F21" s="10">
         <v>0</v>
+      </c>
+      <c r="G21" s="10" t="s">
+        <v>285</v>
       </c>
       <c r="H21" s="10">
         <v>5</v>
@@ -4634,8 +4826,8 @@
       <c r="J21" s="10">
         <v>36</v>
       </c>
-      <c r="K21" s="13" t="s">
-        <v>250</v>
+      <c r="K21" s="10" t="b">
+        <v>0</v>
       </c>
       <c r="L21" s="13" t="s">
         <v>250</v>
@@ -4661,8 +4853,11 @@
       <c r="S21" s="13" t="s">
         <v>250</v>
       </c>
+      <c r="T21" s="13" t="s">
+        <v>250</v>
+      </c>
     </row>
-    <row r="22" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="13" t="s">
         <v>161</v>
       </c>
@@ -4672,8 +4867,17 @@
       <c r="C22" s="10">
         <v>4</v>
       </c>
+      <c r="D22" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>285</v>
+      </c>
       <c r="F22" s="10">
         <v>0</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>285</v>
       </c>
       <c r="H22" s="10">
         <v>1</v>
@@ -4684,8 +4888,8 @@
       <c r="J22" s="10">
         <v>31</v>
       </c>
-      <c r="K22" s="13" t="s">
-        <v>250</v>
+      <c r="K22" s="10" t="b">
+        <v>0</v>
       </c>
       <c r="L22" s="13" t="s">
         <v>250</v>
@@ -4711,8 +4915,11 @@
       <c r="S22" s="13" t="s">
         <v>250</v>
       </c>
+      <c r="T22" s="13" t="s">
+        <v>250</v>
+      </c>
     </row>
-    <row r="23" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="13" t="s">
         <v>162</v>
       </c>
@@ -4722,8 +4929,17 @@
       <c r="C23" s="10">
         <v>5</v>
       </c>
+      <c r="D23" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>285</v>
+      </c>
       <c r="F23" s="10">
         <v>0</v>
+      </c>
+      <c r="G23" s="10" t="s">
+        <v>285</v>
       </c>
       <c r="H23" s="10">
         <v>3</v>
@@ -4734,8 +4950,8 @@
       <c r="J23" s="10">
         <v>34</v>
       </c>
-      <c r="K23" s="13" t="s">
-        <v>141</v>
+      <c r="K23" s="10" t="b">
+        <v>0</v>
       </c>
       <c r="L23" s="13" t="s">
         <v>141</v>
@@ -4761,8 +4977,11 @@
       <c r="S23" s="13" t="s">
         <v>141</v>
       </c>
+      <c r="T23" s="13" t="s">
+        <v>141</v>
+      </c>
     </row>
-    <row r="24" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="s">
         <v>163</v>
       </c>
@@ -4778,14 +4997,23 @@
       <c r="E24" s="10">
         <v>843</v>
       </c>
+      <c r="F24" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="G24" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="H24" s="10" t="s">
+        <v>285</v>
+      </c>
       <c r="I24" s="10">
         <v>4</v>
       </c>
       <c r="J24" s="10">
         <v>23</v>
       </c>
-      <c r="K24" s="13" t="s">
-        <v>250</v>
+      <c r="K24" s="10" t="b">
+        <v>0</v>
       </c>
       <c r="L24" s="13" t="s">
         <v>250</v>
@@ -4811,8 +5039,11 @@
       <c r="S24" s="13" t="s">
         <v>250</v>
       </c>
+      <c r="T24" s="13" t="s">
+        <v>250</v>
+      </c>
     </row>
-    <row r="25" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="13" t="s">
         <v>164</v>
       </c>
@@ -4822,41 +5053,59 @@
       <c r="C25" s="10">
         <v>7</v>
       </c>
+      <c r="D25" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="F25" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="G25" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="H25" s="10" t="s">
+        <v>285</v>
+      </c>
       <c r="I25" s="10">
         <v>4</v>
       </c>
       <c r="J25" s="10">
         <v>822</v>
       </c>
-      <c r="K25" s="13" t="s">
-        <v>251</v>
+      <c r="K25" s="10" t="b">
+        <v>0</v>
       </c>
       <c r="L25" s="13" t="s">
         <v>251</v>
       </c>
       <c r="M25" s="13" t="s">
+        <v>251</v>
+      </c>
+      <c r="N25" s="13" t="s">
         <v>252</v>
       </c>
-      <c r="N25" s="13" t="s">
+      <c r="O25" s="13" t="s">
         <v>253</v>
       </c>
-      <c r="O25" s="13" t="s">
+      <c r="P25" s="13" t="s">
         <v>254</v>
       </c>
-      <c r="P25" s="13" t="s">
+      <c r="Q25" s="13" t="s">
         <v>255</v>
       </c>
-      <c r="Q25" s="13" t="s">
+      <c r="R25" s="13" t="s">
         <v>256</v>
       </c>
-      <c r="R25" s="13" t="s">
+      <c r="S25" s="13" t="s">
         <v>257</v>
       </c>
-      <c r="S25" s="13" t="s">
+      <c r="T25" s="13" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" s="13" t="s">
         <v>165</v>
       </c>
@@ -4875,14 +5124,17 @@
       <c r="G26" t="s">
         <v>260</v>
       </c>
+      <c r="H26" s="10" t="s">
+        <v>285</v>
+      </c>
       <c r="I26" s="10">
         <v>4</v>
       </c>
       <c r="J26" s="10">
         <v>27</v>
       </c>
-      <c r="K26" s="13" t="s">
-        <v>259</v>
+      <c r="K26" s="10" t="b">
+        <v>0</v>
       </c>
       <c r="L26" s="13" t="s">
         <v>259</v>
@@ -4908,8 +5160,11 @@
       <c r="S26" s="13" t="s">
         <v>259</v>
       </c>
+      <c r="T26" s="13" t="s">
+        <v>259</v>
+      </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" s="13" t="s">
         <v>166</v>
       </c>
@@ -4928,14 +5183,17 @@
       <c r="G27" t="s">
         <v>134</v>
       </c>
+      <c r="H27" s="10" t="s">
+        <v>285</v>
+      </c>
       <c r="I27" s="10">
         <v>4</v>
       </c>
       <c r="J27" s="10">
         <v>28</v>
       </c>
-      <c r="K27" s="13" t="s">
-        <v>261</v>
+      <c r="K27" s="10" t="b">
+        <v>0</v>
       </c>
       <c r="L27" s="13" t="s">
         <v>261</v>
@@ -4961,8 +5219,11 @@
       <c r="S27" s="13" t="s">
         <v>261</v>
       </c>
+      <c r="T27" s="13" t="s">
+        <v>261</v>
+      </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" s="13" t="s">
         <v>167</v>
       </c>
@@ -4978,14 +5239,23 @@
       <c r="E28">
         <v>802</v>
       </c>
+      <c r="F28" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="G28" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="H28" s="10" t="s">
+        <v>285</v>
+      </c>
       <c r="I28" s="10">
         <v>0</v>
       </c>
       <c r="J28" s="10">
         <v>21</v>
       </c>
-      <c r="K28" s="13" t="s">
-        <v>262</v>
+      <c r="K28" s="10" t="b">
+        <v>0</v>
       </c>
       <c r="L28" s="13" t="s">
         <v>262</v>
@@ -5011,8 +5281,11 @@
       <c r="S28" s="13" t="s">
         <v>262</v>
       </c>
+      <c r="T28" s="13" t="s">
+        <v>262</v>
+      </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" s="13" t="s">
         <v>168</v>
       </c>
@@ -5022,14 +5295,29 @@
       <c r="C29" s="10">
         <v>11</v>
       </c>
+      <c r="D29" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="E29" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="F29" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="G29" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="H29" s="10" t="s">
+        <v>285</v>
+      </c>
       <c r="I29" s="10">
         <v>0</v>
       </c>
       <c r="J29" s="10">
         <v>801</v>
       </c>
-      <c r="K29" s="13" t="s">
-        <v>141</v>
+      <c r="K29" s="10" t="b">
+        <v>0</v>
       </c>
       <c r="L29" s="13" t="s">
         <v>141</v>
@@ -5055,8 +5343,11 @@
       <c r="S29" s="13" t="s">
         <v>141</v>
       </c>
+      <c r="T29" s="13" t="s">
+        <v>141</v>
+      </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="13" t="s">
         <v>169</v>
       </c>
@@ -5066,14 +5357,29 @@
       <c r="C30" s="10">
         <v>12</v>
       </c>
+      <c r="D30" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="F30" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="G30" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="H30" s="10" t="s">
+        <v>285</v>
+      </c>
       <c r="I30" s="10">
         <v>0</v>
       </c>
       <c r="J30" s="10">
         <v>805</v>
       </c>
-      <c r="K30" s="13" t="s">
-        <v>250</v>
+      <c r="K30" s="10" t="b">
+        <v>0</v>
       </c>
       <c r="L30" s="13" t="s">
         <v>250</v>
@@ -5099,8 +5405,11 @@
       <c r="S30" s="13" t="s">
         <v>250</v>
       </c>
+      <c r="T30" s="13" t="s">
+        <v>250</v>
+      </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" s="13" t="s">
         <v>170</v>
       </c>
@@ -5110,14 +5419,29 @@
       <c r="C31" s="10">
         <v>13</v>
       </c>
+      <c r="D31" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="E31" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="F31" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="G31" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="H31" s="10" t="s">
+        <v>285</v>
+      </c>
       <c r="I31" s="10">
         <v>0</v>
       </c>
       <c r="J31" s="10">
         <v>873</v>
       </c>
-      <c r="K31" s="13" t="s">
-        <v>141</v>
+      <c r="K31" s="10" t="b">
+        <v>0</v>
       </c>
       <c r="L31" s="13" t="s">
         <v>141</v>
@@ -5143,8 +5467,11 @@
       <c r="S31" s="13" t="s">
         <v>141</v>
       </c>
+      <c r="T31" s="13" t="s">
+        <v>141</v>
+      </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" s="13" t="s">
         <v>171</v>
       </c>
@@ -5154,14 +5481,29 @@
       <c r="C32" s="10">
         <v>14</v>
       </c>
+      <c r="D32" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="E32" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="F32" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="G32" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="H32" s="10" t="s">
+        <v>285</v>
+      </c>
       <c r="I32" s="10">
         <v>4</v>
       </c>
       <c r="J32" s="10">
         <v>819</v>
       </c>
-      <c r="K32" s="13" t="s">
-        <v>263</v>
+      <c r="K32" s="10" t="b">
+        <v>0</v>
       </c>
       <c r="L32" s="13" t="s">
         <v>263</v>
@@ -5187,8 +5529,11 @@
       <c r="S32" s="13" t="s">
         <v>263</v>
       </c>
+      <c r="T32" s="13" t="s">
+        <v>263</v>
+      </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33" s="13" t="s">
         <v>172</v>
       </c>
@@ -5198,14 +5543,29 @@
       <c r="C33" s="10">
         <v>15</v>
       </c>
+      <c r="D33" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="E33" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="F33" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="G33" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="H33" s="10" t="s">
+        <v>285</v>
+      </c>
       <c r="I33" s="10">
         <v>0</v>
       </c>
       <c r="J33" s="10">
         <v>912</v>
       </c>
-      <c r="K33" s="13" t="s">
-        <v>141</v>
+      <c r="K33" s="10" t="b">
+        <v>0</v>
       </c>
       <c r="L33" s="13" t="s">
         <v>141</v>
@@ -5231,8 +5591,11 @@
       <c r="S33" s="13" t="s">
         <v>141</v>
       </c>
+      <c r="T33" s="13" t="s">
+        <v>141</v>
+      </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34" s="13" t="s">
         <v>173</v>
       </c>
@@ -5242,14 +5605,29 @@
       <c r="C34" s="10">
         <v>16</v>
       </c>
+      <c r="D34" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="E34" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="F34" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="G34" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="H34" s="10" t="s">
+        <v>285</v>
+      </c>
       <c r="I34" s="10">
         <v>0</v>
       </c>
       <c r="J34" s="10">
         <v>913</v>
       </c>
-      <c r="K34" s="13" t="s">
-        <v>141</v>
+      <c r="K34" s="10" t="b">
+        <v>0</v>
       </c>
       <c r="L34" s="13" t="s">
         <v>141</v>
@@ -5275,8 +5653,11 @@
       <c r="S34" s="13" t="s">
         <v>141</v>
       </c>
+      <c r="T34" s="13" t="s">
+        <v>141</v>
+      </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35" s="13" t="s">
         <v>174</v>
       </c>
@@ -5286,14 +5667,29 @@
       <c r="C35" s="10">
         <v>17</v>
       </c>
+      <c r="D35" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="E35" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="F35" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="G35" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="H35" s="10" t="s">
+        <v>285</v>
+      </c>
       <c r="I35" s="10">
         <v>0</v>
       </c>
       <c r="J35" s="10">
         <v>802</v>
       </c>
-      <c r="K35" s="13" t="s">
-        <v>141</v>
+      <c r="K35" s="10" t="b">
+        <v>0</v>
       </c>
       <c r="L35" s="13" t="s">
         <v>141</v>
@@ -5319,13 +5715,17 @@
       <c r="S35" s="13" t="s">
         <v>141</v>
       </c>
+      <c r="T35" s="13" t="s">
+        <v>141</v>
+      </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36" s="8" t="s">
         <v>20</v>
       </c>
+      <c r="K36" s="10"/>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37" s="13" t="s">
         <v>175</v>
       </c>
@@ -5335,14 +5735,29 @@
       <c r="C37">
         <v>1</v>
       </c>
+      <c r="D37" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="E37" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="F37" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="G37" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="H37" s="10" t="s">
+        <v>285</v>
+      </c>
       <c r="I37" s="10">
         <v>0</v>
       </c>
       <c r="J37" s="10">
         <v>822</v>
       </c>
-      <c r="K37" s="13" t="s">
-        <v>141</v>
+      <c r="K37" s="10" t="b">
+        <v>0</v>
       </c>
       <c r="L37" s="13" t="s">
         <v>141</v>
@@ -5368,8 +5783,11 @@
       <c r="S37" s="13" t="s">
         <v>141</v>
       </c>
+      <c r="T37" s="13" t="s">
+        <v>141</v>
+      </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38" s="13" t="s">
         <v>176</v>
       </c>
@@ -5379,14 +5797,29 @@
       <c r="C38">
         <v>2</v>
       </c>
+      <c r="D38" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="E38" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="F38" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="G38" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="H38" s="10" t="s">
+        <v>285</v>
+      </c>
       <c r="I38" s="10">
         <v>0</v>
       </c>
       <c r="J38" s="10">
         <v>823</v>
       </c>
-      <c r="K38" s="13" t="s">
-        <v>141</v>
+      <c r="K38" s="10" t="b">
+        <v>0</v>
       </c>
       <c r="L38" s="13" t="s">
         <v>141</v>
@@ -5412,8 +5845,11 @@
       <c r="S38" s="13" t="s">
         <v>141</v>
       </c>
+      <c r="T38" s="13" t="s">
+        <v>141</v>
+      </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39" s="13" t="s">
         <v>177</v>
       </c>
@@ -5423,14 +5859,29 @@
       <c r="C39">
         <v>3</v>
       </c>
+      <c r="D39" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="E39" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="F39" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="G39" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="H39" s="10" t="s">
+        <v>285</v>
+      </c>
       <c r="I39" s="10">
         <v>0</v>
       </c>
       <c r="J39" s="10">
         <v>831</v>
       </c>
-      <c r="K39" s="13" t="s">
-        <v>141</v>
+      <c r="K39" s="10" t="b">
+        <v>0</v>
       </c>
       <c r="L39" s="13" t="s">
         <v>141</v>
@@ -5456,8 +5907,11 @@
       <c r="S39" s="13" t="s">
         <v>141</v>
       </c>
+      <c r="T39" s="13" t="s">
+        <v>141</v>
+      </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40" s="13" t="s">
         <v>179</v>
       </c>
@@ -5467,14 +5921,29 @@
       <c r="C40">
         <v>4</v>
       </c>
+      <c r="D40" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="E40" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="F40" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="G40" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="H40" s="10" t="s">
+        <v>285</v>
+      </c>
       <c r="I40" s="10">
         <v>0</v>
       </c>
       <c r="J40" s="10">
         <v>830</v>
       </c>
-      <c r="K40" s="13" t="s">
-        <v>141</v>
+      <c r="K40" s="10" t="b">
+        <v>0</v>
       </c>
       <c r="L40" s="13" t="s">
         <v>141</v>
@@ -5500,8 +5969,11 @@
       <c r="S40" s="13" t="s">
         <v>141</v>
       </c>
+      <c r="T40" s="13" t="s">
+        <v>141</v>
+      </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A41" s="13" t="s">
         <v>178</v>
       </c>
@@ -5511,14 +5983,29 @@
       <c r="C41">
         <v>5</v>
       </c>
+      <c r="D41" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="E41" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="F41" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="G41" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="H41" s="10" t="s">
+        <v>285</v>
+      </c>
       <c r="I41" s="10">
         <v>0</v>
       </c>
       <c r="J41" s="10">
         <v>821</v>
       </c>
-      <c r="K41" s="13" t="s">
-        <v>141</v>
+      <c r="K41" s="10" t="b">
+        <v>0</v>
       </c>
       <c r="L41" s="13" t="s">
         <v>141</v>
@@ -5544,8 +6031,11 @@
       <c r="S41" s="13" t="s">
         <v>141</v>
       </c>
+      <c r="T41" s="13" t="s">
+        <v>141</v>
+      </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A42" s="13" t="s">
         <v>180</v>
       </c>
@@ -5555,14 +6045,29 @@
       <c r="C42">
         <v>6</v>
       </c>
+      <c r="D42" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="E42" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="F42" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="G42" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="H42" s="10" t="s">
+        <v>285</v>
+      </c>
       <c r="I42" s="10">
         <v>4</v>
       </c>
       <c r="J42" s="10">
         <v>801</v>
       </c>
-      <c r="K42" s="13" t="s">
-        <v>264</v>
+      <c r="K42" s="10" t="b">
+        <v>0</v>
       </c>
       <c r="L42" s="13" t="s">
         <v>264</v>
@@ -5588,8 +6093,11 @@
       <c r="S42" s="13" t="s">
         <v>264</v>
       </c>
+      <c r="T42" s="13" t="s">
+        <v>264</v>
+      </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A43" s="13" t="s">
         <v>181</v>
       </c>
@@ -5599,14 +6107,29 @@
       <c r="C43">
         <v>7</v>
       </c>
+      <c r="D43" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="E43" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="F43" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="G43" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="H43" s="10" t="s">
+        <v>285</v>
+      </c>
       <c r="I43" s="10">
         <v>0</v>
       </c>
       <c r="J43" s="10">
         <v>825</v>
       </c>
-      <c r="K43" s="13" t="s">
-        <v>141</v>
+      <c r="K43" s="10" t="b">
+        <v>0</v>
       </c>
       <c r="L43" s="13" t="s">
         <v>141</v>
@@ -5632,8 +6155,11 @@
       <c r="S43" s="13" t="s">
         <v>141</v>
       </c>
+      <c r="T43" s="13" t="s">
+        <v>141</v>
+      </c>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A44" s="13" t="s">
         <v>182</v>
       </c>
@@ -5643,14 +6169,29 @@
       <c r="C44">
         <v>8</v>
       </c>
+      <c r="D44" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="E44" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="F44" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="G44" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="H44" s="10" t="s">
+        <v>285</v>
+      </c>
       <c r="I44" s="10">
         <v>0</v>
       </c>
       <c r="J44" s="10">
         <v>804</v>
       </c>
-      <c r="K44" s="13" t="s">
-        <v>141</v>
+      <c r="K44" s="10" t="b">
+        <v>0</v>
       </c>
       <c r="L44" s="13" t="s">
         <v>141</v>
@@ -5676,8 +6217,11 @@
       <c r="S44" s="13" t="s">
         <v>141</v>
       </c>
+      <c r="T44" s="13" t="s">
+        <v>141</v>
+      </c>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A45" s="13" t="s">
         <v>183</v>
       </c>
@@ -5687,14 +6231,29 @@
       <c r="C45">
         <v>9</v>
       </c>
+      <c r="D45" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="E45" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="F45" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="G45" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="H45" s="10" t="s">
+        <v>285</v>
+      </c>
       <c r="I45" s="10">
         <v>0</v>
       </c>
       <c r="J45" s="10">
         <v>811</v>
       </c>
-      <c r="K45" s="13" t="s">
-        <v>141</v>
+      <c r="K45" s="10" t="b">
+        <v>0</v>
       </c>
       <c r="L45" s="13" t="s">
         <v>141</v>
@@ -5720,8 +6279,11 @@
       <c r="S45" s="13" t="s">
         <v>141</v>
       </c>
+      <c r="T45" s="13" t="s">
+        <v>141</v>
+      </c>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A46" s="13" t="s">
         <v>184</v>
       </c>
@@ -5731,14 +6293,29 @@
       <c r="C46">
         <v>10</v>
       </c>
+      <c r="D46" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="E46" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="F46" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="G46" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="H46" s="10" t="s">
+        <v>285</v>
+      </c>
       <c r="I46" s="10">
         <v>0</v>
       </c>
       <c r="J46" s="10">
         <v>812</v>
       </c>
-      <c r="K46" s="13" t="s">
-        <v>141</v>
+      <c r="K46" s="10" t="b">
+        <v>0</v>
       </c>
       <c r="L46" s="13" t="s">
         <v>141</v>
@@ -5764,8 +6341,11 @@
       <c r="S46" s="13" t="s">
         <v>141</v>
       </c>
+      <c r="T46" s="13" t="s">
+        <v>141</v>
+      </c>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A47" s="13" t="s">
         <v>185</v>
       </c>
@@ -5775,14 +6355,29 @@
       <c r="C47">
         <v>11</v>
       </c>
+      <c r="D47" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="E47" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="F47" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="G47" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="H47" s="10" t="s">
+        <v>285</v>
+      </c>
       <c r="I47" s="10">
         <v>0</v>
       </c>
       <c r="J47" s="10">
         <v>813</v>
       </c>
-      <c r="K47" s="13" t="s">
-        <v>141</v>
+      <c r="K47" s="10" t="b">
+        <v>0</v>
       </c>
       <c r="L47" s="13" t="s">
         <v>141</v>
@@ -5808,8 +6403,11 @@
       <c r="S47" s="13" t="s">
         <v>141</v>
       </c>
+      <c r="T47" s="13" t="s">
+        <v>141</v>
+      </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A48" s="13" t="s">
         <v>186</v>
       </c>
@@ -5819,14 +6417,29 @@
       <c r="C48">
         <v>12</v>
       </c>
+      <c r="D48" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="E48" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="F48" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="G48" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="H48" s="10" t="s">
+        <v>285</v>
+      </c>
       <c r="I48" s="10">
         <v>0</v>
       </c>
       <c r="J48" s="10">
         <v>814</v>
       </c>
-      <c r="K48" s="13" t="s">
-        <v>141</v>
+      <c r="K48" s="10" t="b">
+        <v>0</v>
       </c>
       <c r="L48" s="13" t="s">
         <v>141</v>
@@ -5852,8 +6465,11 @@
       <c r="S48" s="13" t="s">
         <v>141</v>
       </c>
+      <c r="T48" s="13" t="s">
+        <v>141</v>
+      </c>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A49" s="13" t="s">
         <v>187</v>
       </c>
@@ -5863,14 +6479,29 @@
       <c r="C49">
         <v>13</v>
       </c>
+      <c r="D49" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="E49" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="F49" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="G49" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="H49" s="10" t="s">
+        <v>285</v>
+      </c>
       <c r="I49" s="10">
         <v>0</v>
       </c>
       <c r="J49" s="10">
         <v>815</v>
       </c>
-      <c r="K49" s="13" t="s">
-        <v>141</v>
+      <c r="K49" s="10" t="b">
+        <v>0</v>
       </c>
       <c r="L49" s="13" t="s">
         <v>141</v>
@@ -5896,8 +6527,11 @@
       <c r="S49" s="13" t="s">
         <v>141</v>
       </c>
+      <c r="T49" s="13" t="s">
+        <v>141</v>
+      </c>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A50" s="13" t="s">
         <v>188</v>
       </c>
@@ -5907,14 +6541,29 @@
       <c r="C50">
         <v>14</v>
       </c>
+      <c r="D50" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="E50" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="F50" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="G50" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="H50" s="10" t="s">
+        <v>285</v>
+      </c>
       <c r="I50" s="10">
         <v>0</v>
       </c>
       <c r="J50" s="10">
         <v>816</v>
       </c>
-      <c r="K50" s="13" t="s">
-        <v>141</v>
+      <c r="K50" s="10" t="b">
+        <v>0</v>
       </c>
       <c r="L50" s="13" t="s">
         <v>141</v>
@@ -5940,8 +6589,11 @@
       <c r="S50" s="13" t="s">
         <v>141</v>
       </c>
+      <c r="T50" s="13" t="s">
+        <v>141</v>
+      </c>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A51" s="13" t="s">
         <v>189</v>
       </c>
@@ -5951,14 +6603,29 @@
       <c r="C51">
         <v>15</v>
       </c>
+      <c r="D51" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="E51" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="F51" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="G51" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="H51" s="10" t="s">
+        <v>285</v>
+      </c>
       <c r="I51" s="10">
         <v>0</v>
       </c>
       <c r="J51" s="10">
         <v>817</v>
       </c>
-      <c r="K51" s="13" t="s">
-        <v>141</v>
+      <c r="K51" s="10" t="b">
+        <v>0</v>
       </c>
       <c r="L51" s="13" t="s">
         <v>141</v>
@@ -5984,8 +6651,11 @@
       <c r="S51" s="13" t="s">
         <v>141</v>
       </c>
+      <c r="T51" s="13" t="s">
+        <v>141</v>
+      </c>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A52" s="13" t="s">
         <v>190</v>
       </c>
@@ -5995,14 +6665,29 @@
       <c r="C52">
         <v>16</v>
       </c>
+      <c r="D52" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="E52" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="F52" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="G52" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="H52" s="10" t="s">
+        <v>285</v>
+      </c>
       <c r="I52" s="10">
         <v>0</v>
       </c>
       <c r="J52" s="10">
         <v>818</v>
       </c>
-      <c r="K52" s="13" t="s">
-        <v>141</v>
+      <c r="K52" s="10" t="b">
+        <v>0</v>
       </c>
       <c r="L52" s="13" t="s">
         <v>141</v>
@@ -6028,8 +6713,11 @@
       <c r="S52" s="13" t="s">
         <v>141</v>
       </c>
+      <c r="T52" s="13" t="s">
+        <v>141</v>
+      </c>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A53" s="13" t="s">
         <v>191</v>
       </c>
@@ -6039,14 +6727,29 @@
       <c r="C53">
         <v>17</v>
       </c>
+      <c r="D53" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="E53" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="F53" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="G53" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="H53" s="10" t="s">
+        <v>285</v>
+      </c>
       <c r="I53" s="10">
         <v>0</v>
       </c>
       <c r="J53" s="10">
         <v>803</v>
       </c>
-      <c r="K53" s="13" t="s">
-        <v>141</v>
+      <c r="K53" s="10" t="b">
+        <v>0</v>
       </c>
       <c r="L53" s="13" t="s">
         <v>141</v>
@@ -6072,8 +6775,11 @@
       <c r="S53" s="13" t="s">
         <v>141</v>
       </c>
+      <c r="T53" s="13" t="s">
+        <v>141</v>
+      </c>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A54" s="13" t="s">
         <v>192</v>
       </c>
@@ -6083,14 +6789,29 @@
       <c r="C54">
         <v>18</v>
       </c>
+      <c r="D54" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="E54" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="F54" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="G54" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="H54" s="10" t="s">
+        <v>285</v>
+      </c>
       <c r="I54" s="10">
         <v>4</v>
       </c>
       <c r="J54" s="10">
         <v>804</v>
       </c>
-      <c r="K54" s="13" t="s">
-        <v>265</v>
+      <c r="K54" s="10" t="b">
+        <v>0</v>
       </c>
       <c r="L54" s="13" t="s">
         <v>265</v>
@@ -6116,8 +6837,11 @@
       <c r="S54" s="13" t="s">
         <v>265</v>
       </c>
+      <c r="T54" s="13" t="s">
+        <v>265</v>
+      </c>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A55" s="13" t="s">
         <v>193</v>
       </c>
@@ -6127,14 +6851,29 @@
       <c r="C55">
         <v>19</v>
       </c>
+      <c r="D55" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="E55" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="F55" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="G55" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="H55" s="10" t="s">
+        <v>285</v>
+      </c>
       <c r="I55" s="10">
         <v>0</v>
       </c>
       <c r="J55" s="10">
         <v>847</v>
       </c>
-      <c r="K55" s="13" t="s">
-        <v>141</v>
+      <c r="K55" s="10" t="b">
+        <v>0</v>
       </c>
       <c r="L55" s="13" t="s">
         <v>141</v>
@@ -6160,8 +6899,11 @@
       <c r="S55" s="13" t="s">
         <v>141</v>
       </c>
+      <c r="T55" s="13" t="s">
+        <v>141</v>
+      </c>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A56" s="13" t="s">
         <v>194</v>
       </c>
@@ -6171,14 +6913,29 @@
       <c r="C56">
         <v>20</v>
       </c>
+      <c r="D56" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="E56" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="F56" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="G56" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="H56" s="10" t="s">
+        <v>285</v>
+      </c>
       <c r="I56" s="10">
         <v>0</v>
       </c>
       <c r="J56" s="10">
         <v>841</v>
       </c>
-      <c r="K56" s="13" t="s">
-        <v>266</v>
+      <c r="K56" s="10" t="b">
+        <v>0</v>
       </c>
       <c r="L56" s="13" t="s">
         <v>266</v>
@@ -6204,8 +6961,11 @@
       <c r="S56" s="13" t="s">
         <v>266</v>
       </c>
+      <c r="T56" s="13" t="s">
+        <v>266</v>
+      </c>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A57" s="13" t="s">
         <v>195</v>
       </c>
@@ -6215,14 +6975,29 @@
       <c r="C57">
         <v>21</v>
       </c>
+      <c r="D57" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="E57" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="F57" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="G57" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="H57" s="10" t="s">
+        <v>285</v>
+      </c>
       <c r="I57" s="10">
         <v>0</v>
       </c>
       <c r="J57" s="10">
         <v>843</v>
       </c>
-      <c r="K57" s="13" t="s">
-        <v>141</v>
+      <c r="K57" s="10" t="b">
+        <v>0</v>
       </c>
       <c r="L57" s="13" t="s">
         <v>141</v>
@@ -6248,8 +7023,11 @@
       <c r="S57" s="13" t="s">
         <v>141</v>
       </c>
+      <c r="T57" s="13" t="s">
+        <v>141</v>
+      </c>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A58" s="13" t="s">
         <v>196</v>
       </c>
@@ -6259,14 +7037,29 @@
       <c r="C58">
         <v>22</v>
       </c>
+      <c r="D58" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="E58" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="F58" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="G58" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="H58" s="10" t="s">
+        <v>285</v>
+      </c>
       <c r="I58" s="10">
         <v>0</v>
       </c>
       <c r="J58" s="10">
         <v>842</v>
       </c>
-      <c r="K58" s="13" t="s">
-        <v>141</v>
+      <c r="K58" s="10" t="b">
+        <v>0</v>
       </c>
       <c r="L58" s="13" t="s">
         <v>141</v>
@@ -6292,8 +7085,11 @@
       <c r="S58" s="13" t="s">
         <v>141</v>
       </c>
+      <c r="T58" s="13" t="s">
+        <v>141</v>
+      </c>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A59" s="13" t="s">
         <v>197</v>
       </c>
@@ -6303,14 +7099,29 @@
       <c r="C59">
         <v>23</v>
       </c>
+      <c r="D59" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="E59" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="F59" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="G59" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="H59" s="10" t="s">
+        <v>285</v>
+      </c>
       <c r="I59" s="10">
         <v>0</v>
       </c>
       <c r="J59" s="10">
         <v>846</v>
       </c>
-      <c r="K59" s="13" t="s">
-        <v>141</v>
+      <c r="K59" s="10" t="b">
+        <v>0</v>
       </c>
       <c r="L59" s="13" t="s">
         <v>141</v>
@@ -6336,8 +7147,11 @@
       <c r="S59" s="13" t="s">
         <v>141</v>
       </c>
+      <c r="T59" s="13" t="s">
+        <v>141</v>
+      </c>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A60" s="13" t="s">
         <v>198</v>
       </c>
@@ -6347,14 +7161,29 @@
       <c r="C60">
         <v>24</v>
       </c>
+      <c r="D60" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="E60" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="F60" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="G60" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="H60" s="10" t="s">
+        <v>285</v>
+      </c>
       <c r="I60" s="10">
         <v>0</v>
       </c>
       <c r="J60" s="10">
         <v>844</v>
       </c>
-      <c r="K60" s="13" t="s">
-        <v>141</v>
+      <c r="K60" s="10" t="b">
+        <v>0</v>
       </c>
       <c r="L60" s="13" t="s">
         <v>141</v>
@@ -6380,8 +7209,11 @@
       <c r="S60" s="13" t="s">
         <v>141</v>
       </c>
+      <c r="T60" s="13" t="s">
+        <v>141</v>
+      </c>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A61" s="13" t="s">
         <v>199</v>
       </c>
@@ -6391,14 +7223,29 @@
       <c r="C61">
         <v>25</v>
       </c>
+      <c r="D61" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="E61" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="F61" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="G61" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="H61" s="10" t="s">
+        <v>285</v>
+      </c>
       <c r="I61" s="10">
         <v>0</v>
       </c>
       <c r="J61" s="10">
         <v>845</v>
       </c>
-      <c r="K61" s="13" t="s">
-        <v>141</v>
+      <c r="K61" s="10" t="b">
+        <v>0</v>
       </c>
       <c r="L61" s="13" t="s">
         <v>141</v>
@@ -6424,8 +7271,11 @@
       <c r="S61" s="13" t="s">
         <v>141</v>
       </c>
+      <c r="T61" s="13" t="s">
+        <v>141</v>
+      </c>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A62" s="13" t="s">
         <v>200</v>
       </c>
@@ -6435,14 +7285,29 @@
       <c r="C62">
         <v>26</v>
       </c>
+      <c r="D62" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="E62" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="F62" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="G62" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="H62" s="10" t="s">
+        <v>285</v>
+      </c>
       <c r="I62" s="10">
         <v>0</v>
       </c>
       <c r="J62" s="10">
         <v>848</v>
       </c>
-      <c r="K62" s="13" t="s">
-        <v>141</v>
+      <c r="K62" s="10" t="b">
+        <v>0</v>
       </c>
       <c r="L62" s="13" t="s">
         <v>141</v>
@@ -6468,8 +7333,11 @@
       <c r="S62" s="13" t="s">
         <v>141</v>
       </c>
+      <c r="T62" s="13" t="s">
+        <v>141</v>
+      </c>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A63" s="13" t="s">
         <v>201</v>
       </c>
@@ -6479,14 +7347,29 @@
       <c r="C63">
         <v>27</v>
       </c>
+      <c r="D63" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="E63" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="F63" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="G63" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="H63" s="10" t="s">
+        <v>285</v>
+      </c>
       <c r="I63" s="10">
         <v>0</v>
       </c>
       <c r="J63" s="10">
         <v>849</v>
       </c>
-      <c r="K63" s="13" t="s">
-        <v>141</v>
+      <c r="K63" s="10" t="b">
+        <v>0</v>
       </c>
       <c r="L63" s="13" t="s">
         <v>141</v>
@@ -6512,8 +7395,11 @@
       <c r="S63" s="13" t="s">
         <v>141</v>
       </c>
+      <c r="T63" s="13" t="s">
+        <v>141</v>
+      </c>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A64" s="13" t="s">
         <v>202</v>
       </c>
@@ -6523,14 +7409,29 @@
       <c r="C64">
         <v>28</v>
       </c>
+      <c r="D64" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="E64" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="F64" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="G64" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="H64" s="10" t="s">
+        <v>285</v>
+      </c>
       <c r="I64" s="10">
         <v>4</v>
       </c>
       <c r="J64" s="10">
         <v>803</v>
       </c>
-      <c r="K64" s="13" t="s">
-        <v>265</v>
+      <c r="K64" s="10" t="b">
+        <v>0</v>
       </c>
       <c r="L64" s="13" t="s">
         <v>265</v>
@@ -6556,8 +7457,11 @@
       <c r="S64" s="13" t="s">
         <v>265</v>
       </c>
+      <c r="T64" s="13" t="s">
+        <v>265</v>
+      </c>
     </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A65" s="13" t="s">
         <v>203</v>
       </c>
@@ -6567,14 +7471,29 @@
       <c r="C65">
         <v>29</v>
       </c>
+      <c r="D65" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="E65" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="F65" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="G65" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="H65" s="10" t="s">
+        <v>285</v>
+      </c>
       <c r="I65" s="10">
         <v>0</v>
       </c>
       <c r="J65" s="10">
         <v>911</v>
       </c>
-      <c r="K65" s="13" t="s">
-        <v>141</v>
+      <c r="K65" s="10" t="b">
+        <v>0</v>
       </c>
       <c r="L65" s="13" t="s">
         <v>141</v>
@@ -6600,8 +7519,11 @@
       <c r="S65" s="13" t="s">
         <v>141</v>
       </c>
+      <c r="T65" s="13" t="s">
+        <v>141</v>
+      </c>
     </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A66" s="13" t="s">
         <v>204</v>
       </c>
@@ -6611,14 +7533,29 @@
       <c r="C66">
         <v>30</v>
       </c>
+      <c r="D66" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="E66" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="F66" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="G66" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="H66" s="10" t="s">
+        <v>285</v>
+      </c>
       <c r="I66" s="10">
         <v>0</v>
       </c>
       <c r="J66" s="10">
         <v>861</v>
       </c>
-      <c r="K66" s="13" t="s">
-        <v>141</v>
+      <c r="K66" s="10" t="b">
+        <v>0</v>
       </c>
       <c r="L66" s="13" t="s">
         <v>141</v>
@@ -6644,8 +7581,11 @@
       <c r="S66" s="13" t="s">
         <v>141</v>
       </c>
+      <c r="T66" s="13" t="s">
+        <v>141</v>
+      </c>
     </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A67" s="13" t="s">
         <v>205</v>
       </c>
@@ -6655,14 +7595,29 @@
       <c r="C67">
         <v>31</v>
       </c>
+      <c r="D67" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="E67" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="F67" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="G67" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="H67" s="10" t="s">
+        <v>285</v>
+      </c>
       <c r="I67" s="10">
         <v>0</v>
       </c>
       <c r="J67" s="10">
         <v>862</v>
       </c>
-      <c r="K67" s="13" t="s">
-        <v>141</v>
+      <c r="K67" s="10" t="b">
+        <v>0</v>
       </c>
       <c r="L67" s="13" t="s">
         <v>141</v>
@@ -6688,8 +7643,11 @@
       <c r="S67" s="13" t="s">
         <v>141</v>
       </c>
+      <c r="T67" s="13" t="s">
+        <v>141</v>
+      </c>
     </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A68" s="13" t="s">
         <v>206</v>
       </c>
@@ -6699,14 +7657,29 @@
       <c r="C68">
         <v>32</v>
       </c>
+      <c r="D68" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="E68" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="F68" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="G68" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="H68" s="10" t="s">
+        <v>285</v>
+      </c>
       <c r="I68" s="10">
         <v>0</v>
       </c>
       <c r="J68" s="10">
         <v>863</v>
       </c>
-      <c r="K68" s="13" t="s">
-        <v>141</v>
+      <c r="K68" s="10" t="b">
+        <v>0</v>
       </c>
       <c r="L68" s="13" t="s">
         <v>141</v>
@@ -6732,8 +7705,11 @@
       <c r="S68" s="13" t="s">
         <v>141</v>
       </c>
+      <c r="T68" s="13" t="s">
+        <v>141</v>
+      </c>
     </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A69" s="13" t="s">
         <v>207</v>
       </c>
@@ -6743,14 +7719,29 @@
       <c r="C69">
         <v>33</v>
       </c>
+      <c r="D69" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="E69" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="F69" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="G69" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="H69" s="10" t="s">
+        <v>285</v>
+      </c>
       <c r="I69" s="10">
         <v>0</v>
       </c>
       <c r="J69" s="10">
         <v>893</v>
       </c>
-      <c r="K69" s="13" t="s">
-        <v>141</v>
+      <c r="K69" s="10" t="b">
+        <v>0</v>
       </c>
       <c r="L69" s="13" t="s">
         <v>141</v>
@@ -6776,8 +7767,11 @@
       <c r="S69" s="13" t="s">
         <v>141</v>
       </c>
+      <c r="T69" s="13" t="s">
+        <v>141</v>
+      </c>
     </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A70" s="13" t="s">
         <v>208</v>
       </c>
@@ -6787,14 +7781,29 @@
       <c r="C70">
         <v>34</v>
       </c>
+      <c r="D70" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="E70" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="F70" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="G70" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="H70" s="10" t="s">
+        <v>285</v>
+      </c>
       <c r="I70" s="10">
         <v>0</v>
       </c>
       <c r="J70" s="10">
         <v>894</v>
       </c>
-      <c r="K70" s="13" t="s">
-        <v>141</v>
+      <c r="K70" s="10" t="b">
+        <v>0</v>
       </c>
       <c r="L70" s="13" t="s">
         <v>141</v>
@@ -6820,8 +7829,11 @@
       <c r="S70" s="13" t="s">
         <v>141</v>
       </c>
+      <c r="T70" s="13" t="s">
+        <v>141</v>
+      </c>
     </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A71" s="13" t="s">
         <v>209</v>
       </c>
@@ -6831,14 +7843,29 @@
       <c r="C71">
         <v>35</v>
       </c>
+      <c r="D71" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="E71" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="F71" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="G71" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="H71" s="10" t="s">
+        <v>285</v>
+      </c>
       <c r="I71" s="10">
         <v>0</v>
       </c>
       <c r="J71" s="10">
         <v>824</v>
       </c>
-      <c r="K71" s="13" t="s">
-        <v>141</v>
+      <c r="K71" s="10" t="b">
+        <v>0</v>
       </c>
       <c r="L71" s="13" t="s">
         <v>141</v>
@@ -6864,8 +7891,11 @@
       <c r="S71" s="13" t="s">
         <v>141</v>
       </c>
+      <c r="T71" s="13" t="s">
+        <v>141</v>
+      </c>
     </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A72" s="13" t="s">
         <v>210</v>
       </c>
@@ -6875,14 +7905,29 @@
       <c r="C72">
         <v>36</v>
       </c>
+      <c r="D72" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="E72" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="F72" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="G72" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="H72" s="10" t="s">
+        <v>285</v>
+      </c>
       <c r="I72" s="10">
         <v>0</v>
       </c>
       <c r="J72" s="10">
         <v>885</v>
       </c>
-      <c r="K72" s="13" t="s">
-        <v>141</v>
+      <c r="K72" s="10" t="b">
+        <v>0</v>
       </c>
       <c r="L72" s="13" t="s">
         <v>141</v>
@@ -6908,13 +7953,22 @@
       <c r="S72" s="13" t="s">
         <v>141</v>
       </c>
+      <c r="T72" s="13" t="s">
+        <v>141</v>
+      </c>
     </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A73" s="11" t="s">
         <v>21</v>
       </c>
+      <c r="D73" s="10"/>
+      <c r="E73" s="10"/>
+      <c r="F73" s="10"/>
+      <c r="G73" s="10"/>
+      <c r="H73" s="10"/>
+      <c r="K73" s="10"/>
     </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A74" s="13" t="s">
         <v>211</v>
       </c>
@@ -6924,14 +7978,29 @@
       <c r="C74">
         <v>1</v>
       </c>
+      <c r="D74" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="E74" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="F74" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="G74" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="H74" s="10" t="s">
+        <v>285</v>
+      </c>
       <c r="I74">
         <v>4</v>
       </c>
       <c r="J74">
         <v>805</v>
       </c>
-      <c r="K74" s="13" t="s">
-        <v>267</v>
+      <c r="K74" s="10" t="b">
+        <v>0</v>
       </c>
       <c r="L74" s="13" t="s">
         <v>267</v>
@@ -6957,8 +8026,11 @@
       <c r="S74" s="13" t="s">
         <v>267</v>
       </c>
+      <c r="T74" s="13" t="s">
+        <v>267</v>
+      </c>
     </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A75" s="13" t="s">
         <v>170</v>
       </c>
@@ -6968,14 +8040,29 @@
       <c r="C75">
         <v>2</v>
       </c>
+      <c r="D75" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="E75" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="F75" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="G75" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="H75" s="10" t="s">
+        <v>285</v>
+      </c>
       <c r="I75">
         <v>0</v>
       </c>
       <c r="J75">
         <v>873</v>
       </c>
-      <c r="K75" s="13" t="s">
-        <v>141</v>
+      <c r="K75" s="10" t="b">
+        <v>0</v>
       </c>
       <c r="L75" s="13" t="s">
         <v>141</v>
@@ -7001,8 +8088,11 @@
       <c r="S75" s="13" t="s">
         <v>141</v>
       </c>
+      <c r="T75" s="13" t="s">
+        <v>141</v>
+      </c>
     </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A76" s="13" t="s">
         <v>212</v>
       </c>
@@ -7012,14 +8102,29 @@
       <c r="C76">
         <v>3</v>
       </c>
+      <c r="D76" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="E76" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="F76" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="G76" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="H76" s="10" t="s">
+        <v>285</v>
+      </c>
       <c r="I76">
         <v>0</v>
       </c>
       <c r="J76">
         <v>874</v>
       </c>
-      <c r="K76" s="13" t="s">
-        <v>141</v>
+      <c r="K76" s="10" t="b">
+        <v>0</v>
       </c>
       <c r="L76" s="13" t="s">
         <v>141</v>
@@ -7045,8 +8150,11 @@
       <c r="S76" s="13" t="s">
         <v>141</v>
       </c>
+      <c r="T76" s="13" t="s">
+        <v>141</v>
+      </c>
     </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A77" s="13" t="s">
         <v>213</v>
       </c>
@@ -7056,14 +8164,29 @@
       <c r="C77">
         <v>4</v>
       </c>
+      <c r="D77" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="E77" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="F77" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="G77" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="H77" s="10" t="s">
+        <v>285</v>
+      </c>
       <c r="I77">
         <v>0</v>
       </c>
       <c r="J77">
         <v>871</v>
       </c>
-      <c r="K77" s="13" t="s">
-        <v>141</v>
+      <c r="K77" s="10" t="b">
+        <v>0</v>
       </c>
       <c r="L77" s="13" t="s">
         <v>141</v>
@@ -7089,8 +8212,11 @@
       <c r="S77" s="13" t="s">
         <v>141</v>
       </c>
+      <c r="T77" s="13" t="s">
+        <v>141</v>
+      </c>
     </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A78" s="13" t="s">
         <v>215</v>
       </c>
@@ -7100,14 +8226,29 @@
       <c r="C78">
         <v>5</v>
       </c>
+      <c r="D78" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="E78" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="F78" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="G78" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="H78" s="10" t="s">
+        <v>285</v>
+      </c>
       <c r="I78">
         <v>4</v>
       </c>
       <c r="J78">
         <v>806</v>
       </c>
-      <c r="K78" s="13" t="s">
-        <v>268</v>
+      <c r="K78" s="10" t="b">
+        <v>0</v>
       </c>
       <c r="L78" s="13" t="s">
         <v>268</v>
@@ -7133,8 +8274,11 @@
       <c r="S78" s="13" t="s">
         <v>268</v>
       </c>
+      <c r="T78" s="13" t="s">
+        <v>268</v>
+      </c>
     </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A79" s="13" t="s">
         <v>214</v>
       </c>
@@ -7144,14 +8288,29 @@
       <c r="C79">
         <v>6</v>
       </c>
+      <c r="D79" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="E79" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="F79" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="G79" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="H79" s="10" t="s">
+        <v>285</v>
+      </c>
       <c r="I79">
         <v>4</v>
       </c>
       <c r="J79">
         <v>807</v>
       </c>
-      <c r="K79" s="13" t="s">
-        <v>269</v>
+      <c r="K79" s="10" t="b">
+        <v>0</v>
       </c>
       <c r="L79" s="13" t="s">
         <v>269</v>
@@ -7177,8 +8336,11 @@
       <c r="S79" s="13" t="s">
         <v>269</v>
       </c>
+      <c r="T79" s="13" t="s">
+        <v>269</v>
+      </c>
     </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A80" s="13" t="s">
         <v>216</v>
       </c>
@@ -7188,14 +8350,29 @@
       <c r="C80">
         <v>7</v>
       </c>
+      <c r="D80" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="E80" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="F80" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="G80" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="H80" s="10" t="s">
+        <v>285</v>
+      </c>
       <c r="I80">
         <v>0</v>
       </c>
       <c r="J80">
         <v>872</v>
       </c>
-      <c r="K80" s="13" t="s">
-        <v>141</v>
+      <c r="K80" s="10" t="b">
+        <v>0</v>
       </c>
       <c r="L80" s="13" t="s">
         <v>141</v>
@@ -7221,8 +8398,11 @@
       <c r="S80" s="13" t="s">
         <v>141</v>
       </c>
+      <c r="T80" s="13" t="s">
+        <v>141</v>
+      </c>
     </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A81" s="13" t="s">
         <v>217</v>
       </c>
@@ -7232,14 +8412,29 @@
       <c r="C81">
         <v>8</v>
       </c>
+      <c r="D81" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="E81" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="F81" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="G81" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="H81" s="10" t="s">
+        <v>285</v>
+      </c>
       <c r="I81">
         <v>4</v>
       </c>
       <c r="J81">
         <v>808</v>
       </c>
-      <c r="K81" s="13" t="s">
-        <v>270</v>
+      <c r="K81" s="10" t="b">
+        <v>0</v>
       </c>
       <c r="L81" s="13" t="s">
         <v>270</v>
@@ -7265,8 +8460,11 @@
       <c r="S81" s="13" t="s">
         <v>270</v>
       </c>
+      <c r="T81" s="13" t="s">
+        <v>270</v>
+      </c>
     </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A82" s="13" t="s">
         <v>218</v>
       </c>
@@ -7276,14 +8474,29 @@
       <c r="C82">
         <v>9</v>
       </c>
+      <c r="D82" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="E82" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="F82" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="G82" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="H82" s="10" t="s">
+        <v>285</v>
+      </c>
       <c r="I82">
         <v>4</v>
       </c>
       <c r="J82">
         <v>809</v>
       </c>
-      <c r="K82" s="13" t="s">
-        <v>141</v>
+      <c r="K82" s="10" t="b">
+        <v>0</v>
       </c>
       <c r="L82" s="13" t="s">
         <v>141</v>
@@ -7309,8 +8522,11 @@
       <c r="S82" s="13" t="s">
         <v>141</v>
       </c>
+      <c r="T82" s="13" t="s">
+        <v>141</v>
+      </c>
     </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A83" s="13" t="s">
         <v>219</v>
       </c>
@@ -7320,14 +8536,29 @@
       <c r="C83">
         <v>10</v>
       </c>
+      <c r="D83" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="E83" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="F83" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="G83" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="H83" s="10" t="s">
+        <v>285</v>
+      </c>
       <c r="I83">
         <v>4</v>
       </c>
       <c r="J83">
         <v>810</v>
       </c>
-      <c r="K83" s="13" t="s">
-        <v>271</v>
+      <c r="K83" s="10" t="b">
+        <v>0</v>
       </c>
       <c r="L83" s="13" t="s">
         <v>271</v>
@@ -7353,8 +8584,11 @@
       <c r="S83" s="13" t="s">
         <v>271</v>
       </c>
+      <c r="T83" s="13" t="s">
+        <v>271</v>
+      </c>
     </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A84" s="13" t="s">
         <v>220</v>
       </c>
@@ -7364,14 +8598,29 @@
       <c r="C84">
         <v>11</v>
       </c>
+      <c r="D84" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="E84" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="F84" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="G84" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="H84" s="10" t="s">
+        <v>285</v>
+      </c>
       <c r="I84">
         <v>4</v>
       </c>
       <c r="J84">
         <v>811</v>
       </c>
-      <c r="K84" s="13" t="s">
-        <v>272</v>
+      <c r="K84" s="10" t="b">
+        <v>0</v>
       </c>
       <c r="L84" s="13" t="s">
         <v>272</v>
@@ -7397,8 +8646,11 @@
       <c r="S84" s="13" t="s">
         <v>272</v>
       </c>
+      <c r="T84" s="13" t="s">
+        <v>272</v>
+      </c>
     </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A85" s="13" t="s">
         <v>221</v>
       </c>
@@ -7408,14 +8660,29 @@
       <c r="C85">
         <v>12</v>
       </c>
+      <c r="D85" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="E85" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="F85" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="G85" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="H85" s="10" t="s">
+        <v>285</v>
+      </c>
       <c r="I85">
         <v>4</v>
       </c>
       <c r="J85">
         <v>812</v>
       </c>
-      <c r="K85" s="13" t="s">
-        <v>272</v>
+      <c r="K85" s="10" t="b">
+        <v>0</v>
       </c>
       <c r="L85" s="13" t="s">
         <v>272</v>
@@ -7441,8 +8708,11 @@
       <c r="S85" s="13" t="s">
         <v>272</v>
       </c>
+      <c r="T85" s="13" t="s">
+        <v>272</v>
+      </c>
     </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A86" s="13" t="s">
         <v>222</v>
       </c>
@@ -7452,14 +8722,29 @@
       <c r="C86">
         <v>13</v>
       </c>
+      <c r="D86" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="E86" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="F86" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="G86" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="H86" s="10" t="s">
+        <v>285</v>
+      </c>
       <c r="I86">
         <v>4</v>
       </c>
       <c r="J86">
         <v>813</v>
       </c>
-      <c r="K86" s="13" t="s">
-        <v>272</v>
+      <c r="K86" s="10" t="b">
+        <v>0</v>
       </c>
       <c r="L86" s="13" t="s">
         <v>272</v>
@@ -7485,8 +8770,11 @@
       <c r="S86" s="13" t="s">
         <v>272</v>
       </c>
+      <c r="T86" s="13" t="s">
+        <v>272</v>
+      </c>
     </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A87" s="13" t="s">
         <v>223</v>
       </c>
@@ -7496,14 +8784,29 @@
       <c r="C87">
         <v>14</v>
       </c>
+      <c r="D87" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="E87" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="F87" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="G87" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="H87" s="10" t="s">
+        <v>285</v>
+      </c>
       <c r="I87">
         <v>4</v>
       </c>
       <c r="J87">
         <v>814</v>
       </c>
-      <c r="K87" s="13" t="s">
-        <v>272</v>
+      <c r="K87" s="10" t="b">
+        <v>0</v>
       </c>
       <c r="L87" s="13" t="s">
         <v>272</v>
@@ -7529,8 +8832,11 @@
       <c r="S87" s="13" t="s">
         <v>272</v>
       </c>
+      <c r="T87" s="13" t="s">
+        <v>272</v>
+      </c>
     </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A88" s="13" t="s">
         <v>224</v>
       </c>
@@ -7540,14 +8846,29 @@
       <c r="C88">
         <v>15</v>
       </c>
+      <c r="D88" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="E88" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="F88" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="G88" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="H88" s="10" t="s">
+        <v>285</v>
+      </c>
       <c r="I88">
         <v>4</v>
       </c>
       <c r="J88">
         <v>815</v>
       </c>
-      <c r="K88" s="13" t="s">
-        <v>272</v>
+      <c r="K88" s="10" t="b">
+        <v>0</v>
       </c>
       <c r="L88" s="13" t="s">
         <v>272</v>
@@ -7573,8 +8894,11 @@
       <c r="S88" s="13" t="s">
         <v>272</v>
       </c>
+      <c r="T88" s="13" t="s">
+        <v>272</v>
+      </c>
     </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A89" s="13" t="s">
         <v>225</v>
       </c>
@@ -7584,14 +8908,29 @@
       <c r="C89">
         <v>16</v>
       </c>
+      <c r="D89" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="E89" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="F89" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="G89" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="H89" s="10" t="s">
+        <v>285</v>
+      </c>
       <c r="I89">
         <v>4</v>
       </c>
       <c r="J89">
         <v>816</v>
       </c>
-      <c r="K89" s="13" t="s">
-        <v>272</v>
+      <c r="K89" s="10" t="b">
+        <v>0</v>
       </c>
       <c r="L89" s="13" t="s">
         <v>272</v>
@@ -7617,8 +8956,11 @@
       <c r="S89" s="13" t="s">
         <v>272</v>
       </c>
+      <c r="T89" s="13" t="s">
+        <v>272</v>
+      </c>
     </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A90" s="13" t="s">
         <v>226</v>
       </c>
@@ -7628,14 +8970,29 @@
       <c r="C90">
         <v>17</v>
       </c>
+      <c r="D90" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="E90" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="F90" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="G90" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="H90" s="10" t="s">
+        <v>285</v>
+      </c>
       <c r="I90">
         <v>4</v>
       </c>
       <c r="J90">
         <v>817</v>
       </c>
-      <c r="K90" s="13" t="s">
-        <v>272</v>
+      <c r="K90" s="10" t="b">
+        <v>0</v>
       </c>
       <c r="L90" s="13" t="s">
         <v>272</v>
@@ -7661,8 +9018,11 @@
       <c r="S90" s="13" t="s">
         <v>272</v>
       </c>
+      <c r="T90" s="13" t="s">
+        <v>272</v>
+      </c>
     </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A91" s="13" t="s">
         <v>227</v>
       </c>
@@ -7672,14 +9032,29 @@
       <c r="C91">
         <v>18</v>
       </c>
+      <c r="D91" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="E91" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="F91" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="G91" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="H91" s="10" t="s">
+        <v>285</v>
+      </c>
       <c r="I91">
         <v>4</v>
       </c>
       <c r="J91">
         <v>818</v>
       </c>
-      <c r="K91" s="13" t="s">
-        <v>272</v>
+      <c r="K91" s="10" t="b">
+        <v>0</v>
       </c>
       <c r="L91" s="13" t="s">
         <v>272</v>
@@ -7705,8 +9080,11 @@
       <c r="S91" s="13" t="s">
         <v>272</v>
       </c>
+      <c r="T91" s="13" t="s">
+        <v>272</v>
+      </c>
     </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A92" s="13" t="s">
         <v>228</v>
       </c>
@@ -7716,14 +9094,29 @@
       <c r="C92">
         <v>19</v>
       </c>
+      <c r="D92" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="E92" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="F92" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="G92" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="H92" s="10" t="s">
+        <v>285</v>
+      </c>
       <c r="I92">
         <v>0</v>
       </c>
       <c r="J92">
         <v>875</v>
       </c>
-      <c r="K92" s="13" t="s">
-        <v>141</v>
+      <c r="K92" s="10" t="b">
+        <v>0</v>
       </c>
       <c r="L92" s="13" t="s">
         <v>141</v>
@@ -7749,8 +9142,11 @@
       <c r="S92" s="13" t="s">
         <v>141</v>
       </c>
+      <c r="T92" s="13" t="s">
+        <v>141</v>
+      </c>
     </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A93" s="13" t="s">
         <v>209</v>
       </c>
@@ -7760,14 +9156,29 @@
       <c r="C93">
         <v>20</v>
       </c>
+      <c r="D93" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="E93" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="F93" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="G93" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="H93" s="10" t="s">
+        <v>285</v>
+      </c>
       <c r="I93">
         <v>0</v>
       </c>
       <c r="J93">
         <v>824</v>
       </c>
-      <c r="K93" s="13" t="s">
-        <v>141</v>
+      <c r="K93" s="10" t="b">
+        <v>0</v>
       </c>
       <c r="L93" s="13" t="s">
         <v>141</v>
@@ -7793,13 +9204,17 @@
       <c r="S93" s="13" t="s">
         <v>141</v>
       </c>
+      <c r="T93" s="13" t="s">
+        <v>141</v>
+      </c>
     </row>
-    <row r="94" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A94" s="9" t="s">
         <v>22</v>
       </c>
+      <c r="K94" s="10"/>
     </row>
-    <row r="95" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A95" s="13" t="s">
         <v>171</v>
       </c>
@@ -7809,14 +9224,29 @@
       <c r="C95">
         <v>1</v>
       </c>
+      <c r="D95" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="E95" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="F95" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="G95" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="H95" s="10" t="s">
+        <v>285</v>
+      </c>
       <c r="I95">
         <v>4</v>
       </c>
       <c r="J95">
         <v>819</v>
       </c>
-      <c r="K95" s="13" t="s">
-        <v>263</v>
+      <c r="K95" s="10" t="b">
+        <v>0</v>
       </c>
       <c r="L95" s="13" t="s">
         <v>263</v>
@@ -7842,8 +9272,11 @@
       <c r="S95" s="13" t="s">
         <v>263</v>
       </c>
+      <c r="T95" s="13" t="s">
+        <v>263</v>
+      </c>
     </row>
-    <row r="96" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A96" s="13" t="s">
         <v>229</v>
       </c>
@@ -7853,14 +9286,29 @@
       <c r="C96">
         <v>2</v>
       </c>
+      <c r="D96" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="E96" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="F96" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="G96" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="H96" s="10" t="s">
+        <v>285</v>
+      </c>
       <c r="I96">
         <v>4</v>
       </c>
       <c r="J96">
         <v>823</v>
       </c>
-      <c r="K96" s="13" t="s">
-        <v>273</v>
+      <c r="K96" s="10" t="b">
+        <v>0</v>
       </c>
       <c r="L96" s="13" t="s">
         <v>273</v>
@@ -7886,8 +9334,11 @@
       <c r="S96" s="13" t="s">
         <v>273</v>
       </c>
+      <c r="T96" s="13" t="s">
+        <v>273</v>
+      </c>
     </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A97" s="13" t="s">
         <v>230</v>
       </c>
@@ -7897,14 +9348,29 @@
       <c r="C97">
         <v>3</v>
       </c>
+      <c r="D97" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="E97" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="F97" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="G97" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="H97" s="10" t="s">
+        <v>285</v>
+      </c>
       <c r="I97">
         <v>0</v>
       </c>
       <c r="J97">
         <v>886</v>
       </c>
-      <c r="K97" s="13" t="s">
-        <v>141</v>
+      <c r="K97" s="10" t="b">
+        <v>0</v>
       </c>
       <c r="L97" s="13" t="s">
         <v>141</v>
@@ -7930,8 +9396,11 @@
       <c r="S97" s="13" t="s">
         <v>141</v>
       </c>
+      <c r="T97" s="13" t="s">
+        <v>141</v>
+      </c>
     </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A98" s="13" t="s">
         <v>231</v>
       </c>
@@ -7941,14 +9410,29 @@
       <c r="C98">
         <v>4</v>
       </c>
+      <c r="D98" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="E98" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="F98" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="G98" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="H98" s="10" t="s">
+        <v>285</v>
+      </c>
       <c r="I98">
         <v>0</v>
       </c>
       <c r="J98">
         <v>882</v>
       </c>
-      <c r="K98" s="13" t="s">
-        <v>141</v>
+      <c r="K98" s="10" t="b">
+        <v>0</v>
       </c>
       <c r="L98" s="13" t="s">
         <v>141</v>
@@ -7974,8 +9458,11 @@
       <c r="S98" s="13" t="s">
         <v>141</v>
       </c>
+      <c r="T98" s="13" t="s">
+        <v>141</v>
+      </c>
     </row>
-    <row r="99" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A99" s="13" t="s">
         <v>232</v>
       </c>
@@ -7985,14 +9472,29 @@
       <c r="C99">
         <v>5</v>
       </c>
+      <c r="D99" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="E99" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="F99" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="G99" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="H99" s="10" t="s">
+        <v>285</v>
+      </c>
       <c r="I99">
         <v>0</v>
       </c>
       <c r="J99">
         <v>884</v>
       </c>
-      <c r="K99" s="13" t="s">
-        <v>141</v>
+      <c r="K99" s="10" t="b">
+        <v>0</v>
       </c>
       <c r="L99" s="13" t="s">
         <v>141</v>
@@ -8018,8 +9520,11 @@
       <c r="S99" s="13" t="s">
         <v>141</v>
       </c>
+      <c r="T99" s="13" t="s">
+        <v>141</v>
+      </c>
     </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A100" s="13" t="s">
         <v>233</v>
       </c>
@@ -8029,14 +9534,29 @@
       <c r="C100">
         <v>6</v>
       </c>
+      <c r="D100" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="E100" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="F100" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="G100" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="H100" s="10" t="s">
+        <v>285</v>
+      </c>
       <c r="I100">
         <v>0</v>
       </c>
       <c r="J100">
         <v>887</v>
       </c>
-      <c r="K100" s="13" t="s">
-        <v>141</v>
+      <c r="K100" s="10" t="b">
+        <v>0</v>
       </c>
       <c r="L100" s="13" t="s">
         <v>141</v>
@@ -8062,8 +9582,11 @@
       <c r="S100" s="13" t="s">
         <v>141</v>
       </c>
+      <c r="T100" s="13" t="s">
+        <v>141</v>
+      </c>
     </row>
-    <row r="101" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A101" s="13" t="s">
         <v>234</v>
       </c>
@@ -8073,14 +9596,29 @@
       <c r="C101">
         <v>7</v>
       </c>
+      <c r="D101" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="E101" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="F101" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="G101" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="H101" s="10" t="s">
+        <v>285</v>
+      </c>
       <c r="I101">
         <v>4</v>
       </c>
       <c r="J101">
         <v>820</v>
       </c>
-      <c r="K101" s="13" t="s">
-        <v>274</v>
+      <c r="K101" s="10" t="b">
+        <v>0</v>
       </c>
       <c r="L101" s="13" t="s">
         <v>274</v>
@@ -8106,8 +9644,11 @@
       <c r="S101" s="13" t="s">
         <v>274</v>
       </c>
+      <c r="T101" s="13" t="s">
+        <v>274</v>
+      </c>
     </row>
-    <row r="102" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A102" s="13" t="s">
         <v>235</v>
       </c>
@@ -8117,14 +9658,29 @@
       <c r="C102">
         <v>8</v>
       </c>
+      <c r="D102" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="E102" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="F102" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="G102" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="H102" s="10" t="s">
+        <v>285</v>
+      </c>
       <c r="I102">
         <v>0</v>
       </c>
       <c r="J102">
         <v>888</v>
       </c>
-      <c r="K102" s="13" t="s">
-        <v>141</v>
+      <c r="K102" s="10" t="b">
+        <v>0</v>
       </c>
       <c r="L102" s="13" t="s">
         <v>141</v>
@@ -8150,8 +9706,11 @@
       <c r="S102" s="13" t="s">
         <v>141</v>
       </c>
+      <c r="T102" s="13" t="s">
+        <v>141</v>
+      </c>
     </row>
-    <row r="103" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A103" s="13" t="s">
         <v>236</v>
       </c>
@@ -8161,14 +9720,29 @@
       <c r="C103">
         <v>9</v>
       </c>
+      <c r="D103" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="E103" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="F103" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="G103" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="H103" s="10" t="s">
+        <v>285</v>
+      </c>
       <c r="I103">
         <v>0</v>
       </c>
       <c r="J103">
         <v>892</v>
       </c>
-      <c r="K103" s="13" t="s">
-        <v>141</v>
+      <c r="K103" s="10" t="b">
+        <v>0</v>
       </c>
       <c r="L103" s="13" t="s">
         <v>141</v>
@@ -8194,8 +9768,11 @@
       <c r="S103" s="13" t="s">
         <v>141</v>
       </c>
+      <c r="T103" s="13" t="s">
+        <v>141</v>
+      </c>
     </row>
-    <row r="104" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A104" s="13" t="s">
         <v>237</v>
       </c>
@@ -8214,14 +9791,17 @@
       <c r="G104" t="s">
         <v>132</v>
       </c>
+      <c r="H104" s="10" t="s">
+        <v>285</v>
+      </c>
       <c r="I104">
         <v>0</v>
       </c>
       <c r="J104">
         <v>32</v>
       </c>
-      <c r="K104" s="13" t="s">
-        <v>141</v>
+      <c r="K104" s="10" t="b">
+        <v>0</v>
       </c>
       <c r="L104" s="13" t="s">
         <v>141</v>
@@ -8247,8 +9827,11 @@
       <c r="S104" s="13" t="s">
         <v>141</v>
       </c>
+      <c r="T104" s="13" t="s">
+        <v>141</v>
+      </c>
     </row>
-    <row r="105" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A105" s="13" t="s">
         <v>238</v>
       </c>
@@ -8258,14 +9841,29 @@
       <c r="C105">
         <v>11</v>
       </c>
+      <c r="D105" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="E105" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="F105" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="G105" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="H105" s="10" t="s">
+        <v>285</v>
+      </c>
       <c r="I105">
         <v>0</v>
       </c>
       <c r="J105">
         <v>889</v>
       </c>
-      <c r="K105" s="13" t="s">
-        <v>141</v>
+      <c r="K105" s="10" t="b">
+        <v>0</v>
       </c>
       <c r="L105" s="13" t="s">
         <v>141</v>
@@ -8291,8 +9889,11 @@
       <c r="S105" s="13" t="s">
         <v>141</v>
       </c>
+      <c r="T105" s="13" t="s">
+        <v>141</v>
+      </c>
     </row>
-    <row r="106" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A106" s="13" t="s">
         <v>239</v>
       </c>
@@ -8302,14 +9903,29 @@
       <c r="C106">
         <v>12</v>
       </c>
+      <c r="D106" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="E106" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="F106" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="G106" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="H106" s="10" t="s">
+        <v>285</v>
+      </c>
       <c r="I106">
         <v>0</v>
       </c>
       <c r="J106">
         <v>890</v>
       </c>
-      <c r="K106" s="13" t="s">
-        <v>141</v>
+      <c r="K106" s="10" t="b">
+        <v>0</v>
       </c>
       <c r="L106" s="13" t="s">
         <v>141</v>
@@ -8335,8 +9951,11 @@
       <c r="S106" s="13" t="s">
         <v>141</v>
       </c>
+      <c r="T106" s="13" t="s">
+        <v>141</v>
+      </c>
     </row>
-    <row r="107" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A107" s="13" t="s">
         <v>240</v>
       </c>
@@ -8346,14 +9965,29 @@
       <c r="C107">
         <v>13</v>
       </c>
+      <c r="D107" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="E107" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="F107" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="G107" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="H107" s="10" t="s">
+        <v>285</v>
+      </c>
       <c r="I107">
         <v>0</v>
       </c>
       <c r="J107">
         <v>891</v>
       </c>
-      <c r="K107" s="13" t="s">
-        <v>141</v>
+      <c r="K107" s="10" t="b">
+        <v>0</v>
       </c>
       <c r="L107" s="13" t="s">
         <v>141</v>
@@ -8379,8 +10013,11 @@
       <c r="S107" s="13" t="s">
         <v>141</v>
       </c>
+      <c r="T107" s="13" t="s">
+        <v>141</v>
+      </c>
     </row>
-    <row r="108" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A108" s="13" t="s">
         <v>241</v>
       </c>
@@ -8390,41 +10027,59 @@
       <c r="C108">
         <v>14</v>
       </c>
+      <c r="D108" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="E108" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="F108" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="G108" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="H108" s="10" t="s">
+        <v>285</v>
+      </c>
       <c r="I108">
         <v>4</v>
       </c>
       <c r="J108">
         <v>821</v>
       </c>
-      <c r="K108" s="13" t="s">
+      <c r="K108" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="L108" s="13" t="s">
         <v>275</v>
       </c>
-      <c r="L108" s="13" t="s">
+      <c r="M108" s="13" t="s">
         <v>276</v>
       </c>
-      <c r="M108" s="13" t="s">
+      <c r="N108" s="13" t="s">
         <v>277</v>
       </c>
-      <c r="N108" s="13" t="s">
+      <c r="O108" s="13" t="s">
         <v>278</v>
       </c>
-      <c r="O108" s="13" t="s">
+      <c r="P108" s="13" t="s">
         <v>279</v>
       </c>
-      <c r="P108" s="13" t="s">
+      <c r="Q108" s="13" t="s">
         <v>280</v>
       </c>
-      <c r="Q108" s="13" t="s">
+      <c r="R108" s="13" t="s">
         <v>281</v>
       </c>
-      <c r="R108" s="13" t="s">
+      <c r="S108" s="13" t="s">
         <v>282</v>
       </c>
-      <c r="S108" s="13" t="s">
+      <c r="T108" s="13" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="109" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A109" s="13" t="s">
         <v>242</v>
       </c>
@@ -8434,14 +10089,29 @@
       <c r="C109">
         <v>15</v>
       </c>
+      <c r="D109" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="E109" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="F109" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="G109" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="H109" s="10" t="s">
+        <v>285</v>
+      </c>
       <c r="I109">
         <v>0</v>
       </c>
       <c r="J109">
         <v>899</v>
       </c>
-      <c r="K109" s="13" t="s">
-        <v>141</v>
+      <c r="K109" s="10" t="b">
+        <v>0</v>
       </c>
       <c r="L109" s="13" t="s">
         <v>141</v>
@@ -8467,8 +10137,11 @@
       <c r="S109" s="13" t="s">
         <v>141</v>
       </c>
+      <c r="T109" s="13" t="s">
+        <v>141</v>
+      </c>
     </row>
-    <row r="110" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A110" s="13" t="s">
         <v>243</v>
       </c>
@@ -8478,14 +10151,29 @@
       <c r="C110">
         <v>16</v>
       </c>
+      <c r="D110" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="E110" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="F110" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="G110" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="H110" s="10" t="s">
+        <v>285</v>
+      </c>
       <c r="I110">
         <v>0</v>
       </c>
       <c r="J110">
         <v>898</v>
       </c>
-      <c r="K110" s="13" t="s">
-        <v>141</v>
+      <c r="K110" s="10" t="b">
+        <v>0</v>
       </c>
       <c r="L110" s="13" t="s">
         <v>141</v>
@@ -8511,8 +10199,11 @@
       <c r="S110" s="13" t="s">
         <v>141</v>
       </c>
+      <c r="T110" s="13" t="s">
+        <v>141</v>
+      </c>
     </row>
-    <row r="111" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A111" s="13" t="s">
         <v>244</v>
       </c>
@@ -8522,14 +10213,29 @@
       <c r="C111">
         <v>17</v>
       </c>
+      <c r="D111" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="E111" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="F111" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="G111" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="H111" s="10" t="s">
+        <v>285</v>
+      </c>
       <c r="I111">
         <v>0</v>
       </c>
       <c r="J111">
         <v>897</v>
       </c>
-      <c r="K111" s="13" t="s">
-        <v>141</v>
+      <c r="K111" s="10" t="b">
+        <v>0</v>
       </c>
       <c r="L111" s="13" t="s">
         <v>141</v>
@@ -8555,8 +10261,11 @@
       <c r="S111" s="13" t="s">
         <v>141</v>
       </c>
+      <c r="T111" s="13" t="s">
+        <v>141</v>
+      </c>
     </row>
-    <row r="112" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A112" s="13" t="s">
         <v>245</v>
       </c>
@@ -8566,14 +10275,29 @@
       <c r="C112">
         <v>18</v>
       </c>
+      <c r="D112" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="E112" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="F112" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="G112" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="H112" s="10" t="s">
+        <v>285</v>
+      </c>
       <c r="I112">
         <v>0</v>
       </c>
       <c r="J112">
         <v>896</v>
       </c>
-      <c r="K112" s="13" t="s">
-        <v>141</v>
+      <c r="K112" s="10" t="b">
+        <v>0</v>
       </c>
       <c r="L112" s="13" t="s">
         <v>141</v>
@@ -8599,8 +10323,11 @@
       <c r="S112" s="13" t="s">
         <v>141</v>
       </c>
+      <c r="T112" s="13" t="s">
+        <v>141</v>
+      </c>
     </row>
-    <row r="113" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A113" s="13" t="s">
         <v>246</v>
       </c>
@@ -8610,14 +10337,29 @@
       <c r="C113">
         <v>19</v>
       </c>
+      <c r="D113" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="E113" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="F113" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="G113" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="H113" s="10" t="s">
+        <v>285</v>
+      </c>
       <c r="I113">
         <v>0</v>
       </c>
       <c r="J113">
         <v>895</v>
       </c>
-      <c r="K113" s="13" t="s">
-        <v>141</v>
+      <c r="K113" s="10" t="b">
+        <v>0</v>
       </c>
       <c r="L113" s="13" t="s">
         <v>141</v>
@@ -8643,8 +10385,11 @@
       <c r="S113" s="13" t="s">
         <v>141</v>
       </c>
+      <c r="T113" s="13" t="s">
+        <v>141</v>
+      </c>
     </row>
-    <row r="114" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A114" s="13" t="s">
         <v>247</v>
       </c>
@@ -8654,14 +10399,29 @@
       <c r="C114">
         <v>20</v>
       </c>
+      <c r="D114" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="E114" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="F114" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="G114" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="H114" s="10" t="s">
+        <v>285</v>
+      </c>
       <c r="I114">
         <v>0</v>
       </c>
       <c r="J114">
         <v>881</v>
       </c>
-      <c r="K114" s="13" t="s">
-        <v>141</v>
+      <c r="K114" s="10" t="b">
+        <v>0</v>
       </c>
       <c r="L114" s="13" t="s">
         <v>141</v>
@@ -8687,8 +10447,11 @@
       <c r="S114" s="13" t="s">
         <v>141</v>
       </c>
+      <c r="T114" s="13" t="s">
+        <v>141</v>
+      </c>
     </row>
-    <row r="115" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A115" s="13" t="s">
         <v>248</v>
       </c>
@@ -8698,14 +10461,29 @@
       <c r="C115">
         <v>21</v>
       </c>
+      <c r="D115" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="E115" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="F115" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="G115" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="H115" s="10" t="s">
+        <v>285</v>
+      </c>
       <c r="I115">
         <v>0</v>
       </c>
       <c r="J115">
         <v>883</v>
       </c>
-      <c r="K115" s="13" t="s">
-        <v>141</v>
+      <c r="K115" s="10" t="b">
+        <v>0</v>
       </c>
       <c r="L115" s="13" t="s">
         <v>141</v>
@@ -8731,97 +10509,100 @@
       <c r="S115" s="13" t="s">
         <v>141</v>
       </c>
+      <c r="T115" s="13" t="s">
+        <v>141</v>
+      </c>
     </row>
-    <row r="116" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B116" s="10"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="K3:S3 K35:S35 K37:S41">
+  <conditionalFormatting sqref="L3:T3 L35:T35 L37:T41">
     <cfRule type="cellIs" dxfId="333" priority="346" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K3:S3 K35:S35 K37:S41">
+  <conditionalFormatting sqref="L3:T3 L35:T35 L37:T41">
     <cfRule type="cellIs" dxfId="332" priority="345" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K4:S4">
+  <conditionalFormatting sqref="L4:T4">
     <cfRule type="cellIs" dxfId="331" priority="344" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K4:S4">
+  <conditionalFormatting sqref="L4:T4">
     <cfRule type="cellIs" dxfId="330" priority="343" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K5:S5">
+  <conditionalFormatting sqref="L5:T5">
     <cfRule type="cellIs" dxfId="329" priority="342" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K5:S5">
+  <conditionalFormatting sqref="L5:T5">
     <cfRule type="cellIs" dxfId="328" priority="341" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K6:S6">
+  <conditionalFormatting sqref="L6:T6">
     <cfRule type="cellIs" dxfId="327" priority="340" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K6:S6">
+  <conditionalFormatting sqref="L6:T6">
     <cfRule type="cellIs" dxfId="326" priority="339" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K7:S7">
+  <conditionalFormatting sqref="L7:T7">
     <cfRule type="cellIs" dxfId="325" priority="338" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K7:S7">
+  <conditionalFormatting sqref="L7:T7">
     <cfRule type="cellIs" dxfId="324" priority="337" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K7:S7">
+  <conditionalFormatting sqref="L7:T7">
     <cfRule type="cellIs" dxfId="323" priority="336" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K7:S7">
+  <conditionalFormatting sqref="L7:T7">
     <cfRule type="cellIs" dxfId="322" priority="335" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K8:S15">
+  <conditionalFormatting sqref="L8:T15">
     <cfRule type="cellIs" dxfId="321" priority="334" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K8:S15">
+  <conditionalFormatting sqref="L8:T15">
     <cfRule type="cellIs" dxfId="320" priority="333" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K16:S16">
+  <conditionalFormatting sqref="L16:T16">
     <cfRule type="cellIs" dxfId="319" priority="332" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K16:S16">
+  <conditionalFormatting sqref="L16:T16">
     <cfRule type="cellIs" dxfId="318" priority="331" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K17:S17">
+  <conditionalFormatting sqref="L17:T17">
     <cfRule type="cellIs" dxfId="317" priority="330" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K17:S17">
+  <conditionalFormatting sqref="L17:T17">
     <cfRule type="cellIs" dxfId="316" priority="329" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
@@ -9816,592 +11597,592 @@
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K19:S20">
+  <conditionalFormatting sqref="L19:T20">
     <cfRule type="cellIs" dxfId="117" priority="124" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K19:S20">
+  <conditionalFormatting sqref="L19:T20">
     <cfRule type="cellIs" dxfId="116" priority="123" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K21:S22">
+  <conditionalFormatting sqref="L21:T22">
     <cfRule type="cellIs" dxfId="115" priority="122" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K21:S22">
+  <conditionalFormatting sqref="L21:T22">
     <cfRule type="cellIs" dxfId="114" priority="121" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K23:S23">
+  <conditionalFormatting sqref="L23:T23">
     <cfRule type="cellIs" dxfId="113" priority="120" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K23:S23">
+  <conditionalFormatting sqref="L23:T23">
     <cfRule type="cellIs" dxfId="112" priority="119" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K24:S24">
+  <conditionalFormatting sqref="L24:T24">
     <cfRule type="cellIs" dxfId="111" priority="116" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K24:S24">
+  <conditionalFormatting sqref="L24:T24">
     <cfRule type="cellIs" dxfId="110" priority="115" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L25:S25">
+  <conditionalFormatting sqref="M25:T25">
     <cfRule type="cellIs" dxfId="109" priority="114" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L25:S25">
+  <conditionalFormatting sqref="M25:T25">
     <cfRule type="cellIs" dxfId="108" priority="113" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L25:S25">
+  <conditionalFormatting sqref="M25:T25">
     <cfRule type="cellIs" dxfId="107" priority="112" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L25:S25">
+  <conditionalFormatting sqref="M25:T25">
     <cfRule type="cellIs" dxfId="106" priority="111" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K25">
+  <conditionalFormatting sqref="L25">
     <cfRule type="cellIs" dxfId="105" priority="110" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K25">
+  <conditionalFormatting sqref="L25">
     <cfRule type="cellIs" dxfId="104" priority="109" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K25">
+  <conditionalFormatting sqref="L25">
     <cfRule type="cellIs" dxfId="103" priority="108" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K25">
+  <conditionalFormatting sqref="L25">
     <cfRule type="cellIs" dxfId="102" priority="107" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K26:S26">
+  <conditionalFormatting sqref="L26:T26">
     <cfRule type="cellIs" dxfId="101" priority="106" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K26:S26">
+  <conditionalFormatting sqref="L26:T26">
     <cfRule type="cellIs" dxfId="100" priority="105" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K27:S27">
+  <conditionalFormatting sqref="L27:T27">
     <cfRule type="cellIs" dxfId="99" priority="104" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K27:S27">
+  <conditionalFormatting sqref="L27:T27">
     <cfRule type="cellIs" dxfId="98" priority="103" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K28:S28">
+  <conditionalFormatting sqref="L28:T28">
     <cfRule type="cellIs" dxfId="97" priority="102" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K28:S28">
+  <conditionalFormatting sqref="L28:T28">
     <cfRule type="cellIs" dxfId="96" priority="101" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K29:S29">
+  <conditionalFormatting sqref="L29:T29">
     <cfRule type="cellIs" dxfId="95" priority="98" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K29:S29">
+  <conditionalFormatting sqref="L29:T29">
     <cfRule type="cellIs" dxfId="94" priority="97" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K30:S30">
+  <conditionalFormatting sqref="L30:T30">
     <cfRule type="cellIs" dxfId="93" priority="96" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K30:S30">
+  <conditionalFormatting sqref="L30:T30">
     <cfRule type="cellIs" dxfId="92" priority="95" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K31:S31">
+  <conditionalFormatting sqref="L31:T31">
     <cfRule type="cellIs" dxfId="91" priority="94" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K31:S31">
+  <conditionalFormatting sqref="L31:T31">
     <cfRule type="cellIs" dxfId="90" priority="93" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K32:S32">
+  <conditionalFormatting sqref="L32:T32">
     <cfRule type="cellIs" dxfId="89" priority="92" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K32:S32">
+  <conditionalFormatting sqref="L32:T32">
     <cfRule type="cellIs" dxfId="88" priority="91" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K32:S32">
+  <conditionalFormatting sqref="L32:T32">
     <cfRule type="cellIs" dxfId="87" priority="90" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K32:S32">
+  <conditionalFormatting sqref="L32:T32">
     <cfRule type="cellIs" dxfId="86" priority="89" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K33:S34">
+  <conditionalFormatting sqref="L33:T34">
     <cfRule type="cellIs" dxfId="85" priority="88" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K33:S34">
+  <conditionalFormatting sqref="L33:T34">
     <cfRule type="cellIs" dxfId="84" priority="87" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K42:S42">
+  <conditionalFormatting sqref="L42:T42">
     <cfRule type="cellIs" dxfId="83" priority="84" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K42:S42">
+  <conditionalFormatting sqref="L42:T42">
     <cfRule type="cellIs" dxfId="82" priority="83" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K43:S53">
+  <conditionalFormatting sqref="L43:T53">
     <cfRule type="cellIs" dxfId="81" priority="82" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K43:S53">
+  <conditionalFormatting sqref="L43:T53">
     <cfRule type="cellIs" dxfId="80" priority="81" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K54:S54">
+  <conditionalFormatting sqref="L54:T54">
     <cfRule type="cellIs" dxfId="79" priority="80" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K54:S54">
+  <conditionalFormatting sqref="L54:T54">
     <cfRule type="cellIs" dxfId="78" priority="79" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K55:S55">
+  <conditionalFormatting sqref="L55:T55">
     <cfRule type="cellIs" dxfId="77" priority="78" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K55:S55">
+  <conditionalFormatting sqref="L55:T55">
     <cfRule type="cellIs" dxfId="76" priority="77" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L56:S56">
+  <conditionalFormatting sqref="M56:T56">
     <cfRule type="cellIs" dxfId="75" priority="76" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L56:S56">
+  <conditionalFormatting sqref="M56:T56">
     <cfRule type="cellIs" dxfId="74" priority="75" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L56:S56">
+  <conditionalFormatting sqref="M56:T56">
     <cfRule type="cellIs" dxfId="73" priority="74" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K56">
+  <conditionalFormatting sqref="L56">
     <cfRule type="cellIs" dxfId="72" priority="73" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K56">
+  <conditionalFormatting sqref="L56">
     <cfRule type="cellIs" dxfId="71" priority="72" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K56">
+  <conditionalFormatting sqref="L56">
     <cfRule type="cellIs" dxfId="70" priority="71" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K57:S57">
+  <conditionalFormatting sqref="L57:T57">
     <cfRule type="cellIs" dxfId="69" priority="70" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K57:S57">
+  <conditionalFormatting sqref="L57:T57">
     <cfRule type="cellIs" dxfId="68" priority="69" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K58:S63">
+  <conditionalFormatting sqref="L58:T63">
     <cfRule type="cellIs" dxfId="67" priority="68" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K58:S63">
+  <conditionalFormatting sqref="L58:T63">
     <cfRule type="cellIs" dxfId="66" priority="67" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K64:S64">
+  <conditionalFormatting sqref="L64:T64">
     <cfRule type="cellIs" dxfId="65" priority="66" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K64:S64">
+  <conditionalFormatting sqref="L64:T64">
     <cfRule type="cellIs" dxfId="64" priority="65" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K65:S71 L72:S72 K74:S74">
+  <conditionalFormatting sqref="L65:T71 M72:T72 L74:T74">
     <cfRule type="cellIs" dxfId="63" priority="64" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K65:S71 L72:S72 K74:S74">
+  <conditionalFormatting sqref="L65:T71 M72:T72 L74:T74">
     <cfRule type="cellIs" dxfId="62" priority="63" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K72">
+  <conditionalFormatting sqref="L72">
     <cfRule type="cellIs" dxfId="61" priority="62" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K72">
+  <conditionalFormatting sqref="L72">
     <cfRule type="cellIs" dxfId="60" priority="61" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L75:S77">
+  <conditionalFormatting sqref="M75:T77">
     <cfRule type="cellIs" dxfId="59" priority="60" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L75:S77">
+  <conditionalFormatting sqref="M75:T77">
     <cfRule type="cellIs" dxfId="58" priority="59" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K75">
+  <conditionalFormatting sqref="L75">
     <cfRule type="cellIs" dxfId="57" priority="58" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K75">
+  <conditionalFormatting sqref="L75">
     <cfRule type="cellIs" dxfId="56" priority="57" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K76:K77">
+  <conditionalFormatting sqref="L76:L77">
     <cfRule type="cellIs" dxfId="55" priority="56" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K76:K77">
+  <conditionalFormatting sqref="L76:L77">
     <cfRule type="cellIs" dxfId="54" priority="55" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K78:S78">
+  <conditionalFormatting sqref="L78:T78">
     <cfRule type="cellIs" dxfId="53" priority="54" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K78:S78">
+  <conditionalFormatting sqref="L78:T78">
     <cfRule type="cellIs" dxfId="52" priority="53" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K79:S79">
+  <conditionalFormatting sqref="L79:T79">
     <cfRule type="cellIs" dxfId="51" priority="52" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K79:S79">
+  <conditionalFormatting sqref="L79:T79">
     <cfRule type="cellIs" dxfId="50" priority="51" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L80:S80">
+  <conditionalFormatting sqref="M80:T80">
     <cfRule type="cellIs" dxfId="49" priority="50" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L80:S80">
+  <conditionalFormatting sqref="M80:T80">
     <cfRule type="cellIs" dxfId="48" priority="49" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K80">
+  <conditionalFormatting sqref="L80">
     <cfRule type="cellIs" dxfId="47" priority="48" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K80">
+  <conditionalFormatting sqref="L80">
     <cfRule type="cellIs" dxfId="46" priority="47" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K81:S81">
+  <conditionalFormatting sqref="L81:T81">
     <cfRule type="cellIs" dxfId="45" priority="46" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K81:S81">
+  <conditionalFormatting sqref="L81:T81">
     <cfRule type="cellIs" dxfId="44" priority="45" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K81:S81">
+  <conditionalFormatting sqref="L81:T81">
     <cfRule type="cellIs" dxfId="43" priority="44" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K81:S81">
+  <conditionalFormatting sqref="L81:T81">
     <cfRule type="cellIs" dxfId="42" priority="43" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L82:S82">
+  <conditionalFormatting sqref="M82:T82">
     <cfRule type="cellIs" dxfId="41" priority="42" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L82:S82">
+  <conditionalFormatting sqref="M82:T82">
     <cfRule type="cellIs" dxfId="40" priority="41" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K82">
+  <conditionalFormatting sqref="L82">
     <cfRule type="cellIs" dxfId="39" priority="40" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K82">
+  <conditionalFormatting sqref="L82">
     <cfRule type="cellIs" dxfId="38" priority="39" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K83:S83">
+  <conditionalFormatting sqref="L83:T83">
     <cfRule type="cellIs" dxfId="37" priority="38" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K83:S83">
+  <conditionalFormatting sqref="L83:T83">
     <cfRule type="cellIs" dxfId="36" priority="37" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K83:S83">
+  <conditionalFormatting sqref="L83:T83">
     <cfRule type="cellIs" dxfId="35" priority="36" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K83:S83">
+  <conditionalFormatting sqref="L83:T83">
     <cfRule type="cellIs" dxfId="34" priority="35" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K84:S91">
+  <conditionalFormatting sqref="L84:T91">
     <cfRule type="cellIs" dxfId="33" priority="34" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K84:S91">
+  <conditionalFormatting sqref="L84:T91">
     <cfRule type="cellIs" dxfId="32" priority="33" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K84:S91">
+  <conditionalFormatting sqref="L84:T91">
     <cfRule type="cellIs" dxfId="31" priority="32" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K84:S91">
+  <conditionalFormatting sqref="L84:T91">
     <cfRule type="cellIs" dxfId="30" priority="31" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K84:S91">
+  <conditionalFormatting sqref="L84:T91">
     <cfRule type="cellIs" dxfId="29" priority="30" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K84:S91">
+  <conditionalFormatting sqref="L84:T91">
     <cfRule type="cellIs" dxfId="28" priority="29" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K84:S91">
+  <conditionalFormatting sqref="L84:T91">
     <cfRule type="cellIs" dxfId="27" priority="28" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K84:S91">
+  <conditionalFormatting sqref="L84:T91">
     <cfRule type="cellIs" dxfId="26" priority="27" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L92:S93">
+  <conditionalFormatting sqref="M92:T93">
     <cfRule type="cellIs" dxfId="25" priority="26" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L92:S93">
+  <conditionalFormatting sqref="M92:T93">
     <cfRule type="cellIs" dxfId="24" priority="25" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K92:K93">
+  <conditionalFormatting sqref="L92:L93">
     <cfRule type="cellIs" dxfId="23" priority="24" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K92:K93">
+  <conditionalFormatting sqref="L92:L93">
     <cfRule type="cellIs" dxfId="22" priority="23" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K95:S95">
+  <conditionalFormatting sqref="L95:T95">
     <cfRule type="cellIs" dxfId="21" priority="22" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K95:S95">
+  <conditionalFormatting sqref="L95:T95">
     <cfRule type="cellIs" dxfId="20" priority="21" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K95:S95">
+  <conditionalFormatting sqref="L95:T95">
     <cfRule type="cellIs" dxfId="19" priority="20" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K95:S95">
+  <conditionalFormatting sqref="L95:T95">
     <cfRule type="cellIs" dxfId="18" priority="19" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K96:S96">
+  <conditionalFormatting sqref="L96:T96">
     <cfRule type="cellIs" dxfId="17" priority="18" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K96:S96">
+  <conditionalFormatting sqref="L96:T96">
     <cfRule type="cellIs" dxfId="16" priority="17" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L97:S100">
+  <conditionalFormatting sqref="M97:T100">
     <cfRule type="cellIs" dxfId="15" priority="16" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L97:S100">
+  <conditionalFormatting sqref="M97:T100">
     <cfRule type="cellIs" dxfId="14" priority="15" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K97:K100">
+  <conditionalFormatting sqref="L97:L100">
     <cfRule type="cellIs" dxfId="13" priority="14" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K97:K100">
+  <conditionalFormatting sqref="L97:L100">
     <cfRule type="cellIs" dxfId="12" priority="13" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K101:S101">
+  <conditionalFormatting sqref="L101:T101">
     <cfRule type="cellIs" dxfId="11" priority="12" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K101:S101">
+  <conditionalFormatting sqref="L101:T101">
     <cfRule type="cellIs" dxfId="10" priority="11" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L102:S107">
+  <conditionalFormatting sqref="M102:T107">
     <cfRule type="cellIs" dxfId="9" priority="10" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L102:S107">
+  <conditionalFormatting sqref="M102:T107">
     <cfRule type="cellIs" dxfId="8" priority="9" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K102:K107">
+  <conditionalFormatting sqref="L102:L107">
     <cfRule type="cellIs" dxfId="7" priority="8" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K102:K107">
+  <conditionalFormatting sqref="L102:L107">
     <cfRule type="cellIs" dxfId="6" priority="7" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K108:S108">
+  <conditionalFormatting sqref="L108:T108">
     <cfRule type="cellIs" dxfId="5" priority="6" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K108:S108">
+  <conditionalFormatting sqref="L108:T108">
     <cfRule type="cellIs" dxfId="4" priority="5" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L109:S115">
+  <conditionalFormatting sqref="M109:T115">
     <cfRule type="cellIs" dxfId="3" priority="4" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L109:S115">
+  <conditionalFormatting sqref="M109:T115">
     <cfRule type="cellIs" dxfId="2" priority="3" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K109:K115">
+  <conditionalFormatting sqref="L109:L115">
     <cfRule type="cellIs" dxfId="1" priority="2" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K109:K115">
+  <conditionalFormatting sqref="L109:L115">
     <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
